--- a/Inputs/UKVN GAMRIF GtR IDs/UKRI non GCRF-Newton projects (with UKVN, GAMRIF).xlsx
+++ b/Inputs/UKVN GAMRIF GtR IDs/UKRI non GCRF-Newton projects (with UKVN, GAMRIF).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\clegge\OneDrive - Wellcome Cloud\My Documents\GitHub\ODA_research_and_innovation\Inputs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://dfid-my.sharepoint.com/personal/e-clegg_dfid_gov_uk/Documents/Github Projects/ODA_research_and_innovation/Inputs/UKVN GAMRIF GtR IDs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="445" documentId="8_{A7CB007D-EB5B-426F-BA87-70F501631DFD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{CB70E1FE-D1AC-418F-945B-12AE121956E4}"/>
+  <xr:revisionPtr revIDLastSave="452" documentId="8_{A7CB007D-EB5B-426F-BA87-70F501631DFD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{878AA400-CC27-4FB4-9721-95B7E2B909C0}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="1188" windowWidth="29040" windowHeight="15840" xr2:uid="{FF2F4B21-F468-4F3D-9B32-1F43EB9441E3}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{FF2F4B21-F468-4F3D-9B32-1F43EB9441E3}"/>
   </bookViews>
   <sheets>
     <sheet name="UKRI projects (IDs)" sheetId="1" r:id="rId1"/>
@@ -4579,28 +4579,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFE69B1E-4C03-4D84-928E-D5B745E44B09}">
-  <sheetPr>
+  <sheetPr filterMode="1">
     <tabColor theme="4" tint="0.59999389629810485"/>
   </sheetPr>
   <dimension ref="A1:G928"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A842" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A874" sqref="A874"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D851" sqref="A1:G928"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="33.5" customWidth="1"/>
-    <col min="2" max="2" width="15.09765625" customWidth="1"/>
+    <col min="2" max="2" width="15.08203125" customWidth="1"/>
     <col min="3" max="3" width="40" customWidth="1"/>
-    <col min="4" max="4" width="21.19921875" customWidth="1"/>
-    <col min="5" max="5" width="16.69921875" customWidth="1"/>
-    <col min="6" max="6" width="20.09765625" customWidth="1"/>
-    <col min="7" max="7" width="73.69921875" customWidth="1"/>
+    <col min="4" max="4" width="21.1640625" customWidth="1"/>
+    <col min="5" max="5" width="16.6640625" customWidth="1"/>
+    <col min="6" max="6" width="20.08203125" customWidth="1"/>
+    <col min="7" max="7" width="73.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -4623,7 +4623,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>467</v>
       </c>
@@ -4646,7 +4646,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>467</v>
       </c>
@@ -4669,7 +4669,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>467</v>
       </c>
@@ -4692,7 +4692,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>467</v>
       </c>
@@ -4715,7 +4715,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>467</v>
       </c>
@@ -4738,7 +4738,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>467</v>
       </c>
@@ -4761,7 +4761,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>467</v>
       </c>
@@ -4784,7 +4784,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>467</v>
       </c>
@@ -4807,7 +4807,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>467</v>
       </c>
@@ -4830,7 +4830,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>467</v>
       </c>
@@ -4853,7 +4853,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>467</v>
       </c>
@@ -4876,7 +4876,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>467</v>
       </c>
@@ -4899,7 +4899,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>467</v>
       </c>
@@ -4922,7 +4922,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>467</v>
       </c>
@@ -4945,7 +4945,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>467</v>
       </c>
@@ -4968,7 +4968,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>467</v>
       </c>
@@ -4991,7 +4991,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>467</v>
       </c>
@@ -5014,7 +5014,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>467</v>
       </c>
@@ -5037,7 +5037,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>467</v>
       </c>
@@ -5060,7 +5060,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>467</v>
       </c>
@@ -5083,7 +5083,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>467</v>
       </c>
@@ -5106,7 +5106,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>467</v>
       </c>
@@ -5129,7 +5129,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>467</v>
       </c>
@@ -5152,7 +5152,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>467</v>
       </c>
@@ -5175,7 +5175,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>467</v>
       </c>
@@ -5198,7 +5198,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>467</v>
       </c>
@@ -5221,7 +5221,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>467</v>
       </c>
@@ -5244,7 +5244,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>467</v>
       </c>
@@ -5267,7 +5267,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>467</v>
       </c>
@@ -5290,7 +5290,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>467</v>
       </c>
@@ -5313,7 +5313,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>467</v>
       </c>
@@ -5336,7 +5336,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>467</v>
       </c>
@@ -5359,7 +5359,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>467</v>
       </c>
@@ -5382,7 +5382,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>467</v>
       </c>
@@ -5405,7 +5405,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>467</v>
       </c>
@@ -5428,7 +5428,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>467</v>
       </c>
@@ -5451,7 +5451,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>467</v>
       </c>
@@ -5474,7 +5474,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>467</v>
       </c>
@@ -5497,7 +5497,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>467</v>
       </c>
@@ -5520,7 +5520,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>467</v>
       </c>
@@ -5543,7 +5543,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>467</v>
       </c>
@@ -5566,7 +5566,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>467</v>
       </c>
@@ -5589,7 +5589,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>467</v>
       </c>
@@ -5612,7 +5612,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>467</v>
       </c>
@@ -5635,7 +5635,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>467</v>
       </c>
@@ -5658,7 +5658,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>467</v>
       </c>
@@ -5681,7 +5681,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>467</v>
       </c>
@@ -5704,7 +5704,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>467</v>
       </c>
@@ -5727,7 +5727,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>467</v>
       </c>
@@ -5750,7 +5750,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>467</v>
       </c>
@@ -5773,7 +5773,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>467</v>
       </c>
@@ -5796,7 +5796,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>467</v>
       </c>
@@ -5819,7 +5819,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>467</v>
       </c>
@@ -5842,7 +5842,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>467</v>
       </c>
@@ -5865,7 +5865,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>467</v>
       </c>
@@ -5888,7 +5888,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>467</v>
       </c>
@@ -5911,7 +5911,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>467</v>
       </c>
@@ -5934,7 +5934,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>467</v>
       </c>
@@ -5957,7 +5957,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>467</v>
       </c>
@@ -5980,7 +5980,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>467</v>
       </c>
@@ -6003,7 +6003,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>467</v>
       </c>
@@ -6026,7 +6026,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>467</v>
       </c>
@@ -6049,7 +6049,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>467</v>
       </c>
@@ -6072,7 +6072,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>467</v>
       </c>
@@ -6095,7 +6095,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>467</v>
       </c>
@@ -6118,7 +6118,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>467</v>
       </c>
@@ -6141,7 +6141,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>467</v>
       </c>
@@ -6164,7 +6164,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>467</v>
       </c>
@@ -6187,7 +6187,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>467</v>
       </c>
@@ -6210,7 +6210,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>467</v>
       </c>
@@ -6233,7 +6233,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>467</v>
       </c>
@@ -6256,7 +6256,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>467</v>
       </c>
@@ -6279,7 +6279,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>467</v>
       </c>
@@ -6302,7 +6302,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>467</v>
       </c>
@@ -6325,7 +6325,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>467</v>
       </c>
@@ -6348,7 +6348,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>467</v>
       </c>
@@ -6371,7 +6371,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>467</v>
       </c>
@@ -6394,7 +6394,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>467</v>
       </c>
@@ -6417,7 +6417,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>467</v>
       </c>
@@ -6440,7 +6440,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>467</v>
       </c>
@@ -6463,7 +6463,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>467</v>
       </c>
@@ -6486,7 +6486,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>467</v>
       </c>
@@ -6509,7 +6509,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>467</v>
       </c>
@@ -6532,7 +6532,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>467</v>
       </c>
@@ -6555,7 +6555,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>467</v>
       </c>
@@ -6578,7 +6578,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>467</v>
       </c>
@@ -6601,7 +6601,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>467</v>
       </c>
@@ -6624,7 +6624,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>467</v>
       </c>
@@ -6647,7 +6647,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>467</v>
       </c>
@@ -6670,7 +6670,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>467</v>
       </c>
@@ -6693,7 +6693,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>467</v>
       </c>
@@ -6716,7 +6716,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>467</v>
       </c>
@@ -6739,7 +6739,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>467</v>
       </c>
@@ -6762,7 +6762,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>467</v>
       </c>
@@ -6785,7 +6785,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>467</v>
       </c>
@@ -6808,7 +6808,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>467</v>
       </c>
@@ -6831,7 +6831,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>467</v>
       </c>
@@ -6854,7 +6854,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>467</v>
       </c>
@@ -6877,7 +6877,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>467</v>
       </c>
@@ -6900,7 +6900,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>467</v>
       </c>
@@ -6923,7 +6923,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>467</v>
       </c>
@@ -6946,7 +6946,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>467</v>
       </c>
@@ -6969,7 +6969,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>467</v>
       </c>
@@ -6992,7 +6992,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>467</v>
       </c>
@@ -7015,7 +7015,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>467</v>
       </c>
@@ -7038,7 +7038,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>467</v>
       </c>
@@ -7061,7 +7061,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>467</v>
       </c>
@@ -7084,7 +7084,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>467</v>
       </c>
@@ -7107,7 +7107,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>467</v>
       </c>
@@ -7130,7 +7130,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>467</v>
       </c>
@@ -7153,7 +7153,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>467</v>
       </c>
@@ -7176,7 +7176,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>467</v>
       </c>
@@ -7199,7 +7199,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>467</v>
       </c>
@@ -7222,7 +7222,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>467</v>
       </c>
@@ -7245,7 +7245,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>467</v>
       </c>
@@ -7268,7 +7268,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>467</v>
       </c>
@@ -7291,7 +7291,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>467</v>
       </c>
@@ -7314,7 +7314,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>467</v>
       </c>
@@ -7337,7 +7337,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>467</v>
       </c>
@@ -7360,7 +7360,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>467</v>
       </c>
@@ -7383,7 +7383,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>467</v>
       </c>
@@ -7406,7 +7406,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>467</v>
       </c>
@@ -7429,7 +7429,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>467</v>
       </c>
@@ -7452,7 +7452,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>467</v>
       </c>
@@ -7475,7 +7475,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>467</v>
       </c>
@@ -7498,7 +7498,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>467</v>
       </c>
@@ -7521,7 +7521,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>467</v>
       </c>
@@ -7544,7 +7544,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>467</v>
       </c>
@@ -7567,7 +7567,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>467</v>
       </c>
@@ -7590,7 +7590,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>467</v>
       </c>
@@ -7613,7 +7613,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>467</v>
       </c>
@@ -7636,7 +7636,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>467</v>
       </c>
@@ -7659,7 +7659,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>467</v>
       </c>
@@ -7682,7 +7682,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>467</v>
       </c>
@@ -7705,7 +7705,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>467</v>
       </c>
@@ -7728,7 +7728,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>467</v>
       </c>
@@ -7751,7 +7751,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>467</v>
       </c>
@@ -7774,7 +7774,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>467</v>
       </c>
@@ -7797,7 +7797,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>1036</v>
       </c>
@@ -7817,7 +7817,7 @@
         <v>1043</v>
       </c>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>1036</v>
       </c>
@@ -7837,7 +7837,7 @@
         <v>1043</v>
       </c>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>1036</v>
       </c>
@@ -7857,7 +7857,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>1036</v>
       </c>
@@ -7877,7 +7877,7 @@
         <v>1055</v>
       </c>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>1036</v>
       </c>
@@ -7897,7 +7897,7 @@
         <v>1073</v>
       </c>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>1036</v>
       </c>
@@ -7917,7 +7917,7 @@
         <v>1073</v>
       </c>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>1036</v>
       </c>
@@ -7937,7 +7937,7 @@
         <v>1043</v>
       </c>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>1036</v>
       </c>
@@ -7957,7 +7957,7 @@
         <v>1055</v>
       </c>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>1036</v>
       </c>
@@ -7977,7 +7977,7 @@
         <v>1073</v>
       </c>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>1036</v>
       </c>
@@ -7997,7 +7997,7 @@
         <v>1062</v>
       </c>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>1036</v>
       </c>
@@ -8017,7 +8017,7 @@
         <v>1073</v>
       </c>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>1036</v>
       </c>
@@ -8037,7 +8037,7 @@
         <v>1060</v>
       </c>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>1036</v>
       </c>
@@ -8057,7 +8057,7 @@
         <v>1051</v>
       </c>
     </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>1036</v>
       </c>
@@ -8077,7 +8077,7 @@
         <v>1049</v>
       </c>
     </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>1036</v>
       </c>
@@ -8097,7 +8097,7 @@
         <v>1071</v>
       </c>
     </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>1036</v>
       </c>
@@ -8117,7 +8117,7 @@
         <v>1058</v>
       </c>
     </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>1036</v>
       </c>
@@ -8137,7 +8137,7 @@
         <v>1080</v>
       </c>
     </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>1036</v>
       </c>
@@ -8157,7 +8157,7 @@
         <v>1053</v>
       </c>
     </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>1036</v>
       </c>
@@ -8177,7 +8177,7 @@
         <v>1041</v>
       </c>
     </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>1036</v>
       </c>
@@ -8197,7 +8197,7 @@
         <v>1039</v>
       </c>
     </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>1036</v>
       </c>
@@ -8217,7 +8217,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>1036</v>
       </c>
@@ -8237,7 +8237,7 @@
         <v>1078</v>
       </c>
     </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>1036</v>
       </c>
@@ -8257,7 +8257,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>1036</v>
       </c>
@@ -8277,7 +8277,7 @@
         <v>1066</v>
       </c>
     </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>1036</v>
       </c>
@@ -8297,7 +8297,7 @@
         <v>1066</v>
       </c>
     </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>931</v>
       </c>
@@ -8320,7 +8320,7 @@
         <v>933</v>
       </c>
     </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>931</v>
       </c>
@@ -8343,7 +8343,7 @@
         <v>935</v>
       </c>
     </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>931</v>
       </c>
@@ -8366,7 +8366,7 @@
         <v>937</v>
       </c>
     </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>931</v>
       </c>
@@ -8389,7 +8389,7 @@
         <v>939</v>
       </c>
     </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>931</v>
       </c>
@@ -8412,7 +8412,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>931</v>
       </c>
@@ -8435,7 +8435,7 @@
         <v>943</v>
       </c>
     </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>931</v>
       </c>
@@ -8458,7 +8458,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>931</v>
       </c>
@@ -8481,7 +8481,7 @@
         <v>947</v>
       </c>
     </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>931</v>
       </c>
@@ -8504,7 +8504,7 @@
         <v>949</v>
       </c>
     </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>931</v>
       </c>
@@ -8527,7 +8527,7 @@
         <v>951</v>
       </c>
     </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>931</v>
       </c>
@@ -8550,7 +8550,7 @@
         <v>953</v>
       </c>
     </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>931</v>
       </c>
@@ -8573,7 +8573,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>931</v>
       </c>
@@ -8596,7 +8596,7 @@
         <v>957</v>
       </c>
     </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>931</v>
       </c>
@@ -8619,7 +8619,7 @@
         <v>959</v>
       </c>
     </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>931</v>
       </c>
@@ -8642,7 +8642,7 @@
         <v>961</v>
       </c>
     </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>931</v>
       </c>
@@ -8665,7 +8665,7 @@
         <v>963</v>
       </c>
     </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>931</v>
       </c>
@@ -8688,7 +8688,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>931</v>
       </c>
@@ -8711,7 +8711,7 @@
         <v>967</v>
       </c>
     </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>931</v>
       </c>
@@ -8734,7 +8734,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>931</v>
       </c>
@@ -8757,7 +8757,7 @@
         <v>971</v>
       </c>
     </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>931</v>
       </c>
@@ -8780,7 +8780,7 @@
         <v>973</v>
       </c>
     </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>931</v>
       </c>
@@ -8803,7 +8803,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>931</v>
       </c>
@@ -8826,7 +8826,7 @@
         <v>977</v>
       </c>
     </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>931</v>
       </c>
@@ -8849,7 +8849,7 @@
         <v>979</v>
       </c>
     </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>931</v>
       </c>
@@ -8872,7 +8872,7 @@
         <v>981</v>
       </c>
     </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>931</v>
       </c>
@@ -8895,7 +8895,7 @@
         <v>983</v>
       </c>
     </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>931</v>
       </c>
@@ -8918,7 +8918,7 @@
         <v>985</v>
       </c>
     </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>931</v>
       </c>
@@ -8941,7 +8941,7 @@
         <v>987</v>
       </c>
     </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>931</v>
       </c>
@@ -8964,7 +8964,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>931</v>
       </c>
@@ -8987,7 +8987,7 @@
         <v>991</v>
       </c>
     </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>931</v>
       </c>
@@ -9010,7 +9010,7 @@
         <v>993</v>
       </c>
     </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>931</v>
       </c>
@@ -9033,7 +9033,7 @@
         <v>995</v>
       </c>
     </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>931</v>
       </c>
@@ -9056,7 +9056,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>931</v>
       </c>
@@ -9079,7 +9079,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>931</v>
       </c>
@@ -9102,7 +9102,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>931</v>
       </c>
@@ -9125,7 +9125,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>931</v>
       </c>
@@ -9148,7 +9148,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
         <v>931</v>
       </c>
@@ -9171,7 +9171,7 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
         <v>931</v>
       </c>
@@ -9194,7 +9194,7 @@
         <v>1012</v>
       </c>
     </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
         <v>931</v>
       </c>
@@ -9217,7 +9217,7 @@
         <v>1014</v>
       </c>
     </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
         <v>931</v>
       </c>
@@ -9240,7 +9240,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
         <v>931</v>
       </c>
@@ -9263,7 +9263,7 @@
         <v>1018</v>
       </c>
     </row>
-    <row r="207" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
         <v>931</v>
       </c>
@@ -9286,7 +9286,7 @@
         <v>1007</v>
       </c>
     </row>
-    <row r="208" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
         <v>133</v>
       </c>
@@ -9306,7 +9306,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
         <v>133</v>
       </c>
@@ -9326,7 +9326,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="210" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
         <v>133</v>
       </c>
@@ -9346,7 +9346,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="211" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
         <v>133</v>
       </c>
@@ -9366,7 +9366,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="212" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
         <v>133</v>
       </c>
@@ -9386,7 +9386,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="213" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
         <v>133</v>
       </c>
@@ -9406,7 +9406,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="214" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
         <v>133</v>
       </c>
@@ -9426,7 +9426,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="215" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
         <v>133</v>
       </c>
@@ -9446,7 +9446,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="216" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
         <v>133</v>
       </c>
@@ -9466,7 +9466,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="217" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
         <v>133</v>
       </c>
@@ -9486,7 +9486,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="218" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
         <v>133</v>
       </c>
@@ -9506,7 +9506,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="219" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
         <v>133</v>
       </c>
@@ -9526,7 +9526,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="220" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
         <v>133</v>
       </c>
@@ -9546,7 +9546,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="221" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
         <v>133</v>
       </c>
@@ -9566,7 +9566,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="222" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
         <v>133</v>
       </c>
@@ -9586,7 +9586,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="223" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
         <v>133</v>
       </c>
@@ -9606,7 +9606,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="224" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
         <v>133</v>
       </c>
@@ -9626,7 +9626,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="225" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
         <v>1081</v>
       </c>
@@ -9646,7 +9646,7 @@
         <v>1111</v>
       </c>
     </row>
-    <row r="226" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
         <v>1081</v>
       </c>
@@ -9666,7 +9666,7 @@
         <v>1115</v>
       </c>
     </row>
-    <row r="227" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
         <v>1081</v>
       </c>
@@ -9686,7 +9686,7 @@
         <v>1117</v>
       </c>
     </row>
-    <row r="228" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
         <v>1081</v>
       </c>
@@ -9706,7 +9706,7 @@
         <v>1113</v>
       </c>
     </row>
-    <row r="229" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
         <v>1081</v>
       </c>
@@ -9726,7 +9726,7 @@
         <v>1083</v>
       </c>
     </row>
-    <row r="230" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
         <v>1081</v>
       </c>
@@ -9746,7 +9746,7 @@
         <v>1095</v>
       </c>
     </row>
-    <row r="231" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
         <v>1081</v>
       </c>
@@ -9766,7 +9766,7 @@
         <v>1085</v>
       </c>
     </row>
-    <row r="232" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
         <v>1081</v>
       </c>
@@ -9786,7 +9786,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="233" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
         <v>1081</v>
       </c>
@@ -9806,7 +9806,7 @@
         <v>1089</v>
       </c>
     </row>
-    <row r="234" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
         <v>1081</v>
       </c>
@@ -9826,7 +9826,7 @@
         <v>1091</v>
       </c>
     </row>
-    <row r="235" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
         <v>1081</v>
       </c>
@@ -9846,7 +9846,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="236" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
         <v>1081</v>
       </c>
@@ -9866,7 +9866,7 @@
         <v>1097</v>
       </c>
     </row>
-    <row r="237" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
         <v>1081</v>
       </c>
@@ -9886,7 +9886,7 @@
         <v>1109</v>
       </c>
     </row>
-    <row r="238" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
         <v>1081</v>
       </c>
@@ -9906,7 +9906,7 @@
         <v>1103</v>
       </c>
     </row>
-    <row r="239" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
         <v>1081</v>
       </c>
@@ -9926,7 +9926,7 @@
         <v>1105</v>
       </c>
     </row>
-    <row r="240" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
         <v>1081</v>
       </c>
@@ -9946,7 +9946,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="241" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
         <v>1081</v>
       </c>
@@ -9966,7 +9966,7 @@
         <v>1099</v>
       </c>
     </row>
-    <row r="242" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
         <v>1081</v>
       </c>
@@ -9986,7 +9986,7 @@
         <v>1101</v>
       </c>
     </row>
-    <row r="243" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
         <v>169</v>
       </c>
@@ -10006,7 +10006,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="244" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
         <v>169</v>
       </c>
@@ -10026,7 +10026,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="245" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
         <v>169</v>
       </c>
@@ -10046,7 +10046,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="246" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
         <v>169</v>
       </c>
@@ -10066,7 +10066,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="247" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
         <v>169</v>
       </c>
@@ -10086,7 +10086,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="248" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
         <v>169</v>
       </c>
@@ -10106,7 +10106,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="249" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
         <v>169</v>
       </c>
@@ -10126,7 +10126,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="250" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
         <v>169</v>
       </c>
@@ -10146,7 +10146,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="251" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
         <v>169</v>
       </c>
@@ -10166,7 +10166,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="252" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
         <v>169</v>
       </c>
@@ -10186,7 +10186,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="253" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
         <v>169</v>
       </c>
@@ -10206,7 +10206,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="254" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
         <v>169</v>
       </c>
@@ -10226,7 +10226,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="255" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
         <v>169</v>
       </c>
@@ -10246,7 +10246,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="256" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
         <v>169</v>
       </c>
@@ -10266,7 +10266,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="257" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
         <v>169</v>
       </c>
@@ -10286,7 +10286,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="258" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
         <v>169</v>
       </c>
@@ -10306,7 +10306,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="259" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
         <v>169</v>
       </c>
@@ -10326,7 +10326,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="260" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
         <v>169</v>
       </c>
@@ -10346,7 +10346,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="261" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
         <v>169</v>
       </c>
@@ -10366,7 +10366,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="262" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
         <v>169</v>
       </c>
@@ -10386,7 +10386,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="263" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
         <v>169</v>
       </c>
@@ -10406,7 +10406,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="264" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
         <v>169</v>
       </c>
@@ -10426,7 +10426,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="265" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
         <v>169</v>
       </c>
@@ -10446,7 +10446,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="266" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
         <v>169</v>
       </c>
@@ -10466,7 +10466,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="267" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
         <v>169</v>
       </c>
@@ -10486,7 +10486,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="268" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
         <v>169</v>
       </c>
@@ -10506,7 +10506,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="269" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
         <v>169</v>
       </c>
@@ -10526,7 +10526,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="270" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
         <v>169</v>
       </c>
@@ -10546,7 +10546,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="271" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
         <v>169</v>
       </c>
@@ -10566,7 +10566,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="272" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
         <v>169</v>
       </c>
@@ -10586,7 +10586,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="273" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
         <v>169</v>
       </c>
@@ -10606,7 +10606,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="274" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
         <v>169</v>
       </c>
@@ -10626,7 +10626,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="275" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
         <v>169</v>
       </c>
@@ -10646,7 +10646,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="276" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
         <v>169</v>
       </c>
@@ -10666,7 +10666,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="277" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
         <v>169</v>
       </c>
@@ -10686,7 +10686,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="278" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
         <v>169</v>
       </c>
@@ -10706,7 +10706,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="279" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
         <v>169</v>
       </c>
@@ -10726,7 +10726,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="280" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
         <v>169</v>
       </c>
@@ -10746,7 +10746,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="281" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
         <v>169</v>
       </c>
@@ -10766,7 +10766,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="282" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
         <v>169</v>
       </c>
@@ -10786,7 +10786,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="283" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
         <v>169</v>
       </c>
@@ -10806,7 +10806,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="284" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
         <v>169</v>
       </c>
@@ -10826,7 +10826,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="285" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
         <v>169</v>
       </c>
@@ -10846,7 +10846,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="286" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
         <v>169</v>
       </c>
@@ -10866,7 +10866,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="287" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
         <v>169</v>
       </c>
@@ -10886,7 +10886,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="288" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
         <v>169</v>
       </c>
@@ -10906,7 +10906,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="289" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
         <v>169</v>
       </c>
@@ -10926,7 +10926,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="290" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
         <v>169</v>
       </c>
@@ -10946,7 +10946,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="291" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
         <v>169</v>
       </c>
@@ -10966,7 +10966,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="292" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
         <v>169</v>
       </c>
@@ -10986,7 +10986,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="293" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
         <v>169</v>
       </c>
@@ -11006,7 +11006,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="294" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
         <v>169</v>
       </c>
@@ -11026,7 +11026,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="295" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
         <v>169</v>
       </c>
@@ -11046,7 +11046,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="296" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
         <v>169</v>
       </c>
@@ -11066,7 +11066,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="297" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
         <v>169</v>
       </c>
@@ -11086,7 +11086,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="298" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
         <v>169</v>
       </c>
@@ -11106,7 +11106,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="299" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
         <v>169</v>
       </c>
@@ -11126,7 +11126,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="300" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
         <v>169</v>
       </c>
@@ -11146,7 +11146,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="301" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
         <v>169</v>
       </c>
@@ -11166,7 +11166,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="302" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A302" t="s">
         <v>169</v>
       </c>
@@ -11186,7 +11186,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="303" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A303" t="s">
         <v>169</v>
       </c>
@@ -11206,7 +11206,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="304" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A304" t="s">
         <v>169</v>
       </c>
@@ -11226,7 +11226,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="305" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A305" t="s">
         <v>169</v>
       </c>
@@ -11246,7 +11246,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="306" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A306" t="s">
         <v>169</v>
       </c>
@@ -11266,7 +11266,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="307" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A307" t="s">
         <v>169</v>
       </c>
@@ -11286,7 +11286,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="308" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A308" t="s">
         <v>169</v>
       </c>
@@ -11306,7 +11306,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="309" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A309" t="s">
         <v>169</v>
       </c>
@@ -11326,7 +11326,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="310" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A310" t="s">
         <v>169</v>
       </c>
@@ -11346,7 +11346,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="311" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A311" t="s">
         <v>169</v>
       </c>
@@ -11366,7 +11366,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="312" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A312" t="s">
         <v>169</v>
       </c>
@@ -11386,7 +11386,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="313" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A313" t="s">
         <v>169</v>
       </c>
@@ -11406,7 +11406,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="314" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A314" t="s">
         <v>169</v>
       </c>
@@ -11426,7 +11426,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="315" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A315" t="s">
         <v>117</v>
       </c>
@@ -11446,7 +11446,7 @@
         <v>891</v>
       </c>
     </row>
-    <row r="316" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A316" t="s">
         <v>117</v>
       </c>
@@ -11466,7 +11466,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="317" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A317" t="s">
         <v>117</v>
       </c>
@@ -11486,7 +11486,7 @@
         <v>923</v>
       </c>
     </row>
-    <row r="318" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A318" t="s">
         <v>117</v>
       </c>
@@ -11506,7 +11506,7 @@
         <v>880</v>
       </c>
     </row>
-    <row r="319" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A319" t="s">
         <v>117</v>
       </c>
@@ -11526,7 +11526,7 @@
         <v>902</v>
       </c>
     </row>
-    <row r="320" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A320" t="s">
         <v>117</v>
       </c>
@@ -11546,7 +11546,7 @@
         <v>916</v>
       </c>
     </row>
-    <row r="321" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A321" t="s">
         <v>117</v>
       </c>
@@ -11566,7 +11566,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="322" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A322" t="s">
         <v>117</v>
       </c>
@@ -11586,7 +11586,7 @@
         <v>912</v>
       </c>
     </row>
-    <row r="323" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A323" t="s">
         <v>117</v>
       </c>
@@ -11606,7 +11606,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="324" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A324" t="s">
         <v>117</v>
       </c>
@@ -11626,7 +11626,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="325" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A325" t="s">
         <v>117</v>
       </c>
@@ -11646,7 +11646,7 @@
         <v>897</v>
       </c>
     </row>
-    <row r="326" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A326" t="s">
         <v>117</v>
       </c>
@@ -11666,7 +11666,7 @@
         <v>896</v>
       </c>
     </row>
-    <row r="327" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A327" t="s">
         <v>117</v>
       </c>
@@ -11686,7 +11686,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="328" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A328" t="s">
         <v>117</v>
       </c>
@@ -11706,7 +11706,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="329" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A329" t="s">
         <v>117</v>
       </c>
@@ -11726,7 +11726,7 @@
         <v>888</v>
       </c>
     </row>
-    <row r="330" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A330" t="s">
         <v>117</v>
       </c>
@@ -11746,7 +11746,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="331" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A331" t="s">
         <v>117</v>
       </c>
@@ -11766,7 +11766,7 @@
         <v>903</v>
       </c>
     </row>
-    <row r="332" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A332" t="s">
         <v>117</v>
       </c>
@@ -11786,7 +11786,7 @@
         <v>874</v>
       </c>
     </row>
-    <row r="333" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A333" t="s">
         <v>117</v>
       </c>
@@ -11806,7 +11806,7 @@
         <v>899</v>
       </c>
     </row>
-    <row r="334" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A334" t="s">
         <v>117</v>
       </c>
@@ -11826,7 +11826,7 @@
         <v>927</v>
       </c>
     </row>
-    <row r="335" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A335" t="s">
         <v>117</v>
       </c>
@@ -11846,7 +11846,7 @@
         <v>893</v>
       </c>
     </row>
-    <row r="336" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A336" t="s">
         <v>117</v>
       </c>
@@ -11866,7 +11866,7 @@
         <v>876</v>
       </c>
     </row>
-    <row r="337" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A337" t="s">
         <v>117</v>
       </c>
@@ -11886,7 +11886,7 @@
         <v>885</v>
       </c>
     </row>
-    <row r="338" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A338" t="s">
         <v>117</v>
       </c>
@@ -11906,7 +11906,7 @@
         <v>883</v>
       </c>
     </row>
-    <row r="339" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A339" t="s">
         <v>117</v>
       </c>
@@ -11926,7 +11926,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="340" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A340" t="s">
         <v>117</v>
       </c>
@@ -11946,7 +11946,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="341" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A341" t="s">
         <v>117</v>
       </c>
@@ -11966,7 +11966,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="342" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A342" t="s">
         <v>117</v>
       </c>
@@ -11986,7 +11986,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="343" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A343" t="s">
         <v>117</v>
       </c>
@@ -12006,7 +12006,7 @@
         <v>922</v>
       </c>
     </row>
-    <row r="344" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A344" t="s">
         <v>117</v>
       </c>
@@ -12026,7 +12026,7 @@
         <v>889</v>
       </c>
     </row>
-    <row r="345" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A345" t="s">
         <v>117</v>
       </c>
@@ -12046,7 +12046,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="346" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A346" t="s">
         <v>117</v>
       </c>
@@ -12066,7 +12066,7 @@
         <v>926</v>
       </c>
     </row>
-    <row r="347" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A347" t="s">
         <v>117</v>
       </c>
@@ -12086,7 +12086,7 @@
         <v>925</v>
       </c>
     </row>
-    <row r="348" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A348" t="s">
         <v>117</v>
       </c>
@@ -12106,7 +12106,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="349" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A349" t="s">
         <v>117</v>
       </c>
@@ -12126,7 +12126,7 @@
         <v>917</v>
       </c>
     </row>
-    <row r="350" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A350" t="s">
         <v>117</v>
       </c>
@@ -12146,7 +12146,7 @@
         <v>895</v>
       </c>
     </row>
-    <row r="351" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A351" t="s">
         <v>117</v>
       </c>
@@ -12166,7 +12166,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="352" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A352" s="4" t="s">
         <v>117</v>
       </c>
@@ -12183,7 +12183,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="353" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A353" t="s">
         <v>117</v>
       </c>
@@ -12203,7 +12203,7 @@
         <v>901</v>
       </c>
     </row>
-    <row r="354" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A354" t="s">
         <v>117</v>
       </c>
@@ -12223,7 +12223,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="355" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A355" t="s">
         <v>117</v>
       </c>
@@ -12243,7 +12243,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="356" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A356" t="s">
         <v>117</v>
       </c>
@@ -12263,7 +12263,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="357" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A357" t="s">
         <v>117</v>
       </c>
@@ -12283,7 +12283,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="358" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A358" t="s">
         <v>117</v>
       </c>
@@ -12303,7 +12303,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="359" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A359" t="s">
         <v>117</v>
       </c>
@@ -12323,7 +12323,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="360" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A360" t="s">
         <v>117</v>
       </c>
@@ -12343,7 +12343,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="361" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A361" t="s">
         <v>117</v>
       </c>
@@ -12363,7 +12363,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="362" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A362" t="s">
         <v>117</v>
       </c>
@@ -12383,7 +12383,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="363" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A363" t="s">
         <v>117</v>
       </c>
@@ -12403,7 +12403,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="364" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A364" t="s">
         <v>117</v>
       </c>
@@ -12423,7 +12423,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="365" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A365" t="s">
         <v>117</v>
       </c>
@@ -12443,7 +12443,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="366" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A366" t="s">
         <v>117</v>
       </c>
@@ -12463,7 +12463,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="367" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A367" t="s">
         <v>117</v>
       </c>
@@ -12483,7 +12483,7 @@
         <v>915</v>
       </c>
     </row>
-    <row r="368" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A368" t="s">
         <v>117</v>
       </c>
@@ -12503,7 +12503,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="369" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A369" t="s">
         <v>117</v>
       </c>
@@ -12523,7 +12523,7 @@
         <v>881</v>
       </c>
     </row>
-    <row r="370" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A370" t="s">
         <v>117</v>
       </c>
@@ -12543,7 +12543,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="371" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A371" t="s">
         <v>117</v>
       </c>
@@ -12563,7 +12563,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="372" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A372" t="s">
         <v>117</v>
       </c>
@@ -12583,7 +12583,7 @@
         <v>871</v>
       </c>
     </row>
-    <row r="373" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A373" t="s">
         <v>117</v>
       </c>
@@ -12603,7 +12603,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="374" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A374" t="s">
         <v>117</v>
       </c>
@@ -12623,7 +12623,7 @@
         <v>919</v>
       </c>
     </row>
-    <row r="375" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A375" t="s">
         <v>117</v>
       </c>
@@ -12643,7 +12643,7 @@
         <v>918</v>
       </c>
     </row>
-    <row r="376" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A376" t="s">
         <v>117</v>
       </c>
@@ -12663,7 +12663,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="377" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A377" t="s">
         <v>117</v>
       </c>
@@ -12683,7 +12683,7 @@
         <v>920</v>
       </c>
     </row>
-    <row r="378" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A378" t="s">
         <v>117</v>
       </c>
@@ -12703,7 +12703,7 @@
         <v>898</v>
       </c>
     </row>
-    <row r="379" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A379" t="s">
         <v>117</v>
       </c>
@@ -12723,7 +12723,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="380" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A380" t="s">
         <v>117</v>
       </c>
@@ -12743,7 +12743,7 @@
         <v>882</v>
       </c>
     </row>
-    <row r="381" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A381" t="s">
         <v>117</v>
       </c>
@@ -12763,7 +12763,7 @@
         <v>887</v>
       </c>
     </row>
-    <row r="382" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A382" t="s">
         <v>117</v>
       </c>
@@ -12783,7 +12783,7 @@
         <v>930</v>
       </c>
     </row>
-    <row r="383" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A383" t="s">
         <v>117</v>
       </c>
@@ -12803,7 +12803,7 @@
         <v>914</v>
       </c>
     </row>
-    <row r="384" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A384" t="s">
         <v>117</v>
       </c>
@@ -12823,7 +12823,7 @@
         <v>879</v>
       </c>
     </row>
-    <row r="385" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A385" t="s">
         <v>117</v>
       </c>
@@ -12843,7 +12843,7 @@
         <v>884</v>
       </c>
     </row>
-    <row r="386" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A386" t="s">
         <v>117</v>
       </c>
@@ -12863,7 +12863,7 @@
         <v>928</v>
       </c>
     </row>
-    <row r="387" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A387" t="s">
         <v>117</v>
       </c>
@@ -12883,7 +12883,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="388" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A388" t="s">
         <v>117</v>
       </c>
@@ -12903,7 +12903,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="389" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A389" t="s">
         <v>117</v>
       </c>
@@ -12923,7 +12923,7 @@
         <v>913</v>
       </c>
     </row>
-    <row r="390" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A390" t="s">
         <v>117</v>
       </c>
@@ -12943,7 +12943,7 @@
         <v>924</v>
       </c>
     </row>
-    <row r="391" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A391" t="s">
         <v>1118</v>
       </c>
@@ -12960,7 +12960,7 @@
         <v>1119</v>
       </c>
     </row>
-    <row r="392" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A392" t="s">
         <v>1118</v>
       </c>
@@ -12977,7 +12977,7 @@
         <v>1120</v>
       </c>
     </row>
-    <row r="393" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A393" t="s">
         <v>1118</v>
       </c>
@@ -12994,7 +12994,7 @@
         <v>1121</v>
       </c>
     </row>
-    <row r="394" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A394" t="s">
         <v>1118</v>
       </c>
@@ -13011,7 +13011,7 @@
         <v>1122</v>
       </c>
     </row>
-    <row r="395" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A395" t="s">
         <v>1118</v>
       </c>
@@ -13028,7 +13028,7 @@
         <v>1123</v>
       </c>
     </row>
-    <row r="396" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A396" t="s">
         <v>1118</v>
       </c>
@@ -13045,7 +13045,7 @@
         <v>1124</v>
       </c>
     </row>
-    <row r="397" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A397" t="s">
         <v>1118</v>
       </c>
@@ -13062,7 +13062,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="398" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A398" t="s">
         <v>1118</v>
       </c>
@@ -13079,7 +13079,7 @@
         <v>1126</v>
       </c>
     </row>
-    <row r="399" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A399" t="s">
         <v>1118</v>
       </c>
@@ -13096,7 +13096,7 @@
         <v>1127</v>
       </c>
     </row>
-    <row r="400" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A400" t="s">
         <v>1118</v>
       </c>
@@ -13113,7 +13113,7 @@
         <v>1128</v>
       </c>
     </row>
-    <row r="401" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A401" t="s">
         <v>1118</v>
       </c>
@@ -13130,7 +13130,7 @@
         <v>1129</v>
       </c>
     </row>
-    <row r="402" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A402" t="s">
         <v>1118</v>
       </c>
@@ -13147,7 +13147,7 @@
         <v>1130</v>
       </c>
     </row>
-    <row r="403" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A403" t="s">
         <v>1118</v>
       </c>
@@ -13164,7 +13164,7 @@
         <v>1131</v>
       </c>
     </row>
-    <row r="404" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A404" t="s">
         <v>1118</v>
       </c>
@@ -13181,7 +13181,7 @@
         <v>1132</v>
       </c>
     </row>
-    <row r="405" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A405" t="s">
         <v>1118</v>
       </c>
@@ -13198,7 +13198,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="406" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A406" t="s">
         <v>1118</v>
       </c>
@@ -13215,7 +13215,7 @@
         <v>1134</v>
       </c>
     </row>
-    <row r="407" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A407" t="s">
         <v>1118</v>
       </c>
@@ -13232,7 +13232,7 @@
         <v>1135</v>
       </c>
     </row>
-    <row r="408" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A408" t="s">
         <v>1118</v>
       </c>
@@ -13249,7 +13249,7 @@
         <v>1136</v>
       </c>
     </row>
-    <row r="409" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A409" t="s">
         <v>1118</v>
       </c>
@@ -13266,7 +13266,7 @@
         <v>1137</v>
       </c>
     </row>
-    <row r="410" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A410" t="s">
         <v>1118</v>
       </c>
@@ -13283,7 +13283,7 @@
         <v>1138</v>
       </c>
     </row>
-    <row r="411" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A411" t="s">
         <v>1118</v>
       </c>
@@ -13300,7 +13300,7 @@
         <v>1139</v>
       </c>
     </row>
-    <row r="412" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A412" t="s">
         <v>1118</v>
       </c>
@@ -13317,7 +13317,7 @@
         <v>1140</v>
       </c>
     </row>
-    <row r="413" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A413" t="s">
         <v>1118</v>
       </c>
@@ -13334,7 +13334,7 @@
         <v>1141</v>
       </c>
     </row>
-    <row r="414" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A414" t="s">
         <v>1118</v>
       </c>
@@ -13351,7 +13351,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="415" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A415" t="s">
         <v>1118</v>
       </c>
@@ -13368,7 +13368,7 @@
         <v>1143</v>
       </c>
     </row>
-    <row r="416" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A416" t="s">
         <v>1118</v>
       </c>
@@ -13385,7 +13385,7 @@
         <v>1144</v>
       </c>
     </row>
-    <row r="417" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A417" t="s">
         <v>1118</v>
       </c>
@@ -13402,7 +13402,7 @@
         <v>1145</v>
       </c>
     </row>
-    <row r="418" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A418" t="s">
         <v>1118</v>
       </c>
@@ -13419,7 +13419,7 @@
         <v>1146</v>
       </c>
     </row>
-    <row r="419" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A419" t="s">
         <v>1118</v>
       </c>
@@ -13436,7 +13436,7 @@
         <v>1147</v>
       </c>
     </row>
-    <row r="420" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A420" t="s">
         <v>1118</v>
       </c>
@@ -13453,7 +13453,7 @@
         <v>1148</v>
       </c>
     </row>
-    <row r="421" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A421" t="s">
         <v>1118</v>
       </c>
@@ -13470,7 +13470,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="422" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A422" t="s">
         <v>1118</v>
       </c>
@@ -13487,7 +13487,7 @@
         <v>1150</v>
       </c>
     </row>
-    <row r="423" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A423" t="s">
         <v>1118</v>
       </c>
@@ -13504,7 +13504,7 @@
         <v>1151</v>
       </c>
     </row>
-    <row r="424" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A424" t="s">
         <v>1118</v>
       </c>
@@ -13521,7 +13521,7 @@
         <v>1152</v>
       </c>
     </row>
-    <row r="425" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A425" t="s">
         <v>1118</v>
       </c>
@@ -13538,7 +13538,7 @@
         <v>1153</v>
       </c>
     </row>
-    <row r="426" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A426" t="s">
         <v>1118</v>
       </c>
@@ -13555,7 +13555,7 @@
         <v>1154</v>
       </c>
     </row>
-    <row r="427" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A427" t="s">
         <v>1118</v>
       </c>
@@ -13572,7 +13572,7 @@
         <v>1155</v>
       </c>
     </row>
-    <row r="428" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A428" t="s">
         <v>1118</v>
       </c>
@@ -13589,7 +13589,7 @@
         <v>1156</v>
       </c>
     </row>
-    <row r="429" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A429" t="s">
         <v>1118</v>
       </c>
@@ -13606,7 +13606,7 @@
         <v>1157</v>
       </c>
     </row>
-    <row r="430" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A430" t="s">
         <v>1118</v>
       </c>
@@ -13623,7 +13623,7 @@
         <v>1158</v>
       </c>
     </row>
-    <row r="431" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A431" t="s">
         <v>1118</v>
       </c>
@@ -13640,7 +13640,7 @@
         <v>1159</v>
       </c>
     </row>
-    <row r="432" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A432" t="s">
         <v>1118</v>
       </c>
@@ -13657,7 +13657,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="433" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A433" t="s">
         <v>1118</v>
       </c>
@@ -13674,7 +13674,7 @@
         <v>1161</v>
       </c>
     </row>
-    <row r="434" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A434" t="s">
         <v>1118</v>
       </c>
@@ -13691,7 +13691,7 @@
         <v>1162</v>
       </c>
     </row>
-    <row r="435" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A435" t="s">
         <v>1118</v>
       </c>
@@ -13708,7 +13708,7 @@
         <v>1163</v>
       </c>
     </row>
-    <row r="436" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A436" t="s">
         <v>1118</v>
       </c>
@@ -13725,7 +13725,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="437" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A437" t="s">
         <v>1118</v>
       </c>
@@ -13742,7 +13742,7 @@
         <v>1165</v>
       </c>
     </row>
-    <row r="438" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A438" t="s">
         <v>1118</v>
       </c>
@@ -13759,7 +13759,7 @@
         <v>1166</v>
       </c>
     </row>
-    <row r="439" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A439" t="s">
         <v>1167</v>
       </c>
@@ -13776,7 +13776,7 @@
         <v>1168</v>
       </c>
     </row>
-    <row r="440" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A440" t="s">
         <v>1167</v>
       </c>
@@ -13793,7 +13793,7 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="441" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A441" t="s">
         <v>1167</v>
       </c>
@@ -13810,7 +13810,7 @@
         <v>1170</v>
       </c>
     </row>
-    <row r="442" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A442" t="s">
         <v>1167</v>
       </c>
@@ -13827,7 +13827,7 @@
         <v>1171</v>
       </c>
     </row>
-    <row r="443" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A443" t="s">
         <v>1167</v>
       </c>
@@ -13844,7 +13844,7 @@
         <v>1172</v>
       </c>
     </row>
-    <row r="444" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A444" t="s">
         <v>1167</v>
       </c>
@@ -13861,7 +13861,7 @@
         <v>1173</v>
       </c>
     </row>
-    <row r="445" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A445" t="s">
         <v>1167</v>
       </c>
@@ -13878,7 +13878,7 @@
         <v>1174</v>
       </c>
     </row>
-    <row r="446" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A446" t="s">
         <v>1167</v>
       </c>
@@ -13895,7 +13895,7 @@
         <v>1175</v>
       </c>
     </row>
-    <row r="447" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A447" t="s">
         <v>1167</v>
       </c>
@@ -13912,7 +13912,7 @@
         <v>1176</v>
       </c>
     </row>
-    <row r="448" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A448" t="s">
         <v>1167</v>
       </c>
@@ -13929,7 +13929,7 @@
         <v>1177</v>
       </c>
     </row>
-    <row r="449" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A449" t="s">
         <v>1167</v>
       </c>
@@ -13946,7 +13946,7 @@
         <v>1178</v>
       </c>
     </row>
-    <row r="450" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A450" t="s">
         <v>1167</v>
       </c>
@@ -13963,7 +13963,7 @@
         <v>1179</v>
       </c>
     </row>
-    <row r="451" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A451" t="s">
         <v>1167</v>
       </c>
@@ -13980,7 +13980,7 @@
         <v>1180</v>
       </c>
     </row>
-    <row r="452" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A452" t="s">
         <v>1167</v>
       </c>
@@ -13997,7 +13997,7 @@
         <v>1181</v>
       </c>
     </row>
-    <row r="453" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A453" t="s">
         <v>1167</v>
       </c>
@@ -14014,7 +14014,7 @@
         <v>1182</v>
       </c>
     </row>
-    <row r="454" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A454" t="s">
         <v>1167</v>
       </c>
@@ -14031,7 +14031,7 @@
         <v>1183</v>
       </c>
     </row>
-    <row r="455" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A455" t="s">
         <v>1167</v>
       </c>
@@ -14048,7 +14048,7 @@
         <v>1184</v>
       </c>
     </row>
-    <row r="456" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A456" t="s">
         <v>1167</v>
       </c>
@@ -14065,7 +14065,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="457" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A457" t="s">
         <v>1167</v>
       </c>
@@ -14082,7 +14082,7 @@
         <v>1186</v>
       </c>
     </row>
-    <row r="458" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A458" t="s">
         <v>1167</v>
       </c>
@@ -14099,7 +14099,7 @@
         <v>1187</v>
       </c>
     </row>
-    <row r="459" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A459" t="s">
         <v>1167</v>
       </c>
@@ -14116,7 +14116,7 @@
         <v>1188</v>
       </c>
     </row>
-    <row r="460" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A460" t="s">
         <v>1167</v>
       </c>
@@ -14133,7 +14133,7 @@
         <v>1189</v>
       </c>
     </row>
-    <row r="461" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A461" t="s">
         <v>1167</v>
       </c>
@@ -14150,7 +14150,7 @@
         <v>1190</v>
       </c>
     </row>
-    <row r="462" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A462" t="s">
         <v>1167</v>
       </c>
@@ -14167,7 +14167,7 @@
         <v>1191</v>
       </c>
     </row>
-    <row r="463" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A463" t="s">
         <v>1167</v>
       </c>
@@ -14184,7 +14184,7 @@
         <v>1192</v>
       </c>
     </row>
-    <row r="464" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A464" t="s">
         <v>1167</v>
       </c>
@@ -14201,7 +14201,7 @@
         <v>1193</v>
       </c>
     </row>
-    <row r="465" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A465" t="s">
         <v>1167</v>
       </c>
@@ -14218,7 +14218,7 @@
         <v>1194</v>
       </c>
     </row>
-    <row r="466" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A466" t="s">
         <v>1167</v>
       </c>
@@ -14235,7 +14235,7 @@
         <v>1195</v>
       </c>
     </row>
-    <row r="467" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A467" t="s">
         <v>1167</v>
       </c>
@@ -14252,7 +14252,7 @@
         <v>1196</v>
       </c>
     </row>
-    <row r="468" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A468" t="s">
         <v>1167</v>
       </c>
@@ -14269,7 +14269,7 @@
         <v>1197</v>
       </c>
     </row>
-    <row r="469" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A469" t="s">
         <v>1167</v>
       </c>
@@ -14286,7 +14286,7 @@
         <v>1198</v>
       </c>
     </row>
-    <row r="470" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A470" t="s">
         <v>1167</v>
       </c>
@@ -14303,7 +14303,7 @@
         <v>1199</v>
       </c>
     </row>
-    <row r="471" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A471" t="s">
         <v>1167</v>
       </c>
@@ -14320,7 +14320,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="472" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A472" t="s">
         <v>1167</v>
       </c>
@@ -14337,7 +14337,7 @@
         <v>1201</v>
       </c>
     </row>
-    <row r="473" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A473" t="s">
         <v>1167</v>
       </c>
@@ -14354,7 +14354,7 @@
         <v>1202</v>
       </c>
     </row>
-    <row r="474" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A474" t="s">
         <v>1167</v>
       </c>
@@ -14371,7 +14371,7 @@
         <v>1203</v>
       </c>
     </row>
-    <row r="475" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A475" t="s">
         <v>1167</v>
       </c>
@@ -14388,7 +14388,7 @@
         <v>1204</v>
       </c>
     </row>
-    <row r="476" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A476" t="s">
         <v>1167</v>
       </c>
@@ -14405,7 +14405,7 @@
         <v>1205</v>
       </c>
     </row>
-    <row r="477" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A477" t="s">
         <v>1167</v>
       </c>
@@ -14422,7 +14422,7 @@
         <v>1206</v>
       </c>
     </row>
-    <row r="478" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A478" t="s">
         <v>1167</v>
       </c>
@@ -14439,7 +14439,7 @@
         <v>1207</v>
       </c>
     </row>
-    <row r="479" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A479" t="s">
         <v>1167</v>
       </c>
@@ -14456,7 +14456,7 @@
         <v>1208</v>
       </c>
     </row>
-    <row r="480" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A480" t="s">
         <v>1167</v>
       </c>
@@ -14473,7 +14473,7 @@
         <v>1209</v>
       </c>
     </row>
-    <row r="481" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A481" t="s">
         <v>1167</v>
       </c>
@@ -14490,7 +14490,7 @@
         <v>1210</v>
       </c>
     </row>
-    <row r="482" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A482" t="s">
         <v>1167</v>
       </c>
@@ -14507,7 +14507,7 @@
         <v>1211</v>
       </c>
     </row>
-    <row r="483" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A483" t="s">
         <v>1167</v>
       </c>
@@ -14524,7 +14524,7 @@
         <v>1212</v>
       </c>
     </row>
-    <row r="484" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A484" t="s">
         <v>833</v>
       </c>
@@ -14544,7 +14544,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="485" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A485" t="s">
         <v>833</v>
       </c>
@@ -14564,7 +14564,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="486" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A486" t="s">
         <v>833</v>
       </c>
@@ -14584,7 +14584,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="487" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A487" t="s">
         <v>833</v>
       </c>
@@ -14604,7 +14604,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="488" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A488" t="s">
         <v>833</v>
       </c>
@@ -14624,7 +14624,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="489" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A489" t="s">
         <v>833</v>
       </c>
@@ -14644,7 +14644,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="490" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A490" t="s">
         <v>833</v>
       </c>
@@ -14664,7 +14664,7 @@
         <v>835</v>
       </c>
     </row>
-    <row r="491" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A491" t="s">
         <v>833</v>
       </c>
@@ -14684,7 +14684,7 @@
         <v>839</v>
       </c>
     </row>
-    <row r="492" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A492" t="s">
         <v>833</v>
       </c>
@@ -14704,7 +14704,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="493" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A493" t="s">
         <v>833</v>
       </c>
@@ -14724,7 +14724,7 @@
         <v>836</v>
       </c>
     </row>
-    <row r="494" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A494" t="s">
         <v>833</v>
       </c>
@@ -14744,7 +14744,7 @@
         <v>846</v>
       </c>
     </row>
-    <row r="495" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A495" t="s">
         <v>833</v>
       </c>
@@ -14764,7 +14764,7 @@
         <v>847</v>
       </c>
     </row>
-    <row r="496" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A496" t="s">
         <v>833</v>
       </c>
@@ -14784,7 +14784,7 @@
         <v>848</v>
       </c>
     </row>
-    <row r="497" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A497" t="s">
         <v>833</v>
       </c>
@@ -14804,7 +14804,7 @@
         <v>849</v>
       </c>
     </row>
-    <row r="498" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A498" t="s">
         <v>833</v>
       </c>
@@ -14824,7 +14824,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="499" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A499" t="s">
         <v>833</v>
       </c>
@@ -14844,7 +14844,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="500" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A500" t="s">
         <v>833</v>
       </c>
@@ -14864,7 +14864,7 @@
         <v>852</v>
       </c>
     </row>
-    <row r="501" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A501" t="s">
         <v>833</v>
       </c>
@@ -14884,7 +14884,7 @@
         <v>853</v>
       </c>
     </row>
-    <row r="502" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A502" t="s">
         <v>833</v>
       </c>
@@ -14904,7 +14904,7 @@
         <v>861</v>
       </c>
     </row>
-    <row r="503" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A503" t="s">
         <v>833</v>
       </c>
@@ -14924,7 +14924,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="504" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A504" t="s">
         <v>833</v>
       </c>
@@ -14944,7 +14944,7 @@
         <v>862</v>
       </c>
     </row>
-    <row r="505" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A505" t="s">
         <v>833</v>
       </c>
@@ -14964,7 +14964,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="506" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A506" t="s">
         <v>833</v>
       </c>
@@ -14984,7 +14984,7 @@
         <v>859</v>
       </c>
     </row>
-    <row r="507" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A507" t="s">
         <v>833</v>
       </c>
@@ -15004,7 +15004,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="508" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A508" t="s">
         <v>833</v>
       </c>
@@ -15024,7 +15024,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="509" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A509" t="s">
         <v>833</v>
       </c>
@@ -15044,7 +15044,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="510" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A510" t="s">
         <v>833</v>
       </c>
@@ -15064,7 +15064,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="511" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A511" t="s">
         <v>833</v>
       </c>
@@ -15084,7 +15084,7 @@
         <v>865</v>
       </c>
     </row>
-    <row r="512" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A512" t="s">
         <v>833</v>
       </c>
@@ -15104,7 +15104,7 @@
         <v>855</v>
       </c>
     </row>
-    <row r="513" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A513" t="s">
         <v>833</v>
       </c>
@@ -15124,7 +15124,7 @@
         <v>856</v>
       </c>
     </row>
-    <row r="514" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A514" t="s">
         <v>1358</v>
       </c>
@@ -15144,7 +15144,7 @@
         <v>1242</v>
       </c>
     </row>
-    <row r="515" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A515" t="s">
         <v>1359</v>
       </c>
@@ -15164,7 +15164,7 @@
         <v>1318</v>
       </c>
     </row>
-    <row r="516" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A516" t="s">
         <v>1359</v>
       </c>
@@ -15184,7 +15184,7 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="517" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A517" t="s">
         <v>1359</v>
       </c>
@@ -15204,7 +15204,7 @@
         <v>1311</v>
       </c>
     </row>
-    <row r="518" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A518" t="s">
         <v>1359</v>
       </c>
@@ -15224,7 +15224,7 @@
         <v>1272</v>
       </c>
     </row>
-    <row r="519" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A519" t="s">
         <v>1359</v>
       </c>
@@ -15244,7 +15244,7 @@
         <v>1350</v>
       </c>
     </row>
-    <row r="520" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A520" t="s">
         <v>1359</v>
       </c>
@@ -15264,7 +15264,7 @@
         <v>1316</v>
       </c>
     </row>
-    <row r="521" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A521" t="s">
         <v>1359</v>
       </c>
@@ -15284,7 +15284,7 @@
         <v>1313</v>
       </c>
     </row>
-    <row r="522" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A522" t="s">
         <v>1359</v>
       </c>
@@ -15304,7 +15304,7 @@
         <v>1352</v>
       </c>
     </row>
-    <row r="523" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A523" t="s">
         <v>1359</v>
       </c>
@@ -15324,7 +15324,7 @@
         <v>1299</v>
       </c>
     </row>
-    <row r="524" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A524" t="s">
         <v>1359</v>
       </c>
@@ -15344,7 +15344,7 @@
         <v>1280</v>
       </c>
     </row>
-    <row r="525" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A525" t="s">
         <v>1359</v>
       </c>
@@ -15364,7 +15364,7 @@
         <v>1334</v>
       </c>
     </row>
-    <row r="526" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A526" t="s">
         <v>1359</v>
       </c>
@@ -15384,7 +15384,7 @@
         <v>1347</v>
       </c>
     </row>
-    <row r="527" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A527" t="s">
         <v>1359</v>
       </c>
@@ -15404,7 +15404,7 @@
         <v>1289</v>
       </c>
     </row>
-    <row r="528" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A528" t="s">
         <v>1359</v>
       </c>
@@ -15424,7 +15424,7 @@
         <v>1322</v>
       </c>
     </row>
-    <row r="529" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A529" t="s">
         <v>1359</v>
       </c>
@@ -15444,7 +15444,7 @@
         <v>1269</v>
       </c>
     </row>
-    <row r="530" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A530" t="s">
         <v>1359</v>
       </c>
@@ -15464,7 +15464,7 @@
         <v>1249</v>
       </c>
     </row>
-    <row r="531" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A531" t="s">
         <v>1359</v>
       </c>
@@ -15484,7 +15484,7 @@
         <v>1284</v>
       </c>
     </row>
-    <row r="532" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A532" t="s">
         <v>1359</v>
       </c>
@@ -15504,7 +15504,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="533" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A533" t="s">
         <v>1359</v>
       </c>
@@ -15524,7 +15524,7 @@
         <v>1312</v>
       </c>
     </row>
-    <row r="534" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A534" t="s">
         <v>1359</v>
       </c>
@@ -15544,7 +15544,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="535" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A535" t="s">
         <v>1359</v>
       </c>
@@ -15564,7 +15564,7 @@
         <v>1300</v>
       </c>
     </row>
-    <row r="536" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A536" t="s">
         <v>1359</v>
       </c>
@@ -15584,7 +15584,7 @@
         <v>1258</v>
       </c>
     </row>
-    <row r="537" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A537" t="s">
         <v>1359</v>
       </c>
@@ -15604,7 +15604,7 @@
         <v>1305</v>
       </c>
     </row>
-    <row r="538" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A538" t="s">
         <v>1359</v>
       </c>
@@ -15624,7 +15624,7 @@
         <v>1340</v>
       </c>
     </row>
-    <row r="539" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A539" t="s">
         <v>1359</v>
       </c>
@@ -15644,7 +15644,7 @@
         <v>1335</v>
       </c>
     </row>
-    <row r="540" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A540" t="s">
         <v>1359</v>
       </c>
@@ -15664,7 +15664,7 @@
         <v>1291</v>
       </c>
     </row>
-    <row r="541" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A541" t="s">
         <v>1359</v>
       </c>
@@ -15684,7 +15684,7 @@
         <v>1251</v>
       </c>
     </row>
-    <row r="542" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A542" t="s">
         <v>1359</v>
       </c>
@@ -15704,7 +15704,7 @@
         <v>1317</v>
       </c>
     </row>
-    <row r="543" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A543" t="s">
         <v>1359</v>
       </c>
@@ -15724,7 +15724,7 @@
         <v>1245</v>
       </c>
     </row>
-    <row r="544" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A544" t="s">
         <v>1359</v>
       </c>
@@ -15744,7 +15744,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="545" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A545" t="s">
         <v>1359</v>
       </c>
@@ -15764,7 +15764,7 @@
         <v>1304</v>
       </c>
     </row>
-    <row r="546" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A546" t="s">
         <v>1359</v>
       </c>
@@ -15784,7 +15784,7 @@
         <v>1257</v>
       </c>
     </row>
-    <row r="547" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A547" t="s">
         <v>1359</v>
       </c>
@@ -15804,7 +15804,7 @@
         <v>1283</v>
       </c>
     </row>
-    <row r="548" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A548" t="s">
         <v>1359</v>
       </c>
@@ -15824,7 +15824,7 @@
         <v>1315</v>
       </c>
     </row>
-    <row r="549" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A549" t="s">
         <v>1359</v>
       </c>
@@ -15844,7 +15844,7 @@
         <v>1296</v>
       </c>
     </row>
-    <row r="550" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A550" t="s">
         <v>1359</v>
       </c>
@@ -15864,7 +15864,7 @@
         <v>1349</v>
       </c>
     </row>
-    <row r="551" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A551" t="s">
         <v>1359</v>
       </c>
@@ -15884,7 +15884,7 @@
         <v>1331</v>
       </c>
     </row>
-    <row r="552" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A552" t="s">
         <v>1359</v>
       </c>
@@ -15904,7 +15904,7 @@
         <v>1343</v>
       </c>
     </row>
-    <row r="553" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A553" t="s">
         <v>1359</v>
       </c>
@@ -15924,7 +15924,7 @@
         <v>1314</v>
       </c>
     </row>
-    <row r="554" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A554" t="s">
         <v>1359</v>
       </c>
@@ -15944,7 +15944,7 @@
         <v>1309</v>
       </c>
     </row>
-    <row r="555" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A555" t="s">
         <v>1359</v>
       </c>
@@ -15964,7 +15964,7 @@
         <v>1353</v>
       </c>
     </row>
-    <row r="556" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A556" t="s">
         <v>1359</v>
       </c>
@@ -15984,7 +15984,7 @@
         <v>1320</v>
       </c>
     </row>
-    <row r="557" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A557" t="s">
         <v>1359</v>
       </c>
@@ -16004,7 +16004,7 @@
         <v>1327</v>
       </c>
     </row>
-    <row r="558" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A558" t="s">
         <v>1359</v>
       </c>
@@ -16024,7 +16024,7 @@
         <v>1328</v>
       </c>
     </row>
-    <row r="559" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A559" t="s">
         <v>1359</v>
       </c>
@@ -16044,7 +16044,7 @@
         <v>1303</v>
       </c>
     </row>
-    <row r="560" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A560" t="s">
         <v>1359</v>
       </c>
@@ -16064,7 +16064,7 @@
         <v>1336</v>
       </c>
     </row>
-    <row r="561" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A561" t="s">
         <v>1359</v>
       </c>
@@ -16084,7 +16084,7 @@
         <v>1290</v>
       </c>
     </row>
-    <row r="562" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A562" t="s">
         <v>1359</v>
       </c>
@@ -16104,7 +16104,7 @@
         <v>1278</v>
       </c>
     </row>
-    <row r="563" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A563" t="s">
         <v>1359</v>
       </c>
@@ -16124,7 +16124,7 @@
         <v>1348</v>
       </c>
     </row>
-    <row r="564" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A564" t="s">
         <v>1359</v>
       </c>
@@ -16144,7 +16144,7 @@
         <v>1342</v>
       </c>
     </row>
-    <row r="565" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A565" t="s">
         <v>1359</v>
       </c>
@@ -16164,7 +16164,7 @@
         <v>1310</v>
       </c>
     </row>
-    <row r="566" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A566" t="s">
         <v>1359</v>
       </c>
@@ -16184,7 +16184,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="567" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A567" t="s">
         <v>1359</v>
       </c>
@@ -16204,7 +16204,7 @@
         <v>1262</v>
       </c>
     </row>
-    <row r="568" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A568" t="s">
         <v>1359</v>
       </c>
@@ -16224,7 +16224,7 @@
         <v>1248</v>
       </c>
     </row>
-    <row r="569" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A569" t="s">
         <v>1359</v>
       </c>
@@ -16244,7 +16244,7 @@
         <v>1356</v>
       </c>
     </row>
-    <row r="570" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A570" t="s">
         <v>1359</v>
       </c>
@@ -16264,7 +16264,7 @@
         <v>1341</v>
       </c>
     </row>
-    <row r="571" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A571" t="s">
         <v>1359</v>
       </c>
@@ -16284,7 +16284,7 @@
         <v>1285</v>
       </c>
     </row>
-    <row r="572" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A572" t="s">
         <v>1359</v>
       </c>
@@ -16304,7 +16304,7 @@
         <v>1301</v>
       </c>
     </row>
-    <row r="573" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A573" t="s">
         <v>1359</v>
       </c>
@@ -16324,7 +16324,7 @@
         <v>1274</v>
       </c>
     </row>
-    <row r="574" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A574" t="s">
         <v>1359</v>
       </c>
@@ -16344,7 +16344,7 @@
         <v>1294</v>
       </c>
     </row>
-    <row r="575" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A575" t="s">
         <v>1359</v>
       </c>
@@ -16364,7 +16364,7 @@
         <v>1263</v>
       </c>
     </row>
-    <row r="576" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A576" t="s">
         <v>1359</v>
       </c>
@@ -16384,7 +16384,7 @@
         <v>1302</v>
       </c>
     </row>
-    <row r="577" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A577" t="s">
         <v>1359</v>
       </c>
@@ -16404,7 +16404,7 @@
         <v>1308</v>
       </c>
     </row>
-    <row r="578" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A578" t="s">
         <v>1359</v>
       </c>
@@ -16424,7 +16424,7 @@
         <v>1326</v>
       </c>
     </row>
-    <row r="579" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A579" t="s">
         <v>1359</v>
       </c>
@@ -16444,7 +16444,7 @@
         <v>1321</v>
       </c>
     </row>
-    <row r="580" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A580" t="s">
         <v>1359</v>
       </c>
@@ -16464,7 +16464,7 @@
         <v>1246</v>
       </c>
     </row>
-    <row r="581" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A581" t="s">
         <v>1359</v>
       </c>
@@ -16484,7 +16484,7 @@
         <v>1270</v>
       </c>
     </row>
-    <row r="582" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A582" t="s">
         <v>1359</v>
       </c>
@@ -16504,7 +16504,7 @@
         <v>1281</v>
       </c>
     </row>
-    <row r="583" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A583" t="s">
         <v>1359</v>
       </c>
@@ -16524,7 +16524,7 @@
         <v>1298</v>
       </c>
     </row>
-    <row r="584" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A584" t="s">
         <v>1359</v>
       </c>
@@ -16544,7 +16544,7 @@
         <v>1339</v>
       </c>
     </row>
-    <row r="585" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A585" t="s">
         <v>1359</v>
       </c>
@@ -16564,7 +16564,7 @@
         <v>1256</v>
       </c>
     </row>
-    <row r="586" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A586" t="s">
         <v>1359</v>
       </c>
@@ -16584,7 +16584,7 @@
         <v>1337</v>
       </c>
     </row>
-    <row r="587" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A587" t="s">
         <v>1359</v>
       </c>
@@ -16604,7 +16604,7 @@
         <v>1271</v>
       </c>
     </row>
-    <row r="588" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A588" t="s">
         <v>1359</v>
       </c>
@@ -16624,7 +16624,7 @@
         <v>1273</v>
       </c>
     </row>
-    <row r="589" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A589" t="s">
         <v>1359</v>
       </c>
@@ -16644,7 +16644,7 @@
         <v>1295</v>
       </c>
     </row>
-    <row r="590" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A590" t="s">
         <v>1359</v>
       </c>
@@ -16664,7 +16664,7 @@
         <v>1323</v>
       </c>
     </row>
-    <row r="591" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A591" t="s">
         <v>1359</v>
       </c>
@@ -16684,7 +16684,7 @@
         <v>1333</v>
       </c>
     </row>
-    <row r="592" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A592" t="s">
         <v>1359</v>
       </c>
@@ -16704,7 +16704,7 @@
         <v>1266</v>
       </c>
     </row>
-    <row r="593" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A593" t="s">
         <v>1359</v>
       </c>
@@ -16724,7 +16724,7 @@
         <v>1286</v>
       </c>
     </row>
-    <row r="594" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A594" t="s">
         <v>1359</v>
       </c>
@@ -16744,7 +16744,7 @@
         <v>1346</v>
       </c>
     </row>
-    <row r="595" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A595" t="s">
         <v>1359</v>
       </c>
@@ -16764,7 +16764,7 @@
         <v>1354</v>
       </c>
     </row>
-    <row r="596" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A596" t="s">
         <v>1359</v>
       </c>
@@ -16784,7 +16784,7 @@
         <v>1268</v>
       </c>
     </row>
-    <row r="597" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A597" t="s">
         <v>1359</v>
       </c>
@@ -16804,7 +16804,7 @@
         <v>1261</v>
       </c>
     </row>
-    <row r="598" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A598" t="s">
         <v>1359</v>
       </c>
@@ -16824,7 +16824,7 @@
         <v>1244</v>
       </c>
     </row>
-    <row r="599" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A599" t="s">
         <v>1359</v>
       </c>
@@ -16844,7 +16844,7 @@
         <v>1282</v>
       </c>
     </row>
-    <row r="600" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A600" t="s">
         <v>1359</v>
       </c>
@@ -16864,7 +16864,7 @@
         <v>1247</v>
       </c>
     </row>
-    <row r="601" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A601" t="s">
         <v>1359</v>
       </c>
@@ -16884,7 +16884,7 @@
         <v>1267</v>
       </c>
     </row>
-    <row r="602" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A602" t="s">
         <v>1359</v>
       </c>
@@ -16904,7 +16904,7 @@
         <v>1355</v>
       </c>
     </row>
-    <row r="603" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A603" t="s">
         <v>1359</v>
       </c>
@@ -16924,7 +16924,7 @@
         <v>1255</v>
       </c>
     </row>
-    <row r="604" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A604" t="s">
         <v>1359</v>
       </c>
@@ -16944,7 +16944,7 @@
         <v>1276</v>
       </c>
     </row>
-    <row r="605" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A605" t="s">
         <v>1359</v>
       </c>
@@ -16964,7 +16964,7 @@
         <v>1252</v>
       </c>
     </row>
-    <row r="606" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A606" t="s">
         <v>1359</v>
       </c>
@@ -16984,7 +16984,7 @@
         <v>1275</v>
       </c>
     </row>
-    <row r="607" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A607" t="s">
         <v>1359</v>
       </c>
@@ -17004,7 +17004,7 @@
         <v>1338</v>
       </c>
     </row>
-    <row r="608" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A608" t="s">
         <v>1359</v>
       </c>
@@ -17024,7 +17024,7 @@
         <v>1357</v>
       </c>
     </row>
-    <row r="609" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A609" t="s">
         <v>1359</v>
       </c>
@@ -17044,7 +17044,7 @@
         <v>1332</v>
       </c>
     </row>
-    <row r="610" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A610" t="s">
         <v>1359</v>
       </c>
@@ -17064,7 +17064,7 @@
         <v>1297</v>
       </c>
     </row>
-    <row r="611" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A611" t="s">
         <v>1359</v>
       </c>
@@ -17084,7 +17084,7 @@
         <v>1288</v>
       </c>
     </row>
-    <row r="612" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A612" t="s">
         <v>1359</v>
       </c>
@@ -17104,7 +17104,7 @@
         <v>1243</v>
       </c>
     </row>
-    <row r="613" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A613" t="s">
         <v>1359</v>
       </c>
@@ -17124,7 +17124,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="614" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A614" t="s">
         <v>1359</v>
       </c>
@@ -17144,7 +17144,7 @@
         <v>1344</v>
       </c>
     </row>
-    <row r="615" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A615" t="s">
         <v>1359</v>
       </c>
@@ -17164,7 +17164,7 @@
         <v>1307</v>
       </c>
     </row>
-    <row r="616" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A616" t="s">
         <v>1359</v>
       </c>
@@ -17184,7 +17184,7 @@
         <v>1254</v>
       </c>
     </row>
-    <row r="617" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A617" t="s">
         <v>1359</v>
       </c>
@@ -17204,7 +17204,7 @@
         <v>1325</v>
       </c>
     </row>
-    <row r="618" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A618" t="s">
         <v>1359</v>
       </c>
@@ -17224,7 +17224,7 @@
         <v>1260</v>
       </c>
     </row>
-    <row r="619" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A619" t="s">
         <v>1359</v>
       </c>
@@ -17244,7 +17244,7 @@
         <v>1293</v>
       </c>
     </row>
-    <row r="620" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A620" t="s">
         <v>1359</v>
       </c>
@@ -17264,7 +17264,7 @@
         <v>1330</v>
       </c>
     </row>
-    <row r="621" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A621" t="s">
         <v>1359</v>
       </c>
@@ -17284,7 +17284,7 @@
         <v>1265</v>
       </c>
     </row>
-    <row r="622" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A622" t="s">
         <v>1359</v>
       </c>
@@ -17301,7 +17301,7 @@
         <v>1287</v>
       </c>
     </row>
-    <row r="623" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="623" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A623" t="s">
         <v>736</v>
       </c>
@@ -17321,7 +17321,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="624" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="624" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A624" t="s">
         <v>736</v>
       </c>
@@ -17341,7 +17341,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="625" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="625" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A625" t="s">
         <v>736</v>
       </c>
@@ -17361,7 +17361,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="626" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="626" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A626" t="s">
         <v>736</v>
       </c>
@@ -17381,7 +17381,7 @@
         <v>777</v>
       </c>
     </row>
-    <row r="627" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="627" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A627" t="s">
         <v>736</v>
       </c>
@@ -17401,7 +17401,7 @@
         <v>778</v>
       </c>
     </row>
-    <row r="628" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="628" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A628" t="s">
         <v>736</v>
       </c>
@@ -17421,7 +17421,7 @@
         <v>779</v>
       </c>
     </row>
-    <row r="629" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="629" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A629" t="s">
         <v>736</v>
       </c>
@@ -17441,7 +17441,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="630" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="630" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A630" t="s">
         <v>736</v>
       </c>
@@ -17461,7 +17461,7 @@
         <v>781</v>
       </c>
     </row>
-    <row r="631" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="631" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A631" t="s">
         <v>736</v>
       </c>
@@ -17481,7 +17481,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="632" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="632" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A632" t="s">
         <v>736</v>
       </c>
@@ -17501,7 +17501,7 @@
         <v>783</v>
       </c>
     </row>
-    <row r="633" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="633" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A633" t="s">
         <v>736</v>
       </c>
@@ -17521,7 +17521,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="634" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="634" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A634" t="s">
         <v>736</v>
       </c>
@@ -17541,7 +17541,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="635" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="635" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A635" t="s">
         <v>736</v>
       </c>
@@ -17561,7 +17561,7 @@
         <v>739</v>
       </c>
     </row>
-    <row r="636" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="636" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A636" t="s">
         <v>736</v>
       </c>
@@ -17581,7 +17581,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="637" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="637" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A637" t="s">
         <v>736</v>
       </c>
@@ -17601,7 +17601,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="638" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="638" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A638" t="s">
         <v>736</v>
       </c>
@@ -17621,7 +17621,7 @@
         <v>742</v>
       </c>
     </row>
-    <row r="639" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="639" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A639" t="s">
         <v>736</v>
       </c>
@@ -17641,7 +17641,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="640" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="640" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A640" t="s">
         <v>736</v>
       </c>
@@ -17661,7 +17661,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="641" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="641" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A641" t="s">
         <v>736</v>
       </c>
@@ -17681,7 +17681,7 @@
         <v>786</v>
       </c>
     </row>
-    <row r="642" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="642" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A642" t="s">
         <v>736</v>
       </c>
@@ -17701,7 +17701,7 @@
         <v>787</v>
       </c>
     </row>
-    <row r="643" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="643" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A643" t="s">
         <v>736</v>
       </c>
@@ -17721,7 +17721,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="644" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="644" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A644" t="s">
         <v>736</v>
       </c>
@@ -17741,7 +17741,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="645" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="645" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A645" t="s">
         <v>736</v>
       </c>
@@ -17761,7 +17761,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="646" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="646" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A646" t="s">
         <v>736</v>
       </c>
@@ -17781,7 +17781,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="647" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="647" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A647" t="s">
         <v>736</v>
       </c>
@@ -17801,7 +17801,7 @@
         <v>792</v>
       </c>
     </row>
-    <row r="648" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="648" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A648" t="s">
         <v>736</v>
       </c>
@@ -17821,7 +17821,7 @@
         <v>793</v>
       </c>
     </row>
-    <row r="649" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="649" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A649" t="s">
         <v>736</v>
       </c>
@@ -17841,7 +17841,7 @@
         <v>743</v>
       </c>
     </row>
-    <row r="650" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="650" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A650" t="s">
         <v>736</v>
       </c>
@@ -17861,7 +17861,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="651" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="651" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A651" t="s">
         <v>736</v>
       </c>
@@ -17881,7 +17881,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="652" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="652" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A652" t="s">
         <v>736</v>
       </c>
@@ -17901,7 +17901,7 @@
         <v>746</v>
       </c>
     </row>
-    <row r="653" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="653" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A653" t="s">
         <v>736</v>
       </c>
@@ -17921,7 +17921,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="654" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="654" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A654" t="s">
         <v>736</v>
       </c>
@@ -17941,7 +17941,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="655" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="655" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A655" t="s">
         <v>736</v>
       </c>
@@ -17961,7 +17961,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="656" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="656" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A656" t="s">
         <v>736</v>
       </c>
@@ -17981,7 +17981,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="657" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="657" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A657" t="s">
         <v>736</v>
       </c>
@@ -18001,7 +18001,7 @@
         <v>795</v>
       </c>
     </row>
-    <row r="658" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="658" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A658" t="s">
         <v>736</v>
       </c>
@@ -18021,7 +18021,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="659" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="659" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A659" t="s">
         <v>736</v>
       </c>
@@ -18041,7 +18041,7 @@
         <v>797</v>
       </c>
     </row>
-    <row r="660" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="660" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A660" t="s">
         <v>736</v>
       </c>
@@ -18061,7 +18061,7 @@
         <v>798</v>
       </c>
     </row>
-    <row r="661" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="661" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A661" t="s">
         <v>736</v>
       </c>
@@ -18081,7 +18081,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="662" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="662" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A662" t="s">
         <v>736</v>
       </c>
@@ -18101,7 +18101,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="663" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="663" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A663" t="s">
         <v>736</v>
       </c>
@@ -18121,7 +18121,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="664" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="664" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A664" t="s">
         <v>736</v>
       </c>
@@ -18141,7 +18141,7 @@
         <v>752</v>
       </c>
     </row>
-    <row r="665" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="665" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A665" t="s">
         <v>736</v>
       </c>
@@ -18161,7 +18161,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="666" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="666" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A666" t="s">
         <v>736</v>
       </c>
@@ -18181,7 +18181,7 @@
         <v>754</v>
       </c>
     </row>
-    <row r="667" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="667" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A667" t="s">
         <v>736</v>
       </c>
@@ -18201,7 +18201,7 @@
         <v>755</v>
       </c>
     </row>
-    <row r="668" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="668" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A668" t="s">
         <v>736</v>
       </c>
@@ -18221,7 +18221,7 @@
         <v>756</v>
       </c>
     </row>
-    <row r="669" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="669" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A669" t="s">
         <v>736</v>
       </c>
@@ -18241,7 +18241,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="670" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="670" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A670" t="s">
         <v>736</v>
       </c>
@@ -18261,7 +18261,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="671" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="671" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A671" t="s">
         <v>736</v>
       </c>
@@ -18281,7 +18281,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="672" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="672" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A672" t="s">
         <v>736</v>
       </c>
@@ -18301,7 +18301,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="673" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="673" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A673" t="s">
         <v>736</v>
       </c>
@@ -18321,7 +18321,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="674" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="674" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A674" t="s">
         <v>736</v>
       </c>
@@ -18341,7 +18341,7 @@
         <v>807</v>
       </c>
     </row>
-    <row r="675" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="675" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A675" t="s">
         <v>736</v>
       </c>
@@ -18361,7 +18361,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="676" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="676" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A676" t="s">
         <v>736</v>
       </c>
@@ -18381,7 +18381,7 @@
         <v>809</v>
       </c>
     </row>
-    <row r="677" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="677" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A677" t="s">
         <v>736</v>
       </c>
@@ -18401,7 +18401,7 @@
         <v>810</v>
       </c>
     </row>
-    <row r="678" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="678" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A678" t="s">
         <v>736</v>
       </c>
@@ -18421,7 +18421,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="679" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="679" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A679" t="s">
         <v>736</v>
       </c>
@@ -18441,7 +18441,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="680" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="680" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A680" t="s">
         <v>736</v>
       </c>
@@ -18461,7 +18461,7 @@
         <v>759</v>
       </c>
     </row>
-    <row r="681" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="681" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A681" t="s">
         <v>736</v>
       </c>
@@ -18481,7 +18481,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="682" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="682" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A682" t="s">
         <v>736</v>
       </c>
@@ -18501,7 +18501,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="683" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="683" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A683" t="s">
         <v>736</v>
       </c>
@@ -18521,7 +18521,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="684" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="684" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A684" t="s">
         <v>736</v>
       </c>
@@ -18541,7 +18541,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="685" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="685" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A685" t="s">
         <v>736</v>
       </c>
@@ -18561,7 +18561,7 @@
         <v>811</v>
       </c>
     </row>
-    <row r="686" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="686" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A686" t="s">
         <v>736</v>
       </c>
@@ -18581,7 +18581,7 @@
         <v>812</v>
       </c>
     </row>
-    <row r="687" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="687" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A687" t="s">
         <v>736</v>
       </c>
@@ -18601,7 +18601,7 @@
         <v>813</v>
       </c>
     </row>
-    <row r="688" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="688" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A688" t="s">
         <v>736</v>
       </c>
@@ -18621,7 +18621,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="689" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="689" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A689" t="s">
         <v>736</v>
       </c>
@@ -18641,7 +18641,7 @@
         <v>815</v>
       </c>
     </row>
-    <row r="690" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="690" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A690" t="s">
         <v>736</v>
       </c>
@@ -18661,7 +18661,7 @@
         <v>816</v>
       </c>
     </row>
-    <row r="691" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="691" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A691" t="s">
         <v>736</v>
       </c>
@@ -18681,7 +18681,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="692" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="692" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A692" t="s">
         <v>736</v>
       </c>
@@ -18701,7 +18701,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="693" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="693" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A693" t="s">
         <v>736</v>
       </c>
@@ -18721,7 +18721,7 @@
         <v>819</v>
       </c>
     </row>
-    <row r="694" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="694" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A694" t="s">
         <v>736</v>
       </c>
@@ -18741,7 +18741,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="695" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="695" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A695" t="s">
         <v>736</v>
       </c>
@@ -18761,7 +18761,7 @@
         <v>821</v>
       </c>
     </row>
-    <row r="696" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="696" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A696" t="s">
         <v>736</v>
       </c>
@@ -18781,7 +18781,7 @@
         <v>822</v>
       </c>
     </row>
-    <row r="697" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="697" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A697" t="s">
         <v>736</v>
       </c>
@@ -18801,7 +18801,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="698" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="698" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A698" t="s">
         <v>736</v>
       </c>
@@ -18821,7 +18821,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="699" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="699" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A699" t="s">
         <v>736</v>
       </c>
@@ -18841,7 +18841,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="700" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="700" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A700" t="s">
         <v>736</v>
       </c>
@@ -18861,7 +18861,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="701" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="701" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A701" t="s">
         <v>736</v>
       </c>
@@ -18881,7 +18881,7 @@
         <v>823</v>
       </c>
     </row>
-    <row r="702" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="702" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A702" t="s">
         <v>736</v>
       </c>
@@ -18901,7 +18901,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="703" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="703" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A703" t="s">
         <v>736</v>
       </c>
@@ -18921,7 +18921,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="704" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="704" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A704" t="s">
         <v>736</v>
       </c>
@@ -18941,7 +18941,7 @@
         <v>826</v>
       </c>
     </row>
-    <row r="705" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="705" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A705" t="s">
         <v>736</v>
       </c>
@@ -18961,7 +18961,7 @@
         <v>827</v>
       </c>
     </row>
-    <row r="706" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="706" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A706" t="s">
         <v>736</v>
       </c>
@@ -18981,7 +18981,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="707" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="707" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A707" t="s">
         <v>736</v>
       </c>
@@ -19001,7 +19001,7 @@
         <v>829</v>
       </c>
     </row>
-    <row r="708" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="708" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A708" t="s">
         <v>736</v>
       </c>
@@ -19021,7 +19021,7 @@
         <v>830</v>
       </c>
     </row>
-    <row r="709" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="709" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A709" t="s">
         <v>736</v>
       </c>
@@ -19041,7 +19041,7 @@
         <v>831</v>
       </c>
     </row>
-    <row r="710" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="710" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A710" t="s">
         <v>736</v>
       </c>
@@ -19061,7 +19061,7 @@
         <v>832</v>
       </c>
     </row>
-    <row r="711" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="711" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A711" t="s">
         <v>736</v>
       </c>
@@ -19081,7 +19081,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="712" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="712" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A712" t="s">
         <v>736</v>
       </c>
@@ -19101,7 +19101,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="713" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="713" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A713" t="s">
         <v>736</v>
       </c>
@@ -19121,7 +19121,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="714" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="714" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A714" t="s">
         <v>736</v>
       </c>
@@ -19141,7 +19141,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="715" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="715" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A715" t="s">
         <v>736</v>
       </c>
@@ -19161,7 +19161,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="716" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="716" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A716" t="s">
         <v>736</v>
       </c>
@@ -19181,7 +19181,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="717" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="717" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A717" t="s">
         <v>736</v>
       </c>
@@ -19201,7 +19201,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="718" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="718" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A718" t="s">
         <v>242</v>
       </c>
@@ -19221,7 +19221,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="719" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="719" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A719" t="s">
         <v>242</v>
       </c>
@@ -19241,7 +19241,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="720" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="720" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A720" t="s">
         <v>242</v>
       </c>
@@ -19261,7 +19261,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="721" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="721" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A721" t="s">
         <v>242</v>
       </c>
@@ -19281,7 +19281,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="722" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="722" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A722" t="s">
         <v>242</v>
       </c>
@@ -19301,7 +19301,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="723" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="723" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A723" t="s">
         <v>242</v>
       </c>
@@ -19321,7 +19321,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="724" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="724" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A724" t="s">
         <v>242</v>
       </c>
@@ -19341,7 +19341,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="725" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="725" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A725" t="s">
         <v>242</v>
       </c>
@@ -19361,7 +19361,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="726" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="726" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A726" t="s">
         <v>242</v>
       </c>
@@ -19381,7 +19381,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="727" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="727" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A727" t="s">
         <v>242</v>
       </c>
@@ -19401,7 +19401,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="728" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="728" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A728" t="s">
         <v>242</v>
       </c>
@@ -19421,7 +19421,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="729" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="729" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A729" t="s">
         <v>242</v>
       </c>
@@ -19441,7 +19441,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="730" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="730" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A730" t="s">
         <v>242</v>
       </c>
@@ -19461,7 +19461,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="731" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="731" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A731" t="s">
         <v>242</v>
       </c>
@@ -19481,7 +19481,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="732" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="732" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A732" t="s">
         <v>242</v>
       </c>
@@ -19501,7 +19501,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="733" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="733" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A733" t="s">
         <v>242</v>
       </c>
@@ -19521,7 +19521,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="734" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="734" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A734" t="s">
         <v>242</v>
       </c>
@@ -19541,7 +19541,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="735" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="735" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A735" t="s">
         <v>242</v>
       </c>
@@ -19561,7 +19561,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="736" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="736" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A736" t="s">
         <v>242</v>
       </c>
@@ -19581,7 +19581,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="737" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="737" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A737" t="s">
         <v>242</v>
       </c>
@@ -19601,7 +19601,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="738" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="738" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A738" t="s">
         <v>242</v>
       </c>
@@ -19621,7 +19621,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="739" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="739" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A739" t="s">
         <v>242</v>
       </c>
@@ -19641,7 +19641,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="740" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="740" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A740" t="s">
         <v>242</v>
       </c>
@@ -19661,7 +19661,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="741" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="741" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A741" t="s">
         <v>242</v>
       </c>
@@ -19681,7 +19681,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="742" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="742" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A742" t="s">
         <v>242</v>
       </c>
@@ -19701,7 +19701,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="743" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="743" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A743" t="s">
         <v>242</v>
       </c>
@@ -19721,7 +19721,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="744" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="744" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A744" t="s">
         <v>242</v>
       </c>
@@ -19741,7 +19741,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="745" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="745" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A745" t="s">
         <v>242</v>
       </c>
@@ -19761,7 +19761,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="746" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="746" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A746" t="s">
         <v>242</v>
       </c>
@@ -19781,7 +19781,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="747" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="747" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A747" t="s">
         <v>242</v>
       </c>
@@ -19801,7 +19801,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="748" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="748" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A748" t="s">
         <v>242</v>
       </c>
@@ -19821,7 +19821,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="749" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="749" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A749" t="s">
         <v>242</v>
       </c>
@@ -19841,7 +19841,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="750" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="750" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A750" t="s">
         <v>242</v>
       </c>
@@ -19861,7 +19861,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="751" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="751" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A751" t="s">
         <v>242</v>
       </c>
@@ -19881,7 +19881,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="752" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="752" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A752" t="s">
         <v>242</v>
       </c>
@@ -19901,7 +19901,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="753" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="753" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A753" t="s">
         <v>242</v>
       </c>
@@ -19921,7 +19921,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="754" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="754" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A754" t="s">
         <v>242</v>
       </c>
@@ -19941,7 +19941,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="755" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="755" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A755" t="s">
         <v>242</v>
       </c>
@@ -19961,7 +19961,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="756" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="756" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A756" t="s">
         <v>242</v>
       </c>
@@ -19981,7 +19981,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="757" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="757" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A757" t="s">
         <v>242</v>
       </c>
@@ -20001,7 +20001,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="758" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="758" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A758" t="s">
         <v>242</v>
       </c>
@@ -20021,7 +20021,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="759" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="759" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A759" t="s">
         <v>242</v>
       </c>
@@ -20041,7 +20041,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="760" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="760" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A760" t="s">
         <v>242</v>
       </c>
@@ -20061,7 +20061,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="761" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="761" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A761" t="s">
         <v>242</v>
       </c>
@@ -20081,7 +20081,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="762" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="762" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A762" t="s">
         <v>242</v>
       </c>
@@ -20101,7 +20101,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="763" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="763" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A763" t="s">
         <v>242</v>
       </c>
@@ -20121,7 +20121,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="764" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="764" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A764" t="s">
         <v>242</v>
       </c>
@@ -20141,7 +20141,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="765" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="765" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A765" t="s">
         <v>242</v>
       </c>
@@ -20161,7 +20161,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="766" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="766" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A766" t="s">
         <v>242</v>
       </c>
@@ -20181,7 +20181,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="767" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="767" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A767" t="s">
         <v>242</v>
       </c>
@@ -20201,7 +20201,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="768" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="768" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A768" t="s">
         <v>242</v>
       </c>
@@ -20221,7 +20221,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="769" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="769" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A769" t="s">
         <v>242</v>
       </c>
@@ -20241,7 +20241,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="770" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="770" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A770" t="s">
         <v>242</v>
       </c>
@@ -20261,7 +20261,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="771" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="771" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A771" t="s">
         <v>242</v>
       </c>
@@ -20281,7 +20281,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="772" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="772" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A772" t="s">
         <v>242</v>
       </c>
@@ -20301,7 +20301,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="773" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="773" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A773" t="s">
         <v>242</v>
       </c>
@@ -20321,7 +20321,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="774" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="774" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A774" t="s">
         <v>242</v>
       </c>
@@ -20341,7 +20341,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="775" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="775" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A775" t="s">
         <v>242</v>
       </c>
@@ -20361,7 +20361,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="776" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="776" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A776" t="s">
         <v>242</v>
       </c>
@@ -20381,7 +20381,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="777" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="777" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A777" t="s">
         <v>242</v>
       </c>
@@ -20401,7 +20401,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="778" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="778" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A778" t="s">
         <v>242</v>
       </c>
@@ -20421,7 +20421,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="779" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="779" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A779" t="s">
         <v>242</v>
       </c>
@@ -20441,7 +20441,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="780" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="780" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A780" t="s">
         <v>242</v>
       </c>
@@ -20461,7 +20461,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="781" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="781" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A781" t="s">
         <v>242</v>
       </c>
@@ -20481,7 +20481,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="782" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="782" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A782" t="s">
         <v>242</v>
       </c>
@@ -20501,7 +20501,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="783" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="783" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A783" t="s">
         <v>242</v>
       </c>
@@ -20521,7 +20521,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="784" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="784" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A784" t="s">
         <v>242</v>
       </c>
@@ -20541,7 +20541,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="785" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="785" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A785" t="s">
         <v>242</v>
       </c>
@@ -20561,7 +20561,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="786" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="786" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A786" t="s">
         <v>242</v>
       </c>
@@ -20581,7 +20581,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="787" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="787" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A787" t="s">
         <v>242</v>
       </c>
@@ -20601,7 +20601,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="788" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="788" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A788" t="s">
         <v>242</v>
       </c>
@@ -20621,7 +20621,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="789" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="789" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A789" t="s">
         <v>242</v>
       </c>
@@ -20641,7 +20641,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="790" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="790" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A790" t="s">
         <v>242</v>
       </c>
@@ -20661,7 +20661,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="791" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="791" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A791" t="s">
         <v>242</v>
       </c>
@@ -20681,7 +20681,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="792" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="792" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A792" t="s">
         <v>242</v>
       </c>
@@ -20701,7 +20701,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="793" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="793" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A793" t="s">
         <v>242</v>
       </c>
@@ -20721,7 +20721,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="794" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="794" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A794" t="s">
         <v>242</v>
       </c>
@@ -20741,7 +20741,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="795" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="795" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A795" t="s">
         <v>242</v>
       </c>
@@ -20761,7 +20761,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="796" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="796" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A796" t="s">
         <v>242</v>
       </c>
@@ -20781,7 +20781,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="797" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="797" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A797" t="s">
         <v>242</v>
       </c>
@@ -20801,7 +20801,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="798" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="798" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A798" t="s">
         <v>242</v>
       </c>
@@ -20821,7 +20821,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="799" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="799" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A799" t="s">
         <v>242</v>
       </c>
@@ -20841,7 +20841,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="800" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="800" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A800" t="s">
         <v>242</v>
       </c>
@@ -20861,7 +20861,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="801" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="801" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A801" t="s">
         <v>242</v>
       </c>
@@ -20881,7 +20881,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="802" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="802" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A802" t="s">
         <v>242</v>
       </c>
@@ -20901,7 +20901,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="803" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="803" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A803" t="s">
         <v>242</v>
       </c>
@@ -20921,7 +20921,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="804" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="804" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A804" t="s">
         <v>242</v>
       </c>
@@ -20941,7 +20941,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="805" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="805" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A805" t="s">
         <v>242</v>
       </c>
@@ -20961,7 +20961,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="806" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="806" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A806" t="s">
         <v>242</v>
       </c>
@@ -20981,7 +20981,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="807" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="807" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A807" t="s">
         <v>242</v>
       </c>
@@ -21001,7 +21001,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="808" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="808" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A808" t="s">
         <v>242</v>
       </c>
@@ -21021,7 +21021,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="809" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="809" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A809" t="s">
         <v>242</v>
       </c>
@@ -21041,7 +21041,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="810" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="810" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A810" t="s">
         <v>242</v>
       </c>
@@ -21061,7 +21061,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="811" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="811" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A811" t="s">
         <v>242</v>
       </c>
@@ -21081,7 +21081,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="812" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="812" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A812" t="s">
         <v>242</v>
       </c>
@@ -21101,7 +21101,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="813" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="813" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A813" t="s">
         <v>242</v>
       </c>
@@ -21121,7 +21121,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="814" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="814" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A814" t="s">
         <v>242</v>
       </c>
@@ -21141,7 +21141,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="815" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="815" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A815" t="s">
         <v>242</v>
       </c>
@@ -21161,7 +21161,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="816" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="816" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A816" t="s">
         <v>242</v>
       </c>
@@ -21181,7 +21181,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="817" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="817" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A817" t="s">
         <v>242</v>
       </c>
@@ -21201,7 +21201,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="818" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="818" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A818" t="s">
         <v>242</v>
       </c>
@@ -21221,7 +21221,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="819" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="819" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A819" t="s">
         <v>242</v>
       </c>
@@ -21241,7 +21241,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="820" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="820" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A820" t="s">
         <v>242</v>
       </c>
@@ -21261,7 +21261,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="821" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="821" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A821" t="s">
         <v>242</v>
       </c>
@@ -21281,7 +21281,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="822" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="822" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A822" t="s">
         <v>242</v>
       </c>
@@ -21301,7 +21301,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="823" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="823" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A823" t="s">
         <v>242</v>
       </c>
@@ -21321,7 +21321,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="824" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="824" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A824" t="s">
         <v>242</v>
       </c>
@@ -21341,7 +21341,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="825" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="825" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A825" t="s">
         <v>242</v>
       </c>
@@ -21361,7 +21361,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="826" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="826" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A826" t="s">
         <v>242</v>
       </c>
@@ -21381,7 +21381,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="827" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="827" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A827" t="s">
         <v>242</v>
       </c>
@@ -21401,7 +21401,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="828" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="828" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A828" t="s">
         <v>242</v>
       </c>
@@ -21421,7 +21421,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="829" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="829" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A829" t="s">
         <v>242</v>
       </c>
@@ -21441,7 +21441,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="830" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="830" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A830" t="s">
         <v>1240</v>
       </c>
@@ -21461,7 +21461,7 @@
         <v>1239</v>
       </c>
     </row>
-    <row r="831" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="831" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A831" t="s">
         <v>1240</v>
       </c>
@@ -21481,7 +21481,7 @@
         <v>1225</v>
       </c>
     </row>
-    <row r="832" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="832" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A832" t="s">
         <v>1240</v>
       </c>
@@ -21501,7 +21501,7 @@
         <v>1233</v>
       </c>
     </row>
-    <row r="833" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="833" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A833" t="s">
         <v>1240</v>
       </c>
@@ -21521,7 +21521,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="834" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="834" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A834" t="s">
         <v>1240</v>
       </c>
@@ -21541,7 +21541,7 @@
         <v>1237</v>
       </c>
     </row>
-    <row r="835" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="835" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A835" t="s">
         <v>1240</v>
       </c>
@@ -21561,7 +21561,7 @@
         <v>1223</v>
       </c>
     </row>
-    <row r="836" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="836" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A836" t="s">
         <v>1240</v>
       </c>
@@ -21581,7 +21581,7 @@
         <v>1219</v>
       </c>
     </row>
-    <row r="837" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="837" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A837" t="s">
         <v>1240</v>
       </c>
@@ -21601,7 +21601,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="838" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="838" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A838" t="s">
         <v>1240</v>
       </c>
@@ -21621,7 +21621,7 @@
         <v>1229</v>
       </c>
     </row>
-    <row r="839" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="839" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A839" t="s">
         <v>1240</v>
       </c>
@@ -21641,7 +21641,7 @@
         <v>1215</v>
       </c>
     </row>
-    <row r="840" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="840" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A840" t="s">
         <v>1240</v>
       </c>
@@ -21661,7 +21661,7 @@
         <v>1235</v>
       </c>
     </row>
-    <row r="841" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="841" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A841" t="s">
         <v>1240</v>
       </c>
@@ -21681,7 +21681,7 @@
         <v>1217</v>
       </c>
     </row>
-    <row r="842" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="842" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A842" t="s">
         <v>1240</v>
       </c>
@@ -21701,7 +21701,7 @@
         <v>1231</v>
       </c>
     </row>
-    <row r="843" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="843" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A843" t="s">
         <v>102</v>
       </c>
@@ -21724,7 +21724,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="844" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="844" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A844" t="s">
         <v>102</v>
       </c>
@@ -21747,7 +21747,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="845" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="845" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A845" t="s">
         <v>102</v>
       </c>
@@ -21770,7 +21770,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="846" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="846" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A846" t="s">
         <v>102</v>
       </c>
@@ -21793,7 +21793,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="847" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="847" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A847" t="s">
         <v>102</v>
       </c>
@@ -21816,7 +21816,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="848" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="848" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A848" t="s">
         <v>102</v>
       </c>
@@ -21839,7 +21839,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="849" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="849" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A849" t="s">
         <v>102</v>
       </c>
@@ -21862,7 +21862,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="850" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="850" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A850" t="s">
         <v>102</v>
       </c>
@@ -21885,7 +21885,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="851" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="851" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A851" t="s">
         <v>102</v>
       </c>
@@ -21908,7 +21908,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="852" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="852" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A852" t="s">
         <v>102</v>
       </c>
@@ -21931,7 +21931,7 @@
         <v>1366</v>
       </c>
     </row>
-    <row r="853" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="853" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A853" t="s">
         <v>102</v>
       </c>
@@ -21954,7 +21954,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="854" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="854" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A854" t="s">
         <v>102</v>
       </c>
@@ -21977,7 +21977,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="855" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="855" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A855" t="s">
         <v>102</v>
       </c>
@@ -22000,7 +22000,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="856" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="856" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A856" t="s">
         <v>102</v>
       </c>
@@ -22023,7 +22023,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="857" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="857" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A857" t="s">
         <v>89</v>
       </c>
@@ -22046,7 +22046,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="858" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="858" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A858" t="s">
         <v>89</v>
       </c>
@@ -22069,7 +22069,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="859" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="859" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A859" t="s">
         <v>89</v>
       </c>
@@ -22092,7 +22092,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="860" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="860" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A860" t="s">
         <v>89</v>
       </c>
@@ -22115,7 +22115,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="861" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="861" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A861" t="s">
         <v>89</v>
       </c>
@@ -22138,7 +22138,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="862" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="862" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A862" t="s">
         <v>77</v>
       </c>
@@ -22158,7 +22158,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="863" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="863" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A863" t="s">
         <v>77</v>
       </c>
@@ -22178,7 +22178,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="864" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="864" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A864" t="s">
         <v>77</v>
       </c>
@@ -22198,7 +22198,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="865" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="865" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A865" t="s">
         <v>77</v>
       </c>
@@ -22218,7 +22218,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="866" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="866" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A866" t="s">
         <v>77</v>
       </c>
@@ -22238,7 +22238,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="867" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="867" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A867" t="s">
         <v>64</v>
       </c>
@@ -22261,7 +22261,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="868" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="868" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A868" t="s">
         <v>64</v>
       </c>
@@ -22284,7 +22284,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="869" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="869" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A869" t="s">
         <v>64</v>
       </c>
@@ -22307,7 +22307,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="870" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="870" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A870" t="s">
         <v>64</v>
       </c>
@@ -22330,7 +22330,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="871" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="871" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A871" t="s">
         <v>64</v>
       </c>
@@ -22353,7 +22353,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="872" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="872" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A872" t="s">
         <v>64</v>
       </c>
@@ -22376,7 +22376,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="873" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="873" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A873" t="s">
         <v>64</v>
       </c>
@@ -22399,7 +22399,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="874" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="874" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A874" t="s">
         <v>73</v>
       </c>
@@ -22419,7 +22419,7 @@
         <v>1368</v>
       </c>
     </row>
-    <row r="875" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="875" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A875" t="s">
         <v>73</v>
       </c>
@@ -22439,7 +22439,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="876" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="876" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A876" t="s">
         <v>33</v>
       </c>
@@ -22462,7 +22462,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="877" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="877" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A877" t="s">
         <v>33</v>
       </c>
@@ -22485,7 +22485,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="878" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="878" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A878" t="s">
         <v>33</v>
       </c>
@@ -22508,7 +22508,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="879" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="879" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A879" t="s">
         <v>33</v>
       </c>
@@ -22531,7 +22531,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="880" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="880" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A880" t="s">
         <v>33</v>
       </c>
@@ -22554,7 +22554,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="881" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="881" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A881" t="s">
         <v>33</v>
       </c>
@@ -22577,7 +22577,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="882" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="882" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A882" t="s">
         <v>33</v>
       </c>
@@ -22600,7 +22600,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="883" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="883" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A883" t="s">
         <v>33</v>
       </c>
@@ -22623,7 +22623,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="884" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="884" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A884" t="s">
         <v>33</v>
       </c>
@@ -22646,7 +22646,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="885" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="885" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A885" t="s">
         <v>33</v>
       </c>
@@ -22669,7 +22669,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="886" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="886" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A886" t="s">
         <v>33</v>
       </c>
@@ -22692,7 +22692,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="887" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="887" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A887" t="s">
         <v>33</v>
       </c>
@@ -22715,7 +22715,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="888" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="888" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A888" t="s">
         <v>33</v>
       </c>
@@ -22738,7 +22738,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="889" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="889" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A889" t="s">
         <v>33</v>
       </c>
@@ -22761,7 +22761,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="890" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="890" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A890" t="s">
         <v>33</v>
       </c>
@@ -22784,7 +22784,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="891" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="891" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A891" t="s">
         <v>33</v>
       </c>
@@ -22807,7 +22807,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="892" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="892" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A892" t="s">
         <v>33</v>
       </c>
@@ -22830,7 +22830,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="893" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="893" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A893" t="s">
         <v>33</v>
       </c>
@@ -22853,7 +22853,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="894" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="894" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A894" t="s">
         <v>33</v>
       </c>
@@ -22876,7 +22876,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="895" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="895" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A895" t="s">
         <v>33</v>
       </c>
@@ -22899,7 +22899,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="896" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="896" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A896" t="s">
         <v>33</v>
       </c>
@@ -22922,7 +22922,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="897" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="897" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A897" t="s">
         <v>33</v>
       </c>
@@ -22945,7 +22945,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="898" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="898" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A898" t="s">
         <v>33</v>
       </c>
@@ -22968,7 +22968,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="899" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="899" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A899" t="s">
         <v>33</v>
       </c>
@@ -22991,7 +22991,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="900" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="900" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A900" t="s">
         <v>33</v>
       </c>
@@ -23014,7 +23014,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="901" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="901" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A901" t="s">
         <v>33</v>
       </c>
@@ -23037,7 +23037,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="902" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="902" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A902" t="s">
         <v>33</v>
       </c>
@@ -23060,7 +23060,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="903" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="903" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A903" t="s">
         <v>33</v>
       </c>
@@ -23083,7 +23083,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="904" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="904" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A904" t="s">
         <v>33</v>
       </c>
@@ -23106,7 +23106,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="905" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="905" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A905" t="s">
         <v>5</v>
       </c>
@@ -23129,7 +23129,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="906" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="906" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A906" t="s">
         <v>5</v>
       </c>
@@ -23152,7 +23152,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="907" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="907" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A907" t="s">
         <v>5</v>
       </c>
@@ -23175,7 +23175,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="908" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="908" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A908" t="s">
         <v>5</v>
       </c>
@@ -23198,7 +23198,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="909" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="909" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A909" t="s">
         <v>5</v>
       </c>
@@ -23221,7 +23221,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="910" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="910" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A910" t="s">
         <v>5</v>
       </c>
@@ -23244,7 +23244,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="911" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="911" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A911" t="s">
         <v>5</v>
       </c>
@@ -23267,7 +23267,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="912" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="912" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A912" t="s">
         <v>5</v>
       </c>
@@ -23290,7 +23290,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="913" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="913" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A913" t="s">
         <v>5</v>
       </c>
@@ -23313,7 +23313,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="914" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="914" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A914" t="s">
         <v>5</v>
       </c>
@@ -23336,7 +23336,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="915" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="915" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A915" t="s">
         <v>5</v>
       </c>
@@ -23359,7 +23359,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="916" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="916" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A916" t="s">
         <v>5</v>
       </c>
@@ -23382,7 +23382,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="917" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="917" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A917" t="s">
         <v>5</v>
       </c>
@@ -23405,7 +23405,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="918" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="918" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A918" t="s">
         <v>5</v>
       </c>
@@ -23428,7 +23428,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="919" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="919" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A919" t="s">
         <v>5</v>
       </c>
@@ -23451,7 +23451,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="920" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="920" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A920" t="s">
         <v>5</v>
       </c>
@@ -23474,7 +23474,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="921" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="921" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A921" t="s">
         <v>5</v>
       </c>
@@ -23497,7 +23497,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="922" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="922" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A922" t="s">
         <v>5</v>
       </c>
@@ -23520,7 +23520,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="923" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="923" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A923" t="s">
         <v>5</v>
       </c>
@@ -23543,7 +23543,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="924" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="924" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A924" t="s">
         <v>5</v>
       </c>
@@ -23566,7 +23566,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="925" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="925" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A925" t="s">
         <v>5</v>
       </c>
@@ -23589,7 +23589,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="926" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="926" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A926" t="s">
         <v>5</v>
       </c>
@@ -23612,7 +23612,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="927" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="927" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A927" t="s">
         <v>5</v>
       </c>
@@ -23635,7 +23635,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="928" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="928" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A928" t="s">
         <v>5</v>
       </c>
@@ -23659,6 +23659,13 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:G928" xr:uid="{9B41CE94-2BAD-4951-82A5-5BA25EFFE334}">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="Department of Health and Social Care"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="F462:F520">
     <cfRule type="duplicateValues" dxfId="2" priority="3"/>
@@ -23684,6 +23691,9 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId12"/>
+  <headerFooter>
+    <oddHeader>&amp;L&amp;"Calibri"&amp;10&amp;K000000OFFICIAL&amp;1#</oddHeader>
+  </headerFooter>
 </worksheet>
 </file>
 
@@ -23698,15 +23708,15 @@
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="6"/>
       <c r="B1" t="s">
         <v>1023</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="5"/>
       <c r="B2" t="s">
         <v>1024</v>
@@ -23714,6 +23724,10 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;L&amp;"Calibri"&amp;10&amp;K000000OFFICIAL&amp;1#</oddHeader>
+  </headerFooter>
 </worksheet>
 </file>
 
@@ -23728,17 +23742,17 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="11.69921875" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1019</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>102</v>
       </c>
@@ -23758,28 +23772,14 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;L&amp;"Calibri"&amp;10&amp;K000000OFFICIAL&amp;1#</oddHeader>
+  </headerFooter>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100E6713CC7F31D7C498DF06765AF1263E4" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="49295815813be5682bd1502ac40ad112">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns3="9e449739-2858-4f41-8e5c-7dc6df20853e" xmlns:ns4="05c15269-663a-4da2-bb2b-1510839404b9" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="57db594e689bb932d2839527134c19ea" ns1:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -24013,10 +24013,40 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4115639F-0FB6-4C25-A530-2B8A26AA3E24}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E21D5880-A9EF-4322-906E-79CE5A8FFAC1}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="9e449739-2858-4f41-8e5c-7dc6df20853e"/>
+    <ds:schemaRef ds:uri="05c15269-663a-4da2-bb2b-1510839404b9"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -24040,21 +24070,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E21D5880-A9EF-4322-906E-79CE5A8FFAC1}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4115639F-0FB6-4C25-A530-2B8A26AA3E24}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="9e449739-2858-4f41-8e5c-7dc6df20853e"/>
-    <ds:schemaRef ds:uri="05c15269-663a-4da2-bb2b-1510839404b9"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Inputs/UKVN GAMRIF GtR IDs/UKRI non GCRF-Newton projects (with UKVN, GAMRIF).xlsx
+++ b/Inputs/UKVN GAMRIF GtR IDs/UKRI non GCRF-Newton projects (with UKVN, GAMRIF).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://dfid-my.sharepoint.com/personal/e-clegg_dfid_gov_uk/Documents/Github Projects/ODA_research_and_innovation/Inputs/UKVN GAMRIF GtR IDs/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://wellcomecloud-my.sharepoint.com/personal/e_clegg_ukcds_org_uk/Documents/My Documents/GitHub/ODA_research_and_innovation/Inputs/UKVN GAMRIF GtR IDs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="452" documentId="8_{A7CB007D-EB5B-426F-BA87-70F501631DFD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{878AA400-CC27-4FB4-9721-95B7E2B909C0}"/>
+  <xr:revisionPtr revIDLastSave="454" documentId="8_{A7CB007D-EB5B-426F-BA87-70F501631DFD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{C2B1484C-76FC-4440-B0C4-8444415BDD09}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{FF2F4B21-F468-4F3D-9B32-1F43EB9441E3}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{FF2F4B21-F468-4F3D-9B32-1F43EB9441E3}"/>
   </bookViews>
   <sheets>
     <sheet name="UKRI projects (IDs)" sheetId="1" r:id="rId1"/>
@@ -4586,21 +4586,21 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D851" sqref="A1:G928"/>
+      <selection pane="bottomLeft" activeCell="F857" sqref="F857:F875"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="33.5" customWidth="1"/>
-    <col min="2" max="2" width="15.08203125" customWidth="1"/>
+    <col min="2" max="2" width="15.09765625" customWidth="1"/>
     <col min="3" max="3" width="40" customWidth="1"/>
-    <col min="4" max="4" width="21.1640625" customWidth="1"/>
-    <col min="5" max="5" width="16.6640625" customWidth="1"/>
-    <col min="6" max="6" width="20.08203125" customWidth="1"/>
-    <col min="7" max="7" width="73.6640625" customWidth="1"/>
+    <col min="4" max="4" width="21.19921875" customWidth="1"/>
+    <col min="5" max="5" width="16.69921875" customWidth="1"/>
+    <col min="6" max="6" width="20.09765625" customWidth="1"/>
+    <col min="7" max="7" width="73.69921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -4623,7 +4623,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>467</v>
       </c>
@@ -4646,7 +4646,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="3" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>467</v>
       </c>
@@ -4669,7 +4669,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="4" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>467</v>
       </c>
@@ -4692,7 +4692,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="5" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>467</v>
       </c>
@@ -4715,7 +4715,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="6" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>467</v>
       </c>
@@ -4738,7 +4738,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="7" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>467</v>
       </c>
@@ -4761,7 +4761,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="8" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>467</v>
       </c>
@@ -4784,7 +4784,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="9" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>467</v>
       </c>
@@ -4807,7 +4807,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="10" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>467</v>
       </c>
@@ -4830,7 +4830,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="11" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>467</v>
       </c>
@@ -4853,7 +4853,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="12" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>467</v>
       </c>
@@ -4876,7 +4876,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="13" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>467</v>
       </c>
@@ -4899,7 +4899,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="14" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>467</v>
       </c>
@@ -4922,7 +4922,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="15" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>467</v>
       </c>
@@ -4945,7 +4945,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="16" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>467</v>
       </c>
@@ -4968,7 +4968,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="17" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>467</v>
       </c>
@@ -4991,7 +4991,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="18" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>467</v>
       </c>
@@ -5014,7 +5014,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="19" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>467</v>
       </c>
@@ -5037,7 +5037,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="20" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>467</v>
       </c>
@@ -5060,7 +5060,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="21" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>467</v>
       </c>
@@ -5083,7 +5083,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="22" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>467</v>
       </c>
@@ -5106,7 +5106,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="23" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>467</v>
       </c>
@@ -5129,7 +5129,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="24" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>467</v>
       </c>
@@ -5152,7 +5152,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="25" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>467</v>
       </c>
@@ -5175,7 +5175,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="26" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>467</v>
       </c>
@@ -5198,7 +5198,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="27" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>467</v>
       </c>
@@ -5221,7 +5221,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="28" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>467</v>
       </c>
@@ -5244,7 +5244,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="29" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>467</v>
       </c>
@@ -5267,7 +5267,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="30" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>467</v>
       </c>
@@ -5290,7 +5290,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="31" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>467</v>
       </c>
@@ -5313,7 +5313,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="32" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>467</v>
       </c>
@@ -5336,7 +5336,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="33" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>467</v>
       </c>
@@ -5359,7 +5359,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="34" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>467</v>
       </c>
@@ -5382,7 +5382,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="35" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>467</v>
       </c>
@@ -5405,7 +5405,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="36" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>467</v>
       </c>
@@ -5428,7 +5428,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="37" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>467</v>
       </c>
@@ -5451,7 +5451,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="38" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>467</v>
       </c>
@@ -5474,7 +5474,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="39" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>467</v>
       </c>
@@ -5497,7 +5497,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="40" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>467</v>
       </c>
@@ -5520,7 +5520,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="41" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>467</v>
       </c>
@@ -5543,7 +5543,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="42" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>467</v>
       </c>
@@ -5566,7 +5566,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="43" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>467</v>
       </c>
@@ -5589,7 +5589,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="44" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>467</v>
       </c>
@@ -5612,7 +5612,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="45" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>467</v>
       </c>
@@ -5635,7 +5635,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="46" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>467</v>
       </c>
@@ -5658,7 +5658,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="47" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>467</v>
       </c>
@@ -5681,7 +5681,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="48" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>467</v>
       </c>
@@ -5704,7 +5704,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="49" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>467</v>
       </c>
@@ -5727,7 +5727,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="50" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>467</v>
       </c>
@@ -5750,7 +5750,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="51" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>467</v>
       </c>
@@ -5773,7 +5773,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="52" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>467</v>
       </c>
@@ -5796,7 +5796,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="53" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>467</v>
       </c>
@@ -5819,7 +5819,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="54" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>467</v>
       </c>
@@ -5842,7 +5842,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="55" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>467</v>
       </c>
@@ -5865,7 +5865,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="56" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>467</v>
       </c>
@@ -5888,7 +5888,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="57" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>467</v>
       </c>
@@ -5911,7 +5911,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="58" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>467</v>
       </c>
@@ -5934,7 +5934,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="59" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>467</v>
       </c>
@@ -5957,7 +5957,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="60" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>467</v>
       </c>
@@ -5980,7 +5980,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="61" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>467</v>
       </c>
@@ -6003,7 +6003,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="62" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>467</v>
       </c>
@@ -6026,7 +6026,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="63" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>467</v>
       </c>
@@ -6049,7 +6049,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="64" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>467</v>
       </c>
@@ -6072,7 +6072,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="65" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>467</v>
       </c>
@@ -6095,7 +6095,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="66" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>467</v>
       </c>
@@ -6118,7 +6118,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="67" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>467</v>
       </c>
@@ -6141,7 +6141,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="68" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>467</v>
       </c>
@@ -6164,7 +6164,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="69" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>467</v>
       </c>
@@ -6187,7 +6187,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="70" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>467</v>
       </c>
@@ -6210,7 +6210,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="71" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>467</v>
       </c>
@@ -6233,7 +6233,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="72" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>467</v>
       </c>
@@ -6256,7 +6256,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="73" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>467</v>
       </c>
@@ -6279,7 +6279,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="74" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>467</v>
       </c>
@@ -6302,7 +6302,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="75" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>467</v>
       </c>
@@ -6325,7 +6325,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="76" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>467</v>
       </c>
@@ -6348,7 +6348,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="77" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>467</v>
       </c>
@@ -6371,7 +6371,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="78" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>467</v>
       </c>
@@ -6394,7 +6394,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="79" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>467</v>
       </c>
@@ -6417,7 +6417,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="80" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>467</v>
       </c>
@@ -6440,7 +6440,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="81" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>467</v>
       </c>
@@ -6463,7 +6463,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="82" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>467</v>
       </c>
@@ -6486,7 +6486,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="83" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>467</v>
       </c>
@@ -6509,7 +6509,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="84" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>467</v>
       </c>
@@ -6532,7 +6532,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="85" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>467</v>
       </c>
@@ -6555,7 +6555,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="86" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>467</v>
       </c>
@@ -6578,7 +6578,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="87" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>467</v>
       </c>
@@ -6601,7 +6601,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="88" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>467</v>
       </c>
@@ -6624,7 +6624,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="89" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>467</v>
       </c>
@@ -6647,7 +6647,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="90" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>467</v>
       </c>
@@ -6670,7 +6670,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="91" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>467</v>
       </c>
@@ -6693,7 +6693,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="92" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>467</v>
       </c>
@@ -6716,7 +6716,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="93" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>467</v>
       </c>
@@ -6739,7 +6739,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="94" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>467</v>
       </c>
@@ -6762,7 +6762,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="95" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>467</v>
       </c>
@@ -6785,7 +6785,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="96" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>467</v>
       </c>
@@ -6808,7 +6808,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="97" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>467</v>
       </c>
@@ -6831,7 +6831,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="98" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>467</v>
       </c>
@@ -6854,7 +6854,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="99" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>467</v>
       </c>
@@ -6877,7 +6877,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="100" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>467</v>
       </c>
@@ -6900,7 +6900,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="101" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>467</v>
       </c>
@@ -6923,7 +6923,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="102" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>467</v>
       </c>
@@ -6946,7 +6946,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="103" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>467</v>
       </c>
@@ -6969,7 +6969,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="104" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>467</v>
       </c>
@@ -6992,7 +6992,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="105" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>467</v>
       </c>
@@ -7015,7 +7015,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="106" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>467</v>
       </c>
@@ -7038,7 +7038,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="107" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>467</v>
       </c>
@@ -7061,7 +7061,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="108" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>467</v>
       </c>
@@ -7084,7 +7084,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="109" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>467</v>
       </c>
@@ -7107,7 +7107,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="110" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>467</v>
       </c>
@@ -7130,7 +7130,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="111" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>467</v>
       </c>
@@ -7153,7 +7153,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="112" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>467</v>
       </c>
@@ -7176,7 +7176,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="113" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>467</v>
       </c>
@@ -7199,7 +7199,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="114" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>467</v>
       </c>
@@ -7222,7 +7222,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="115" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>467</v>
       </c>
@@ -7245,7 +7245,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="116" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>467</v>
       </c>
@@ -7268,7 +7268,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="117" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>467</v>
       </c>
@@ -7291,7 +7291,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="118" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>467</v>
       </c>
@@ -7314,7 +7314,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="119" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>467</v>
       </c>
@@ -7337,7 +7337,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="120" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>467</v>
       </c>
@@ -7360,7 +7360,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="121" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>467</v>
       </c>
@@ -7383,7 +7383,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="122" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>467</v>
       </c>
@@ -7406,7 +7406,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="123" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>467</v>
       </c>
@@ -7429,7 +7429,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="124" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>467</v>
       </c>
@@ -7452,7 +7452,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="125" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>467</v>
       </c>
@@ -7475,7 +7475,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="126" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>467</v>
       </c>
@@ -7498,7 +7498,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="127" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>467</v>
       </c>
@@ -7521,7 +7521,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="128" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>467</v>
       </c>
@@ -7544,7 +7544,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="129" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>467</v>
       </c>
@@ -7567,7 +7567,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="130" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>467</v>
       </c>
@@ -7590,7 +7590,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="131" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>467</v>
       </c>
@@ -7613,7 +7613,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="132" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>467</v>
       </c>
@@ -7636,7 +7636,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="133" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>467</v>
       </c>
@@ -7659,7 +7659,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="134" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>467</v>
       </c>
@@ -7682,7 +7682,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="135" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>467</v>
       </c>
@@ -7705,7 +7705,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="136" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>467</v>
       </c>
@@ -7728,7 +7728,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="137" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>467</v>
       </c>
@@ -7751,7 +7751,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="138" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>467</v>
       </c>
@@ -7774,7 +7774,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="139" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>467</v>
       </c>
@@ -7797,7 +7797,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="140" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>1036</v>
       </c>
@@ -7817,7 +7817,7 @@
         <v>1043</v>
       </c>
     </row>
-    <row r="141" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>1036</v>
       </c>
@@ -7837,7 +7837,7 @@
         <v>1043</v>
       </c>
     </row>
-    <row r="142" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>1036</v>
       </c>
@@ -7857,7 +7857,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="143" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>1036</v>
       </c>
@@ -7877,7 +7877,7 @@
         <v>1055</v>
       </c>
     </row>
-    <row r="144" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>1036</v>
       </c>
@@ -7897,7 +7897,7 @@
         <v>1073</v>
       </c>
     </row>
-    <row r="145" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>1036</v>
       </c>
@@ -7917,7 +7917,7 @@
         <v>1073</v>
       </c>
     </row>
-    <row r="146" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>1036</v>
       </c>
@@ -7937,7 +7937,7 @@
         <v>1043</v>
       </c>
     </row>
-    <row r="147" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>1036</v>
       </c>
@@ -7957,7 +7957,7 @@
         <v>1055</v>
       </c>
     </row>
-    <row r="148" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>1036</v>
       </c>
@@ -7977,7 +7977,7 @@
         <v>1073</v>
       </c>
     </row>
-    <row r="149" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>1036</v>
       </c>
@@ -7997,7 +7997,7 @@
         <v>1062</v>
       </c>
     </row>
-    <row r="150" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>1036</v>
       </c>
@@ -8017,7 +8017,7 @@
         <v>1073</v>
       </c>
     </row>
-    <row r="151" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>1036</v>
       </c>
@@ -8037,7 +8037,7 @@
         <v>1060</v>
       </c>
     </row>
-    <row r="152" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>1036</v>
       </c>
@@ -8057,7 +8057,7 @@
         <v>1051</v>
       </c>
     </row>
-    <row r="153" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>1036</v>
       </c>
@@ -8077,7 +8077,7 @@
         <v>1049</v>
       </c>
     </row>
-    <row r="154" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>1036</v>
       </c>
@@ -8097,7 +8097,7 @@
         <v>1071</v>
       </c>
     </row>
-    <row r="155" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>1036</v>
       </c>
@@ -8117,7 +8117,7 @@
         <v>1058</v>
       </c>
     </row>
-    <row r="156" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>1036</v>
       </c>
@@ -8137,7 +8137,7 @@
         <v>1080</v>
       </c>
     </row>
-    <row r="157" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>1036</v>
       </c>
@@ -8157,7 +8157,7 @@
         <v>1053</v>
       </c>
     </row>
-    <row r="158" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>1036</v>
       </c>
@@ -8177,7 +8177,7 @@
         <v>1041</v>
       </c>
     </row>
-    <row r="159" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>1036</v>
       </c>
@@ -8197,7 +8197,7 @@
         <v>1039</v>
       </c>
     </row>
-    <row r="160" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>1036</v>
       </c>
@@ -8217,7 +8217,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="161" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>1036</v>
       </c>
@@ -8237,7 +8237,7 @@
         <v>1078</v>
       </c>
     </row>
-    <row r="162" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>1036</v>
       </c>
@@ -8257,7 +8257,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="163" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>1036</v>
       </c>
@@ -8277,7 +8277,7 @@
         <v>1066</v>
       </c>
     </row>
-    <row r="164" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>1036</v>
       </c>
@@ -8297,7 +8297,7 @@
         <v>1066</v>
       </c>
     </row>
-    <row r="165" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>931</v>
       </c>
@@ -8320,7 +8320,7 @@
         <v>933</v>
       </c>
     </row>
-    <row r="166" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>931</v>
       </c>
@@ -8343,7 +8343,7 @@
         <v>935</v>
       </c>
     </row>
-    <row r="167" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>931</v>
       </c>
@@ -8366,7 +8366,7 @@
         <v>937</v>
       </c>
     </row>
-    <row r="168" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>931</v>
       </c>
@@ -8389,7 +8389,7 @@
         <v>939</v>
       </c>
     </row>
-    <row r="169" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>931</v>
       </c>
@@ -8412,7 +8412,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="170" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>931</v>
       </c>
@@ -8435,7 +8435,7 @@
         <v>943</v>
       </c>
     </row>
-    <row r="171" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>931</v>
       </c>
@@ -8458,7 +8458,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="172" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>931</v>
       </c>
@@ -8481,7 +8481,7 @@
         <v>947</v>
       </c>
     </row>
-    <row r="173" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>931</v>
       </c>
@@ -8504,7 +8504,7 @@
         <v>949</v>
       </c>
     </row>
-    <row r="174" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>931</v>
       </c>
@@ -8527,7 +8527,7 @@
         <v>951</v>
       </c>
     </row>
-    <row r="175" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>931</v>
       </c>
@@ -8550,7 +8550,7 @@
         <v>953</v>
       </c>
     </row>
-    <row r="176" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>931</v>
       </c>
@@ -8573,7 +8573,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="177" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>931</v>
       </c>
@@ -8596,7 +8596,7 @@
         <v>957</v>
       </c>
     </row>
-    <row r="178" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>931</v>
       </c>
@@ -8619,7 +8619,7 @@
         <v>959</v>
       </c>
     </row>
-    <row r="179" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>931</v>
       </c>
@@ -8642,7 +8642,7 @@
         <v>961</v>
       </c>
     </row>
-    <row r="180" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>931</v>
       </c>
@@ -8665,7 +8665,7 @@
         <v>963</v>
       </c>
     </row>
-    <row r="181" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>931</v>
       </c>
@@ -8688,7 +8688,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="182" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>931</v>
       </c>
@@ -8711,7 +8711,7 @@
         <v>967</v>
       </c>
     </row>
-    <row r="183" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>931</v>
       </c>
@@ -8734,7 +8734,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="184" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>931</v>
       </c>
@@ -8757,7 +8757,7 @@
         <v>971</v>
       </c>
     </row>
-    <row r="185" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>931</v>
       </c>
@@ -8780,7 +8780,7 @@
         <v>973</v>
       </c>
     </row>
-    <row r="186" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>931</v>
       </c>
@@ -8803,7 +8803,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="187" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>931</v>
       </c>
@@ -8826,7 +8826,7 @@
         <v>977</v>
       </c>
     </row>
-    <row r="188" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>931</v>
       </c>
@@ -8849,7 +8849,7 @@
         <v>979</v>
       </c>
     </row>
-    <row r="189" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>931</v>
       </c>
@@ -8872,7 +8872,7 @@
         <v>981</v>
       </c>
     </row>
-    <row r="190" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>931</v>
       </c>
@@ -8895,7 +8895,7 @@
         <v>983</v>
       </c>
     </row>
-    <row r="191" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>931</v>
       </c>
@@ -8918,7 +8918,7 @@
         <v>985</v>
       </c>
     </row>
-    <row r="192" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>931</v>
       </c>
@@ -8941,7 +8941,7 @@
         <v>987</v>
       </c>
     </row>
-    <row r="193" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>931</v>
       </c>
@@ -8964,7 +8964,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="194" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>931</v>
       </c>
@@ -8987,7 +8987,7 @@
         <v>991</v>
       </c>
     </row>
-    <row r="195" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>931</v>
       </c>
@@ -9010,7 +9010,7 @@
         <v>993</v>
       </c>
     </row>
-    <row r="196" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>931</v>
       </c>
@@ -9033,7 +9033,7 @@
         <v>995</v>
       </c>
     </row>
-    <row r="197" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>931</v>
       </c>
@@ -9056,7 +9056,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="198" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>931</v>
       </c>
@@ -9079,7 +9079,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="199" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>931</v>
       </c>
@@ -9102,7 +9102,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="200" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>931</v>
       </c>
@@ -9125,7 +9125,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="201" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>931</v>
       </c>
@@ -9148,7 +9148,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="202" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>931</v>
       </c>
@@ -9171,7 +9171,7 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="203" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>931</v>
       </c>
@@ -9194,7 +9194,7 @@
         <v>1012</v>
       </c>
     </row>
-    <row r="204" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>931</v>
       </c>
@@ -9217,7 +9217,7 @@
         <v>1014</v>
       </c>
     </row>
-    <row r="205" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>931</v>
       </c>
@@ -9240,7 +9240,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="206" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>931</v>
       </c>
@@ -9263,7 +9263,7 @@
         <v>1018</v>
       </c>
     </row>
-    <row r="207" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>931</v>
       </c>
@@ -9286,7 +9286,7 @@
         <v>1007</v>
       </c>
     </row>
-    <row r="208" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>133</v>
       </c>
@@ -9306,7 +9306,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="209" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>133</v>
       </c>
@@ -9326,7 +9326,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="210" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>133</v>
       </c>
@@ -9346,7 +9346,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="211" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>133</v>
       </c>
@@ -9366,7 +9366,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="212" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>133</v>
       </c>
@@ -9386,7 +9386,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="213" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>133</v>
       </c>
@@ -9406,7 +9406,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="214" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>133</v>
       </c>
@@ -9426,7 +9426,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="215" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>133</v>
       </c>
@@ -9446,7 +9446,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="216" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>133</v>
       </c>
@@ -9466,7 +9466,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="217" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>133</v>
       </c>
@@ -9486,7 +9486,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="218" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>133</v>
       </c>
@@ -9506,7 +9506,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="219" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>133</v>
       </c>
@@ -9526,7 +9526,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="220" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>133</v>
       </c>
@@ -9546,7 +9546,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="221" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>133</v>
       </c>
@@ -9566,7 +9566,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="222" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>133</v>
       </c>
@@ -9586,7 +9586,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="223" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>133</v>
       </c>
@@ -9606,7 +9606,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="224" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>133</v>
       </c>
@@ -9626,7 +9626,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="225" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>1081</v>
       </c>
@@ -9646,7 +9646,7 @@
         <v>1111</v>
       </c>
     </row>
-    <row r="226" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>1081</v>
       </c>
@@ -9666,7 +9666,7 @@
         <v>1115</v>
       </c>
     </row>
-    <row r="227" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>1081</v>
       </c>
@@ -9686,7 +9686,7 @@
         <v>1117</v>
       </c>
     </row>
-    <row r="228" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>1081</v>
       </c>
@@ -9706,7 +9706,7 @@
         <v>1113</v>
       </c>
     </row>
-    <row r="229" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>1081</v>
       </c>
@@ -9726,7 +9726,7 @@
         <v>1083</v>
       </c>
     </row>
-    <row r="230" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>1081</v>
       </c>
@@ -9746,7 +9746,7 @@
         <v>1095</v>
       </c>
     </row>
-    <row r="231" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>1081</v>
       </c>
@@ -9766,7 +9766,7 @@
         <v>1085</v>
       </c>
     </row>
-    <row r="232" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>1081</v>
       </c>
@@ -9786,7 +9786,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="233" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>1081</v>
       </c>
@@ -9806,7 +9806,7 @@
         <v>1089</v>
       </c>
     </row>
-    <row r="234" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>1081</v>
       </c>
@@ -9826,7 +9826,7 @@
         <v>1091</v>
       </c>
     </row>
-    <row r="235" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>1081</v>
       </c>
@@ -9846,7 +9846,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="236" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>1081</v>
       </c>
@@ -9866,7 +9866,7 @@
         <v>1097</v>
       </c>
     </row>
-    <row r="237" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>1081</v>
       </c>
@@ -9886,7 +9886,7 @@
         <v>1109</v>
       </c>
     </row>
-    <row r="238" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>1081</v>
       </c>
@@ -9906,7 +9906,7 @@
         <v>1103</v>
       </c>
     </row>
-    <row r="239" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>1081</v>
       </c>
@@ -9926,7 +9926,7 @@
         <v>1105</v>
       </c>
     </row>
-    <row r="240" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>1081</v>
       </c>
@@ -9946,7 +9946,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="241" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>1081</v>
       </c>
@@ -9966,7 +9966,7 @@
         <v>1099</v>
       </c>
     </row>
-    <row r="242" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>1081</v>
       </c>
@@ -9986,7 +9986,7 @@
         <v>1101</v>
       </c>
     </row>
-    <row r="243" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>169</v>
       </c>
@@ -10006,7 +10006,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="244" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>169</v>
       </c>
@@ -10026,7 +10026,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="245" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>169</v>
       </c>
@@ -10046,7 +10046,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="246" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>169</v>
       </c>
@@ -10066,7 +10066,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="247" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>169</v>
       </c>
@@ -10086,7 +10086,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="248" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>169</v>
       </c>
@@ -10106,7 +10106,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="249" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>169</v>
       </c>
@@ -10126,7 +10126,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="250" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>169</v>
       </c>
@@ -10146,7 +10146,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="251" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>169</v>
       </c>
@@ -10166,7 +10166,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="252" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>169</v>
       </c>
@@ -10186,7 +10186,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="253" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>169</v>
       </c>
@@ -10206,7 +10206,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="254" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>169</v>
       </c>
@@ -10226,7 +10226,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="255" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>169</v>
       </c>
@@ -10246,7 +10246,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="256" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>169</v>
       </c>
@@ -10266,7 +10266,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="257" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>169</v>
       </c>
@@ -10286,7 +10286,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="258" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>169</v>
       </c>
@@ -10306,7 +10306,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="259" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>169</v>
       </c>
@@ -10326,7 +10326,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="260" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>169</v>
       </c>
@@ -10346,7 +10346,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="261" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>169</v>
       </c>
@@ -10366,7 +10366,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="262" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>169</v>
       </c>
@@ -10386,7 +10386,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="263" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>169</v>
       </c>
@@ -10406,7 +10406,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="264" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>169</v>
       </c>
@@ -10426,7 +10426,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="265" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>169</v>
       </c>
@@ -10446,7 +10446,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="266" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>169</v>
       </c>
@@ -10466,7 +10466,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="267" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>169</v>
       </c>
@@ -10486,7 +10486,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="268" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>169</v>
       </c>
@@ -10506,7 +10506,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="269" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>169</v>
       </c>
@@ -10526,7 +10526,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="270" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>169</v>
       </c>
@@ -10546,7 +10546,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="271" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>169</v>
       </c>
@@ -10566,7 +10566,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="272" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>169</v>
       </c>
@@ -10586,7 +10586,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="273" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>169</v>
       </c>
@@ -10606,7 +10606,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="274" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>169</v>
       </c>
@@ -10626,7 +10626,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="275" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>169</v>
       </c>
@@ -10646,7 +10646,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="276" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>169</v>
       </c>
@@ -10666,7 +10666,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="277" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>169</v>
       </c>
@@ -10686,7 +10686,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="278" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>169</v>
       </c>
@@ -10706,7 +10706,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="279" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>169</v>
       </c>
@@ -10726,7 +10726,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="280" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>169</v>
       </c>
@@ -10746,7 +10746,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="281" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>169</v>
       </c>
@@ -10766,7 +10766,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="282" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>169</v>
       </c>
@@ -10786,7 +10786,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="283" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>169</v>
       </c>
@@ -10806,7 +10806,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="284" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>169</v>
       </c>
@@ -10826,7 +10826,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="285" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>169</v>
       </c>
@@ -10846,7 +10846,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="286" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>169</v>
       </c>
@@ -10866,7 +10866,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="287" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>169</v>
       </c>
@@ -10886,7 +10886,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="288" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>169</v>
       </c>
@@ -10906,7 +10906,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="289" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>169</v>
       </c>
@@ -10926,7 +10926,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="290" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>169</v>
       </c>
@@ -10946,7 +10946,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="291" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>169</v>
       </c>
@@ -10966,7 +10966,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="292" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>169</v>
       </c>
@@ -10986,7 +10986,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="293" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>169</v>
       </c>
@@ -11006,7 +11006,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="294" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>169</v>
       </c>
@@ -11026,7 +11026,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="295" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>169</v>
       </c>
@@ -11046,7 +11046,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="296" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>169</v>
       </c>
@@ -11066,7 +11066,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="297" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>169</v>
       </c>
@@ -11086,7 +11086,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="298" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>169</v>
       </c>
@@ -11106,7 +11106,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="299" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>169</v>
       </c>
@@ -11126,7 +11126,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="300" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>169</v>
       </c>
@@ -11146,7 +11146,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="301" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
         <v>169</v>
       </c>
@@ -11166,7 +11166,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="302" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
         <v>169</v>
       </c>
@@ -11186,7 +11186,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="303" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
         <v>169</v>
       </c>
@@ -11206,7 +11206,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="304" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
         <v>169</v>
       </c>
@@ -11226,7 +11226,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="305" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
         <v>169</v>
       </c>
@@ -11246,7 +11246,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="306" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
         <v>169</v>
       </c>
@@ -11266,7 +11266,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="307" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
         <v>169</v>
       </c>
@@ -11286,7 +11286,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="308" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
         <v>169</v>
       </c>
@@ -11306,7 +11306,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="309" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
         <v>169</v>
       </c>
@@ -11326,7 +11326,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="310" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
         <v>169</v>
       </c>
@@ -11346,7 +11346,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="311" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
         <v>169</v>
       </c>
@@ -11366,7 +11366,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="312" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
         <v>169</v>
       </c>
@@ -11386,7 +11386,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="313" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
         <v>169</v>
       </c>
@@ -11406,7 +11406,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="314" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
         <v>169</v>
       </c>
@@ -11426,7 +11426,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="315" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
         <v>117</v>
       </c>
@@ -11446,7 +11446,7 @@
         <v>891</v>
       </c>
     </row>
-    <row r="316" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
         <v>117</v>
       </c>
@@ -11466,7 +11466,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="317" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
         <v>117</v>
       </c>
@@ -11486,7 +11486,7 @@
         <v>923</v>
       </c>
     </row>
-    <row r="318" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
         <v>117</v>
       </c>
@@ -11506,7 +11506,7 @@
         <v>880</v>
       </c>
     </row>
-    <row r="319" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
         <v>117</v>
       </c>
@@ -11526,7 +11526,7 @@
         <v>902</v>
       </c>
     </row>
-    <row r="320" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
         <v>117</v>
       </c>
@@ -11546,7 +11546,7 @@
         <v>916</v>
       </c>
     </row>
-    <row r="321" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
         <v>117</v>
       </c>
@@ -11566,7 +11566,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="322" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
         <v>117</v>
       </c>
@@ -11586,7 +11586,7 @@
         <v>912</v>
       </c>
     </row>
-    <row r="323" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
         <v>117</v>
       </c>
@@ -11606,7 +11606,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="324" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
         <v>117</v>
       </c>
@@ -11626,7 +11626,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="325" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
         <v>117</v>
       </c>
@@ -11646,7 +11646,7 @@
         <v>897</v>
       </c>
     </row>
-    <row r="326" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
         <v>117</v>
       </c>
@@ -11666,7 +11666,7 @@
         <v>896</v>
       </c>
     </row>
-    <row r="327" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
         <v>117</v>
       </c>
@@ -11686,7 +11686,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="328" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
         <v>117</v>
       </c>
@@ -11706,7 +11706,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="329" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
         <v>117</v>
       </c>
@@ -11726,7 +11726,7 @@
         <v>888</v>
       </c>
     </row>
-    <row r="330" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
         <v>117</v>
       </c>
@@ -11746,7 +11746,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="331" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
         <v>117</v>
       </c>
@@ -11766,7 +11766,7 @@
         <v>903</v>
       </c>
     </row>
-    <row r="332" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
         <v>117</v>
       </c>
@@ -11786,7 +11786,7 @@
         <v>874</v>
       </c>
     </row>
-    <row r="333" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
         <v>117</v>
       </c>
@@ -11806,7 +11806,7 @@
         <v>899</v>
       </c>
     </row>
-    <row r="334" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
         <v>117</v>
       </c>
@@ -11826,7 +11826,7 @@
         <v>927</v>
       </c>
     </row>
-    <row r="335" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
         <v>117</v>
       </c>
@@ -11846,7 +11846,7 @@
         <v>893</v>
       </c>
     </row>
-    <row r="336" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
         <v>117</v>
       </c>
@@ -11866,7 +11866,7 @@
         <v>876</v>
       </c>
     </row>
-    <row r="337" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
         <v>117</v>
       </c>
@@ -11886,7 +11886,7 @@
         <v>885</v>
       </c>
     </row>
-    <row r="338" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
         <v>117</v>
       </c>
@@ -11906,7 +11906,7 @@
         <v>883</v>
       </c>
     </row>
-    <row r="339" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
         <v>117</v>
       </c>
@@ -11926,7 +11926,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="340" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
         <v>117</v>
       </c>
@@ -11946,7 +11946,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="341" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
         <v>117</v>
       </c>
@@ -11966,7 +11966,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="342" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
         <v>117</v>
       </c>
@@ -11986,7 +11986,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="343" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
         <v>117</v>
       </c>
@@ -12006,7 +12006,7 @@
         <v>922</v>
       </c>
     </row>
-    <row r="344" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
         <v>117</v>
       </c>
@@ -12026,7 +12026,7 @@
         <v>889</v>
       </c>
     </row>
-    <row r="345" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
         <v>117</v>
       </c>
@@ -12046,7 +12046,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="346" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
         <v>117</v>
       </c>
@@ -12066,7 +12066,7 @@
         <v>926</v>
       </c>
     </row>
-    <row r="347" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
         <v>117</v>
       </c>
@@ -12086,7 +12086,7 @@
         <v>925</v>
       </c>
     </row>
-    <row r="348" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
         <v>117</v>
       </c>
@@ -12106,7 +12106,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="349" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
         <v>117</v>
       </c>
@@ -12126,7 +12126,7 @@
         <v>917</v>
       </c>
     </row>
-    <row r="350" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
         <v>117</v>
       </c>
@@ -12146,7 +12146,7 @@
         <v>895</v>
       </c>
     </row>
-    <row r="351" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
         <v>117</v>
       </c>
@@ -12166,7 +12166,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="352" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A352" s="4" t="s">
         <v>117</v>
       </c>
@@ -12183,7 +12183,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="353" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
         <v>117</v>
       </c>
@@ -12203,7 +12203,7 @@
         <v>901</v>
       </c>
     </row>
-    <row r="354" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
         <v>117</v>
       </c>
@@ -12223,7 +12223,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="355" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
         <v>117</v>
       </c>
@@ -12243,7 +12243,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="356" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
         <v>117</v>
       </c>
@@ -12263,7 +12263,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="357" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
         <v>117</v>
       </c>
@@ -12283,7 +12283,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="358" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
         <v>117</v>
       </c>
@@ -12303,7 +12303,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="359" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
         <v>117</v>
       </c>
@@ -12323,7 +12323,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="360" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
         <v>117</v>
       </c>
@@ -12343,7 +12343,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="361" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
         <v>117</v>
       </c>
@@ -12363,7 +12363,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="362" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
         <v>117</v>
       </c>
@@ -12383,7 +12383,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="363" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
         <v>117</v>
       </c>
@@ -12403,7 +12403,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="364" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
         <v>117</v>
       </c>
@@ -12423,7 +12423,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="365" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
         <v>117</v>
       </c>
@@ -12443,7 +12443,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="366" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
         <v>117</v>
       </c>
@@ -12463,7 +12463,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="367" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
         <v>117</v>
       </c>
@@ -12483,7 +12483,7 @@
         <v>915</v>
       </c>
     </row>
-    <row r="368" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
         <v>117</v>
       </c>
@@ -12503,7 +12503,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="369" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
         <v>117</v>
       </c>
@@ -12523,7 +12523,7 @@
         <v>881</v>
       </c>
     </row>
-    <row r="370" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
         <v>117</v>
       </c>
@@ -12543,7 +12543,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="371" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
         <v>117</v>
       </c>
@@ -12563,7 +12563,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="372" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
         <v>117</v>
       </c>
@@ -12583,7 +12583,7 @@
         <v>871</v>
       </c>
     </row>
-    <row r="373" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
         <v>117</v>
       </c>
@@ -12603,7 +12603,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="374" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
         <v>117</v>
       </c>
@@ -12623,7 +12623,7 @@
         <v>919</v>
       </c>
     </row>
-    <row r="375" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
         <v>117</v>
       </c>
@@ -12643,7 +12643,7 @@
         <v>918</v>
       </c>
     </row>
-    <row r="376" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
         <v>117</v>
       </c>
@@ -12663,7 +12663,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="377" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
         <v>117</v>
       </c>
@@ -12683,7 +12683,7 @@
         <v>920</v>
       </c>
     </row>
-    <row r="378" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
         <v>117</v>
       </c>
@@ -12703,7 +12703,7 @@
         <v>898</v>
       </c>
     </row>
-    <row r="379" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
         <v>117</v>
       </c>
@@ -12723,7 +12723,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="380" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
         <v>117</v>
       </c>
@@ -12743,7 +12743,7 @@
         <v>882</v>
       </c>
     </row>
-    <row r="381" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
         <v>117</v>
       </c>
@@ -12763,7 +12763,7 @@
         <v>887</v>
       </c>
     </row>
-    <row r="382" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
         <v>117</v>
       </c>
@@ -12783,7 +12783,7 @@
         <v>930</v>
       </c>
     </row>
-    <row r="383" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
         <v>117</v>
       </c>
@@ -12803,7 +12803,7 @@
         <v>914</v>
       </c>
     </row>
-    <row r="384" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
         <v>117</v>
       </c>
@@ -12823,7 +12823,7 @@
         <v>879</v>
       </c>
     </row>
-    <row r="385" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
         <v>117</v>
       </c>
@@ -12843,7 +12843,7 @@
         <v>884</v>
       </c>
     </row>
-    <row r="386" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
         <v>117</v>
       </c>
@@ -12863,7 +12863,7 @@
         <v>928</v>
       </c>
     </row>
-    <row r="387" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
         <v>117</v>
       </c>
@@ -12883,7 +12883,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="388" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
         <v>117</v>
       </c>
@@ -12903,7 +12903,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="389" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
         <v>117</v>
       </c>
@@ -12923,7 +12923,7 @@
         <v>913</v>
       </c>
     </row>
-    <row r="390" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
         <v>117</v>
       </c>
@@ -12943,7 +12943,7 @@
         <v>924</v>
       </c>
     </row>
-    <row r="391" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
         <v>1118</v>
       </c>
@@ -12960,7 +12960,7 @@
         <v>1119</v>
       </c>
     </row>
-    <row r="392" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
         <v>1118</v>
       </c>
@@ -12977,7 +12977,7 @@
         <v>1120</v>
       </c>
     </row>
-    <row r="393" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
         <v>1118</v>
       </c>
@@ -12994,7 +12994,7 @@
         <v>1121</v>
       </c>
     </row>
-    <row r="394" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
         <v>1118</v>
       </c>
@@ -13011,7 +13011,7 @@
         <v>1122</v>
       </c>
     </row>
-    <row r="395" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
         <v>1118</v>
       </c>
@@ -13028,7 +13028,7 @@
         <v>1123</v>
       </c>
     </row>
-    <row r="396" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
         <v>1118</v>
       </c>
@@ -13045,7 +13045,7 @@
         <v>1124</v>
       </c>
     </row>
-    <row r="397" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
         <v>1118</v>
       </c>
@@ -13062,7 +13062,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="398" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
         <v>1118</v>
       </c>
@@ -13079,7 +13079,7 @@
         <v>1126</v>
       </c>
     </row>
-    <row r="399" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
         <v>1118</v>
       </c>
@@ -13096,7 +13096,7 @@
         <v>1127</v>
       </c>
     </row>
-    <row r="400" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
         <v>1118</v>
       </c>
@@ -13113,7 +13113,7 @@
         <v>1128</v>
       </c>
     </row>
-    <row r="401" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
         <v>1118</v>
       </c>
@@ -13130,7 +13130,7 @@
         <v>1129</v>
       </c>
     </row>
-    <row r="402" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
         <v>1118</v>
       </c>
@@ -13147,7 +13147,7 @@
         <v>1130</v>
       </c>
     </row>
-    <row r="403" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
         <v>1118</v>
       </c>
@@ -13164,7 +13164,7 @@
         <v>1131</v>
       </c>
     </row>
-    <row r="404" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
         <v>1118</v>
       </c>
@@ -13181,7 +13181,7 @@
         <v>1132</v>
       </c>
     </row>
-    <row r="405" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
         <v>1118</v>
       </c>
@@ -13198,7 +13198,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="406" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
         <v>1118</v>
       </c>
@@ -13215,7 +13215,7 @@
         <v>1134</v>
       </c>
     </row>
-    <row r="407" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
         <v>1118</v>
       </c>
@@ -13232,7 +13232,7 @@
         <v>1135</v>
       </c>
     </row>
-    <row r="408" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
         <v>1118</v>
       </c>
@@ -13249,7 +13249,7 @@
         <v>1136</v>
       </c>
     </row>
-    <row r="409" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A409" t="s">
         <v>1118</v>
       </c>
@@ -13266,7 +13266,7 @@
         <v>1137</v>
       </c>
     </row>
-    <row r="410" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A410" t="s">
         <v>1118</v>
       </c>
@@ -13283,7 +13283,7 @@
         <v>1138</v>
       </c>
     </row>
-    <row r="411" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A411" t="s">
         <v>1118</v>
       </c>
@@ -13300,7 +13300,7 @@
         <v>1139</v>
       </c>
     </row>
-    <row r="412" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A412" t="s">
         <v>1118</v>
       </c>
@@ -13317,7 +13317,7 @@
         <v>1140</v>
       </c>
     </row>
-    <row r="413" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A413" t="s">
         <v>1118</v>
       </c>
@@ -13334,7 +13334,7 @@
         <v>1141</v>
       </c>
     </row>
-    <row r="414" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A414" t="s">
         <v>1118</v>
       </c>
@@ -13351,7 +13351,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="415" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A415" t="s">
         <v>1118</v>
       </c>
@@ -13368,7 +13368,7 @@
         <v>1143</v>
       </c>
     </row>
-    <row r="416" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A416" t="s">
         <v>1118</v>
       </c>
@@ -13385,7 +13385,7 @@
         <v>1144</v>
       </c>
     </row>
-    <row r="417" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A417" t="s">
         <v>1118</v>
       </c>
@@ -13402,7 +13402,7 @@
         <v>1145</v>
       </c>
     </row>
-    <row r="418" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A418" t="s">
         <v>1118</v>
       </c>
@@ -13419,7 +13419,7 @@
         <v>1146</v>
       </c>
     </row>
-    <row r="419" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A419" t="s">
         <v>1118</v>
       </c>
@@ -13436,7 +13436,7 @@
         <v>1147</v>
       </c>
     </row>
-    <row r="420" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A420" t="s">
         <v>1118</v>
       </c>
@@ -13453,7 +13453,7 @@
         <v>1148</v>
       </c>
     </row>
-    <row r="421" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A421" t="s">
         <v>1118</v>
       </c>
@@ -13470,7 +13470,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="422" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A422" t="s">
         <v>1118</v>
       </c>
@@ -13487,7 +13487,7 @@
         <v>1150</v>
       </c>
     </row>
-    <row r="423" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A423" t="s">
         <v>1118</v>
       </c>
@@ -13504,7 +13504,7 @@
         <v>1151</v>
       </c>
     </row>
-    <row r="424" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A424" t="s">
         <v>1118</v>
       </c>
@@ -13521,7 +13521,7 @@
         <v>1152</v>
       </c>
     </row>
-    <row r="425" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A425" t="s">
         <v>1118</v>
       </c>
@@ -13538,7 +13538,7 @@
         <v>1153</v>
       </c>
     </row>
-    <row r="426" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A426" t="s">
         <v>1118</v>
       </c>
@@ -13555,7 +13555,7 @@
         <v>1154</v>
       </c>
     </row>
-    <row r="427" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A427" t="s">
         <v>1118</v>
       </c>
@@ -13572,7 +13572,7 @@
         <v>1155</v>
       </c>
     </row>
-    <row r="428" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A428" t="s">
         <v>1118</v>
       </c>
@@ -13589,7 +13589,7 @@
         <v>1156</v>
       </c>
     </row>
-    <row r="429" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A429" t="s">
         <v>1118</v>
       </c>
@@ -13606,7 +13606,7 @@
         <v>1157</v>
       </c>
     </row>
-    <row r="430" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A430" t="s">
         <v>1118</v>
       </c>
@@ -13623,7 +13623,7 @@
         <v>1158</v>
       </c>
     </row>
-    <row r="431" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A431" t="s">
         <v>1118</v>
       </c>
@@ -13640,7 +13640,7 @@
         <v>1159</v>
       </c>
     </row>
-    <row r="432" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A432" t="s">
         <v>1118</v>
       </c>
@@ -13657,7 +13657,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="433" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A433" t="s">
         <v>1118</v>
       </c>
@@ -13674,7 +13674,7 @@
         <v>1161</v>
       </c>
     </row>
-    <row r="434" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A434" t="s">
         <v>1118</v>
       </c>
@@ -13691,7 +13691,7 @@
         <v>1162</v>
       </c>
     </row>
-    <row r="435" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A435" t="s">
         <v>1118</v>
       </c>
@@ -13708,7 +13708,7 @@
         <v>1163</v>
       </c>
     </row>
-    <row r="436" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A436" t="s">
         <v>1118</v>
       </c>
@@ -13725,7 +13725,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="437" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A437" t="s">
         <v>1118</v>
       </c>
@@ -13742,7 +13742,7 @@
         <v>1165</v>
       </c>
     </row>
-    <row r="438" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A438" t="s">
         <v>1118</v>
       </c>
@@ -13759,7 +13759,7 @@
         <v>1166</v>
       </c>
     </row>
-    <row r="439" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A439" t="s">
         <v>1167</v>
       </c>
@@ -13776,7 +13776,7 @@
         <v>1168</v>
       </c>
     </row>
-    <row r="440" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A440" t="s">
         <v>1167</v>
       </c>
@@ -13793,7 +13793,7 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="441" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A441" t="s">
         <v>1167</v>
       </c>
@@ -13810,7 +13810,7 @@
         <v>1170</v>
       </c>
     </row>
-    <row r="442" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A442" t="s">
         <v>1167</v>
       </c>
@@ -13827,7 +13827,7 @@
         <v>1171</v>
       </c>
     </row>
-    <row r="443" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A443" t="s">
         <v>1167</v>
       </c>
@@ -13844,7 +13844,7 @@
         <v>1172</v>
       </c>
     </row>
-    <row r="444" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A444" t="s">
         <v>1167</v>
       </c>
@@ -13861,7 +13861,7 @@
         <v>1173</v>
       </c>
     </row>
-    <row r="445" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A445" t="s">
         <v>1167</v>
       </c>
@@ -13878,7 +13878,7 @@
         <v>1174</v>
       </c>
     </row>
-    <row r="446" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A446" t="s">
         <v>1167</v>
       </c>
@@ -13895,7 +13895,7 @@
         <v>1175</v>
       </c>
     </row>
-    <row r="447" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A447" t="s">
         <v>1167</v>
       </c>
@@ -13912,7 +13912,7 @@
         <v>1176</v>
       </c>
     </row>
-    <row r="448" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A448" t="s">
         <v>1167</v>
       </c>
@@ -13929,7 +13929,7 @@
         <v>1177</v>
       </c>
     </row>
-    <row r="449" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A449" t="s">
         <v>1167</v>
       </c>
@@ -13946,7 +13946,7 @@
         <v>1178</v>
       </c>
     </row>
-    <row r="450" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A450" t="s">
         <v>1167</v>
       </c>
@@ -13963,7 +13963,7 @@
         <v>1179</v>
       </c>
     </row>
-    <row r="451" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A451" t="s">
         <v>1167</v>
       </c>
@@ -13980,7 +13980,7 @@
         <v>1180</v>
       </c>
     </row>
-    <row r="452" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A452" t="s">
         <v>1167</v>
       </c>
@@ -13997,7 +13997,7 @@
         <v>1181</v>
       </c>
     </row>
-    <row r="453" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A453" t="s">
         <v>1167</v>
       </c>
@@ -14014,7 +14014,7 @@
         <v>1182</v>
       </c>
     </row>
-    <row r="454" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A454" t="s">
         <v>1167</v>
       </c>
@@ -14031,7 +14031,7 @@
         <v>1183</v>
       </c>
     </row>
-    <row r="455" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A455" t="s">
         <v>1167</v>
       </c>
@@ -14048,7 +14048,7 @@
         <v>1184</v>
       </c>
     </row>
-    <row r="456" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A456" t="s">
         <v>1167</v>
       </c>
@@ -14065,7 +14065,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="457" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A457" t="s">
         <v>1167</v>
       </c>
@@ -14082,7 +14082,7 @@
         <v>1186</v>
       </c>
     </row>
-    <row r="458" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A458" t="s">
         <v>1167</v>
       </c>
@@ -14099,7 +14099,7 @@
         <v>1187</v>
       </c>
     </row>
-    <row r="459" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A459" t="s">
         <v>1167</v>
       </c>
@@ -14116,7 +14116,7 @@
         <v>1188</v>
       </c>
     </row>
-    <row r="460" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A460" t="s">
         <v>1167</v>
       </c>
@@ -14133,7 +14133,7 @@
         <v>1189</v>
       </c>
     </row>
-    <row r="461" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A461" t="s">
         <v>1167</v>
       </c>
@@ -14150,7 +14150,7 @@
         <v>1190</v>
       </c>
     </row>
-    <row r="462" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A462" t="s">
         <v>1167</v>
       </c>
@@ -14167,7 +14167,7 @@
         <v>1191</v>
       </c>
     </row>
-    <row r="463" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A463" t="s">
         <v>1167</v>
       </c>
@@ -14184,7 +14184,7 @@
         <v>1192</v>
       </c>
     </row>
-    <row r="464" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A464" t="s">
         <v>1167</v>
       </c>
@@ -14201,7 +14201,7 @@
         <v>1193</v>
       </c>
     </row>
-    <row r="465" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A465" t="s">
         <v>1167</v>
       </c>
@@ -14218,7 +14218,7 @@
         <v>1194</v>
       </c>
     </row>
-    <row r="466" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A466" t="s">
         <v>1167</v>
       </c>
@@ -14235,7 +14235,7 @@
         <v>1195</v>
       </c>
     </row>
-    <row r="467" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A467" t="s">
         <v>1167</v>
       </c>
@@ -14252,7 +14252,7 @@
         <v>1196</v>
       </c>
     </row>
-    <row r="468" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A468" t="s">
         <v>1167</v>
       </c>
@@ -14269,7 +14269,7 @@
         <v>1197</v>
       </c>
     </row>
-    <row r="469" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A469" t="s">
         <v>1167</v>
       </c>
@@ -14286,7 +14286,7 @@
         <v>1198</v>
       </c>
     </row>
-    <row r="470" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A470" t="s">
         <v>1167</v>
       </c>
@@ -14303,7 +14303,7 @@
         <v>1199</v>
       </c>
     </row>
-    <row r="471" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A471" t="s">
         <v>1167</v>
       </c>
@@ -14320,7 +14320,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="472" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A472" t="s">
         <v>1167</v>
       </c>
@@ -14337,7 +14337,7 @@
         <v>1201</v>
       </c>
     </row>
-    <row r="473" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A473" t="s">
         <v>1167</v>
       </c>
@@ -14354,7 +14354,7 @@
         <v>1202</v>
       </c>
     </row>
-    <row r="474" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A474" t="s">
         <v>1167</v>
       </c>
@@ -14371,7 +14371,7 @@
         <v>1203</v>
       </c>
     </row>
-    <row r="475" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A475" t="s">
         <v>1167</v>
       </c>
@@ -14388,7 +14388,7 @@
         <v>1204</v>
       </c>
     </row>
-    <row r="476" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A476" t="s">
         <v>1167</v>
       </c>
@@ -14405,7 +14405,7 @@
         <v>1205</v>
       </c>
     </row>
-    <row r="477" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A477" t="s">
         <v>1167</v>
       </c>
@@ -14422,7 +14422,7 @@
         <v>1206</v>
       </c>
     </row>
-    <row r="478" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A478" t="s">
         <v>1167</v>
       </c>
@@ -14439,7 +14439,7 @@
         <v>1207</v>
       </c>
     </row>
-    <row r="479" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A479" t="s">
         <v>1167</v>
       </c>
@@ -14456,7 +14456,7 @@
         <v>1208</v>
       </c>
     </row>
-    <row r="480" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A480" t="s">
         <v>1167</v>
       </c>
@@ -14473,7 +14473,7 @@
         <v>1209</v>
       </c>
     </row>
-    <row r="481" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A481" t="s">
         <v>1167</v>
       </c>
@@ -14490,7 +14490,7 @@
         <v>1210</v>
       </c>
     </row>
-    <row r="482" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A482" t="s">
         <v>1167</v>
       </c>
@@ -14507,7 +14507,7 @@
         <v>1211</v>
       </c>
     </row>
-    <row r="483" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A483" t="s">
         <v>1167</v>
       </c>
@@ -14524,7 +14524,7 @@
         <v>1212</v>
       </c>
     </row>
-    <row r="484" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A484" t="s">
         <v>833</v>
       </c>
@@ -14544,7 +14544,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="485" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A485" t="s">
         <v>833</v>
       </c>
@@ -14564,7 +14564,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="486" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A486" t="s">
         <v>833</v>
       </c>
@@ -14584,7 +14584,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="487" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A487" t="s">
         <v>833</v>
       </c>
@@ -14604,7 +14604,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="488" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A488" t="s">
         <v>833</v>
       </c>
@@ -14624,7 +14624,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="489" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A489" t="s">
         <v>833</v>
       </c>
@@ -14644,7 +14644,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="490" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A490" t="s">
         <v>833</v>
       </c>
@@ -14664,7 +14664,7 @@
         <v>835</v>
       </c>
     </row>
-    <row r="491" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A491" t="s">
         <v>833</v>
       </c>
@@ -14684,7 +14684,7 @@
         <v>839</v>
       </c>
     </row>
-    <row r="492" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A492" t="s">
         <v>833</v>
       </c>
@@ -14704,7 +14704,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="493" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A493" t="s">
         <v>833</v>
       </c>
@@ -14724,7 +14724,7 @@
         <v>836</v>
       </c>
     </row>
-    <row r="494" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A494" t="s">
         <v>833</v>
       </c>
@@ -14744,7 +14744,7 @@
         <v>846</v>
       </c>
     </row>
-    <row r="495" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A495" t="s">
         <v>833</v>
       </c>
@@ -14764,7 +14764,7 @@
         <v>847</v>
       </c>
     </row>
-    <row r="496" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A496" t="s">
         <v>833</v>
       </c>
@@ -14784,7 +14784,7 @@
         <v>848</v>
       </c>
     </row>
-    <row r="497" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A497" t="s">
         <v>833</v>
       </c>
@@ -14804,7 +14804,7 @@
         <v>849</v>
       </c>
     </row>
-    <row r="498" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A498" t="s">
         <v>833</v>
       </c>
@@ -14824,7 +14824,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="499" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A499" t="s">
         <v>833</v>
       </c>
@@ -14844,7 +14844,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="500" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A500" t="s">
         <v>833</v>
       </c>
@@ -14864,7 +14864,7 @@
         <v>852</v>
       </c>
     </row>
-    <row r="501" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A501" t="s">
         <v>833</v>
       </c>
@@ -14884,7 +14884,7 @@
         <v>853</v>
       </c>
     </row>
-    <row r="502" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A502" t="s">
         <v>833</v>
       </c>
@@ -14904,7 +14904,7 @@
         <v>861</v>
       </c>
     </row>
-    <row r="503" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A503" t="s">
         <v>833</v>
       </c>
@@ -14924,7 +14924,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="504" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A504" t="s">
         <v>833</v>
       </c>
@@ -14944,7 +14944,7 @@
         <v>862</v>
       </c>
     </row>
-    <row r="505" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A505" t="s">
         <v>833</v>
       </c>
@@ -14964,7 +14964,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="506" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A506" t="s">
         <v>833</v>
       </c>
@@ -14984,7 +14984,7 @@
         <v>859</v>
       </c>
     </row>
-    <row r="507" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A507" t="s">
         <v>833</v>
       </c>
@@ -15004,7 +15004,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="508" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="508" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A508" t="s">
         <v>833</v>
       </c>
@@ -15024,7 +15024,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="509" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A509" t="s">
         <v>833</v>
       </c>
@@ -15044,7 +15044,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="510" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A510" t="s">
         <v>833</v>
       </c>
@@ -15064,7 +15064,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="511" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A511" t="s">
         <v>833</v>
       </c>
@@ -15084,7 +15084,7 @@
         <v>865</v>
       </c>
     </row>
-    <row r="512" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="512" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A512" t="s">
         <v>833</v>
       </c>
@@ -15104,7 +15104,7 @@
         <v>855</v>
       </c>
     </row>
-    <row r="513" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="513" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A513" t="s">
         <v>833</v>
       </c>
@@ -15124,7 +15124,7 @@
         <v>856</v>
       </c>
     </row>
-    <row r="514" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="514" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A514" t="s">
         <v>1358</v>
       </c>
@@ -15144,7 +15144,7 @@
         <v>1242</v>
       </c>
     </row>
-    <row r="515" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="515" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A515" t="s">
         <v>1359</v>
       </c>
@@ -15164,7 +15164,7 @@
         <v>1318</v>
       </c>
     </row>
-    <row r="516" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="516" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A516" t="s">
         <v>1359</v>
       </c>
@@ -15184,7 +15184,7 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="517" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="517" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A517" t="s">
         <v>1359</v>
       </c>
@@ -15204,7 +15204,7 @@
         <v>1311</v>
       </c>
     </row>
-    <row r="518" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="518" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A518" t="s">
         <v>1359</v>
       </c>
@@ -15224,7 +15224,7 @@
         <v>1272</v>
       </c>
     </row>
-    <row r="519" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="519" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A519" t="s">
         <v>1359</v>
       </c>
@@ -15244,7 +15244,7 @@
         <v>1350</v>
       </c>
     </row>
-    <row r="520" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="520" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A520" t="s">
         <v>1359</v>
       </c>
@@ -15264,7 +15264,7 @@
         <v>1316</v>
       </c>
     </row>
-    <row r="521" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="521" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A521" t="s">
         <v>1359</v>
       </c>
@@ -15284,7 +15284,7 @@
         <v>1313</v>
       </c>
     </row>
-    <row r="522" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="522" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A522" t="s">
         <v>1359</v>
       </c>
@@ -15304,7 +15304,7 @@
         <v>1352</v>
       </c>
     </row>
-    <row r="523" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="523" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A523" t="s">
         <v>1359</v>
       </c>
@@ -15324,7 +15324,7 @@
         <v>1299</v>
       </c>
     </row>
-    <row r="524" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="524" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A524" t="s">
         <v>1359</v>
       </c>
@@ -15344,7 +15344,7 @@
         <v>1280</v>
       </c>
     </row>
-    <row r="525" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="525" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A525" t="s">
         <v>1359</v>
       </c>
@@ -15364,7 +15364,7 @@
         <v>1334</v>
       </c>
     </row>
-    <row r="526" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="526" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A526" t="s">
         <v>1359</v>
       </c>
@@ -15384,7 +15384,7 @@
         <v>1347</v>
       </c>
     </row>
-    <row r="527" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="527" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A527" t="s">
         <v>1359</v>
       </c>
@@ -15404,7 +15404,7 @@
         <v>1289</v>
       </c>
     </row>
-    <row r="528" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="528" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A528" t="s">
         <v>1359</v>
       </c>
@@ -15424,7 +15424,7 @@
         <v>1322</v>
       </c>
     </row>
-    <row r="529" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="529" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A529" t="s">
         <v>1359</v>
       </c>
@@ -15444,7 +15444,7 @@
         <v>1269</v>
       </c>
     </row>
-    <row r="530" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="530" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A530" t="s">
         <v>1359</v>
       </c>
@@ -15464,7 +15464,7 @@
         <v>1249</v>
       </c>
     </row>
-    <row r="531" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="531" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A531" t="s">
         <v>1359</v>
       </c>
@@ -15484,7 +15484,7 @@
         <v>1284</v>
       </c>
     </row>
-    <row r="532" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="532" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A532" t="s">
         <v>1359</v>
       </c>
@@ -15504,7 +15504,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="533" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="533" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A533" t="s">
         <v>1359</v>
       </c>
@@ -15524,7 +15524,7 @@
         <v>1312</v>
       </c>
     </row>
-    <row r="534" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="534" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A534" t="s">
         <v>1359</v>
       </c>
@@ -15544,7 +15544,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="535" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="535" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A535" t="s">
         <v>1359</v>
       </c>
@@ -15564,7 +15564,7 @@
         <v>1300</v>
       </c>
     </row>
-    <row r="536" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="536" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A536" t="s">
         <v>1359</v>
       </c>
@@ -15584,7 +15584,7 @@
         <v>1258</v>
       </c>
     </row>
-    <row r="537" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="537" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A537" t="s">
         <v>1359</v>
       </c>
@@ -15604,7 +15604,7 @@
         <v>1305</v>
       </c>
     </row>
-    <row r="538" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="538" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A538" t="s">
         <v>1359</v>
       </c>
@@ -15624,7 +15624,7 @@
         <v>1340</v>
       </c>
     </row>
-    <row r="539" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="539" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A539" t="s">
         <v>1359</v>
       </c>
@@ -15644,7 +15644,7 @@
         <v>1335</v>
       </c>
     </row>
-    <row r="540" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="540" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A540" t="s">
         <v>1359</v>
       </c>
@@ -15664,7 +15664,7 @@
         <v>1291</v>
       </c>
     </row>
-    <row r="541" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="541" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A541" t="s">
         <v>1359</v>
       </c>
@@ -15684,7 +15684,7 @@
         <v>1251</v>
       </c>
     </row>
-    <row r="542" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="542" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A542" t="s">
         <v>1359</v>
       </c>
@@ -15704,7 +15704,7 @@
         <v>1317</v>
       </c>
     </row>
-    <row r="543" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="543" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A543" t="s">
         <v>1359</v>
       </c>
@@ -15724,7 +15724,7 @@
         <v>1245</v>
       </c>
     </row>
-    <row r="544" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="544" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A544" t="s">
         <v>1359</v>
       </c>
@@ -15744,7 +15744,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="545" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="545" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A545" t="s">
         <v>1359</v>
       </c>
@@ -15764,7 +15764,7 @@
         <v>1304</v>
       </c>
     </row>
-    <row r="546" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="546" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A546" t="s">
         <v>1359</v>
       </c>
@@ -15784,7 +15784,7 @@
         <v>1257</v>
       </c>
     </row>
-    <row r="547" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="547" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A547" t="s">
         <v>1359</v>
       </c>
@@ -15804,7 +15804,7 @@
         <v>1283</v>
       </c>
     </row>
-    <row r="548" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="548" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A548" t="s">
         <v>1359</v>
       </c>
@@ -15824,7 +15824,7 @@
         <v>1315</v>
       </c>
     </row>
-    <row r="549" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="549" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A549" t="s">
         <v>1359</v>
       </c>
@@ -15844,7 +15844,7 @@
         <v>1296</v>
       </c>
     </row>
-    <row r="550" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="550" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A550" t="s">
         <v>1359</v>
       </c>
@@ -15864,7 +15864,7 @@
         <v>1349</v>
       </c>
     </row>
-    <row r="551" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="551" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A551" t="s">
         <v>1359</v>
       </c>
@@ -15884,7 +15884,7 @@
         <v>1331</v>
       </c>
     </row>
-    <row r="552" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="552" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A552" t="s">
         <v>1359</v>
       </c>
@@ -15904,7 +15904,7 @@
         <v>1343</v>
       </c>
     </row>
-    <row r="553" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="553" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A553" t="s">
         <v>1359</v>
       </c>
@@ -15924,7 +15924,7 @@
         <v>1314</v>
       </c>
     </row>
-    <row r="554" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="554" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A554" t="s">
         <v>1359</v>
       </c>
@@ -15944,7 +15944,7 @@
         <v>1309</v>
       </c>
     </row>
-    <row r="555" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="555" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A555" t="s">
         <v>1359</v>
       </c>
@@ -15964,7 +15964,7 @@
         <v>1353</v>
       </c>
     </row>
-    <row r="556" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="556" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A556" t="s">
         <v>1359</v>
       </c>
@@ -15984,7 +15984,7 @@
         <v>1320</v>
       </c>
     </row>
-    <row r="557" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="557" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A557" t="s">
         <v>1359</v>
       </c>
@@ -16004,7 +16004,7 @@
         <v>1327</v>
       </c>
     </row>
-    <row r="558" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="558" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A558" t="s">
         <v>1359</v>
       </c>
@@ -16024,7 +16024,7 @@
         <v>1328</v>
       </c>
     </row>
-    <row r="559" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="559" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A559" t="s">
         <v>1359</v>
       </c>
@@ -16044,7 +16044,7 @@
         <v>1303</v>
       </c>
     </row>
-    <row r="560" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="560" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A560" t="s">
         <v>1359</v>
       </c>
@@ -16064,7 +16064,7 @@
         <v>1336</v>
       </c>
     </row>
-    <row r="561" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="561" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A561" t="s">
         <v>1359</v>
       </c>
@@ -16084,7 +16084,7 @@
         <v>1290</v>
       </c>
     </row>
-    <row r="562" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="562" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A562" t="s">
         <v>1359</v>
       </c>
@@ -16104,7 +16104,7 @@
         <v>1278</v>
       </c>
     </row>
-    <row r="563" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="563" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A563" t="s">
         <v>1359</v>
       </c>
@@ -16124,7 +16124,7 @@
         <v>1348</v>
       </c>
     </row>
-    <row r="564" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="564" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A564" t="s">
         <v>1359</v>
       </c>
@@ -16144,7 +16144,7 @@
         <v>1342</v>
       </c>
     </row>
-    <row r="565" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="565" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A565" t="s">
         <v>1359</v>
       </c>
@@ -16164,7 +16164,7 @@
         <v>1310</v>
       </c>
     </row>
-    <row r="566" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="566" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A566" t="s">
         <v>1359</v>
       </c>
@@ -16184,7 +16184,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="567" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="567" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A567" t="s">
         <v>1359</v>
       </c>
@@ -16204,7 +16204,7 @@
         <v>1262</v>
       </c>
     </row>
-    <row r="568" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="568" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A568" t="s">
         <v>1359</v>
       </c>
@@ -16224,7 +16224,7 @@
         <v>1248</v>
       </c>
     </row>
-    <row r="569" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="569" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A569" t="s">
         <v>1359</v>
       </c>
@@ -16244,7 +16244,7 @@
         <v>1356</v>
       </c>
     </row>
-    <row r="570" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="570" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A570" t="s">
         <v>1359</v>
       </c>
@@ -16264,7 +16264,7 @@
         <v>1341</v>
       </c>
     </row>
-    <row r="571" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="571" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A571" t="s">
         <v>1359</v>
       </c>
@@ -16284,7 +16284,7 @@
         <v>1285</v>
       </c>
     </row>
-    <row r="572" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="572" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A572" t="s">
         <v>1359</v>
       </c>
@@ -16304,7 +16304,7 @@
         <v>1301</v>
       </c>
     </row>
-    <row r="573" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="573" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A573" t="s">
         <v>1359</v>
       </c>
@@ -16324,7 +16324,7 @@
         <v>1274</v>
       </c>
     </row>
-    <row r="574" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="574" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A574" t="s">
         <v>1359</v>
       </c>
@@ -16344,7 +16344,7 @@
         <v>1294</v>
       </c>
     </row>
-    <row r="575" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="575" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A575" t="s">
         <v>1359</v>
       </c>
@@ -16364,7 +16364,7 @@
         <v>1263</v>
       </c>
     </row>
-    <row r="576" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="576" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A576" t="s">
         <v>1359</v>
       </c>
@@ -16384,7 +16384,7 @@
         <v>1302</v>
       </c>
     </row>
-    <row r="577" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="577" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A577" t="s">
         <v>1359</v>
       </c>
@@ -16404,7 +16404,7 @@
         <v>1308</v>
       </c>
     </row>
-    <row r="578" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="578" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A578" t="s">
         <v>1359</v>
       </c>
@@ -16424,7 +16424,7 @@
         <v>1326</v>
       </c>
     </row>
-    <row r="579" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="579" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A579" t="s">
         <v>1359</v>
       </c>
@@ -16444,7 +16444,7 @@
         <v>1321</v>
       </c>
     </row>
-    <row r="580" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="580" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A580" t="s">
         <v>1359</v>
       </c>
@@ -16464,7 +16464,7 @@
         <v>1246</v>
       </c>
     </row>
-    <row r="581" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="581" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A581" t="s">
         <v>1359</v>
       </c>
@@ -16484,7 +16484,7 @@
         <v>1270</v>
       </c>
     </row>
-    <row r="582" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="582" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A582" t="s">
         <v>1359</v>
       </c>
@@ -16504,7 +16504,7 @@
         <v>1281</v>
       </c>
     </row>
-    <row r="583" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="583" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A583" t="s">
         <v>1359</v>
       </c>
@@ -16524,7 +16524,7 @@
         <v>1298</v>
       </c>
     </row>
-    <row r="584" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="584" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A584" t="s">
         <v>1359</v>
       </c>
@@ -16544,7 +16544,7 @@
         <v>1339</v>
       </c>
     </row>
-    <row r="585" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="585" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A585" t="s">
         <v>1359</v>
       </c>
@@ -16564,7 +16564,7 @@
         <v>1256</v>
       </c>
     </row>
-    <row r="586" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="586" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A586" t="s">
         <v>1359</v>
       </c>
@@ -16584,7 +16584,7 @@
         <v>1337</v>
       </c>
     </row>
-    <row r="587" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="587" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A587" t="s">
         <v>1359</v>
       </c>
@@ -16604,7 +16604,7 @@
         <v>1271</v>
       </c>
     </row>
-    <row r="588" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="588" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A588" t="s">
         <v>1359</v>
       </c>
@@ -16624,7 +16624,7 @@
         <v>1273</v>
       </c>
     </row>
-    <row r="589" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="589" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A589" t="s">
         <v>1359</v>
       </c>
@@ -16644,7 +16644,7 @@
         <v>1295</v>
       </c>
     </row>
-    <row r="590" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="590" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A590" t="s">
         <v>1359</v>
       </c>
@@ -16664,7 +16664,7 @@
         <v>1323</v>
       </c>
     </row>
-    <row r="591" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="591" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A591" t="s">
         <v>1359</v>
       </c>
@@ -16684,7 +16684,7 @@
         <v>1333</v>
       </c>
     </row>
-    <row r="592" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="592" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A592" t="s">
         <v>1359</v>
       </c>
@@ -16704,7 +16704,7 @@
         <v>1266</v>
       </c>
     </row>
-    <row r="593" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="593" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A593" t="s">
         <v>1359</v>
       </c>
@@ -16724,7 +16724,7 @@
         <v>1286</v>
       </c>
     </row>
-    <row r="594" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="594" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A594" t="s">
         <v>1359</v>
       </c>
@@ -16744,7 +16744,7 @@
         <v>1346</v>
       </c>
     </row>
-    <row r="595" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="595" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A595" t="s">
         <v>1359</v>
       </c>
@@ -16764,7 +16764,7 @@
         <v>1354</v>
       </c>
     </row>
-    <row r="596" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="596" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A596" t="s">
         <v>1359</v>
       </c>
@@ -16784,7 +16784,7 @@
         <v>1268</v>
       </c>
     </row>
-    <row r="597" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="597" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A597" t="s">
         <v>1359</v>
       </c>
@@ -16804,7 +16804,7 @@
         <v>1261</v>
       </c>
     </row>
-    <row r="598" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="598" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A598" t="s">
         <v>1359</v>
       </c>
@@ -16824,7 +16824,7 @@
         <v>1244</v>
       </c>
     </row>
-    <row r="599" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="599" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A599" t="s">
         <v>1359</v>
       </c>
@@ -16844,7 +16844,7 @@
         <v>1282</v>
       </c>
     </row>
-    <row r="600" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="600" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A600" t="s">
         <v>1359</v>
       </c>
@@ -16864,7 +16864,7 @@
         <v>1247</v>
       </c>
     </row>
-    <row r="601" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="601" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A601" t="s">
         <v>1359</v>
       </c>
@@ -16884,7 +16884,7 @@
         <v>1267</v>
       </c>
     </row>
-    <row r="602" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="602" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A602" t="s">
         <v>1359</v>
       </c>
@@ -16904,7 +16904,7 @@
         <v>1355</v>
       </c>
     </row>
-    <row r="603" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="603" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A603" t="s">
         <v>1359</v>
       </c>
@@ -16924,7 +16924,7 @@
         <v>1255</v>
       </c>
     </row>
-    <row r="604" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="604" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A604" t="s">
         <v>1359</v>
       </c>
@@ -16944,7 +16944,7 @@
         <v>1276</v>
       </c>
     </row>
-    <row r="605" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="605" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A605" t="s">
         <v>1359</v>
       </c>
@@ -16964,7 +16964,7 @@
         <v>1252</v>
       </c>
     </row>
-    <row r="606" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="606" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A606" t="s">
         <v>1359</v>
       </c>
@@ -16984,7 +16984,7 @@
         <v>1275</v>
       </c>
     </row>
-    <row r="607" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="607" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A607" t="s">
         <v>1359</v>
       </c>
@@ -17004,7 +17004,7 @@
         <v>1338</v>
       </c>
     </row>
-    <row r="608" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="608" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A608" t="s">
         <v>1359</v>
       </c>
@@ -17024,7 +17024,7 @@
         <v>1357</v>
       </c>
     </row>
-    <row r="609" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="609" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A609" t="s">
         <v>1359</v>
       </c>
@@ -17044,7 +17044,7 @@
         <v>1332</v>
       </c>
     </row>
-    <row r="610" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="610" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A610" t="s">
         <v>1359</v>
       </c>
@@ -17064,7 +17064,7 @@
         <v>1297</v>
       </c>
     </row>
-    <row r="611" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="611" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A611" t="s">
         <v>1359</v>
       </c>
@@ -17084,7 +17084,7 @@
         <v>1288</v>
       </c>
     </row>
-    <row r="612" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="612" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A612" t="s">
         <v>1359</v>
       </c>
@@ -17104,7 +17104,7 @@
         <v>1243</v>
       </c>
     </row>
-    <row r="613" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="613" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A613" t="s">
         <v>1359</v>
       </c>
@@ -17124,7 +17124,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="614" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="614" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A614" t="s">
         <v>1359</v>
       </c>
@@ -17144,7 +17144,7 @@
         <v>1344</v>
       </c>
     </row>
-    <row r="615" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="615" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A615" t="s">
         <v>1359</v>
       </c>
@@ -17164,7 +17164,7 @@
         <v>1307</v>
       </c>
     </row>
-    <row r="616" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="616" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A616" t="s">
         <v>1359</v>
       </c>
@@ -17184,7 +17184,7 @@
         <v>1254</v>
       </c>
     </row>
-    <row r="617" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="617" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A617" t="s">
         <v>1359</v>
       </c>
@@ -17204,7 +17204,7 @@
         <v>1325</v>
       </c>
     </row>
-    <row r="618" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="618" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A618" t="s">
         <v>1359</v>
       </c>
@@ -17224,7 +17224,7 @@
         <v>1260</v>
       </c>
     </row>
-    <row r="619" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="619" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A619" t="s">
         <v>1359</v>
       </c>
@@ -17244,7 +17244,7 @@
         <v>1293</v>
       </c>
     </row>
-    <row r="620" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="620" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A620" t="s">
         <v>1359</v>
       </c>
@@ -17264,7 +17264,7 @@
         <v>1330</v>
       </c>
     </row>
-    <row r="621" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="621" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A621" t="s">
         <v>1359</v>
       </c>
@@ -17284,7 +17284,7 @@
         <v>1265</v>
       </c>
     </row>
-    <row r="622" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="622" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A622" t="s">
         <v>1359</v>
       </c>
@@ -17301,7 +17301,7 @@
         <v>1287</v>
       </c>
     </row>
-    <row r="623" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="623" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A623" t="s">
         <v>736</v>
       </c>
@@ -17321,7 +17321,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="624" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="624" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A624" t="s">
         <v>736</v>
       </c>
@@ -17341,7 +17341,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="625" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="625" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A625" t="s">
         <v>736</v>
       </c>
@@ -17361,7 +17361,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="626" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="626" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A626" t="s">
         <v>736</v>
       </c>
@@ -17381,7 +17381,7 @@
         <v>777</v>
       </c>
     </row>
-    <row r="627" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="627" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A627" t="s">
         <v>736</v>
       </c>
@@ -17401,7 +17401,7 @@
         <v>778</v>
       </c>
     </row>
-    <row r="628" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="628" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A628" t="s">
         <v>736</v>
       </c>
@@ -17421,7 +17421,7 @@
         <v>779</v>
       </c>
     </row>
-    <row r="629" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="629" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A629" t="s">
         <v>736</v>
       </c>
@@ -17441,7 +17441,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="630" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="630" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A630" t="s">
         <v>736</v>
       </c>
@@ -17461,7 +17461,7 @@
         <v>781</v>
       </c>
     </row>
-    <row r="631" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="631" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A631" t="s">
         <v>736</v>
       </c>
@@ -17481,7 +17481,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="632" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="632" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A632" t="s">
         <v>736</v>
       </c>
@@ -17501,7 +17501,7 @@
         <v>783</v>
       </c>
     </row>
-    <row r="633" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="633" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A633" t="s">
         <v>736</v>
       </c>
@@ -17521,7 +17521,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="634" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="634" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A634" t="s">
         <v>736</v>
       </c>
@@ -17541,7 +17541,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="635" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="635" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A635" t="s">
         <v>736</v>
       </c>
@@ -17561,7 +17561,7 @@
         <v>739</v>
       </c>
     </row>
-    <row r="636" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="636" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A636" t="s">
         <v>736</v>
       </c>
@@ -17581,7 +17581,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="637" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="637" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A637" t="s">
         <v>736</v>
       </c>
@@ -17601,7 +17601,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="638" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="638" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A638" t="s">
         <v>736</v>
       </c>
@@ -17621,7 +17621,7 @@
         <v>742</v>
       </c>
     </row>
-    <row r="639" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="639" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A639" t="s">
         <v>736</v>
       </c>
@@ -17641,7 +17641,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="640" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="640" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A640" t="s">
         <v>736</v>
       </c>
@@ -17661,7 +17661,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="641" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="641" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A641" t="s">
         <v>736</v>
       </c>
@@ -17681,7 +17681,7 @@
         <v>786</v>
       </c>
     </row>
-    <row r="642" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="642" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A642" t="s">
         <v>736</v>
       </c>
@@ -17701,7 +17701,7 @@
         <v>787</v>
       </c>
     </row>
-    <row r="643" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="643" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A643" t="s">
         <v>736</v>
       </c>
@@ -17721,7 +17721,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="644" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="644" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A644" t="s">
         <v>736</v>
       </c>
@@ -17741,7 +17741,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="645" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="645" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A645" t="s">
         <v>736</v>
       </c>
@@ -17761,7 +17761,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="646" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="646" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A646" t="s">
         <v>736</v>
       </c>
@@ -17781,7 +17781,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="647" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="647" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A647" t="s">
         <v>736</v>
       </c>
@@ -17801,7 +17801,7 @@
         <v>792</v>
       </c>
     </row>
-    <row r="648" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="648" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A648" t="s">
         <v>736</v>
       </c>
@@ -17821,7 +17821,7 @@
         <v>793</v>
       </c>
     </row>
-    <row r="649" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="649" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A649" t="s">
         <v>736</v>
       </c>
@@ -17841,7 +17841,7 @@
         <v>743</v>
       </c>
     </row>
-    <row r="650" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="650" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A650" t="s">
         <v>736</v>
       </c>
@@ -17861,7 +17861,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="651" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="651" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A651" t="s">
         <v>736</v>
       </c>
@@ -17881,7 +17881,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="652" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="652" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A652" t="s">
         <v>736</v>
       </c>
@@ -17901,7 +17901,7 @@
         <v>746</v>
       </c>
     </row>
-    <row r="653" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="653" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A653" t="s">
         <v>736</v>
       </c>
@@ -17921,7 +17921,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="654" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="654" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A654" t="s">
         <v>736</v>
       </c>
@@ -17941,7 +17941,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="655" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="655" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A655" t="s">
         <v>736</v>
       </c>
@@ -17961,7 +17961,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="656" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="656" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A656" t="s">
         <v>736</v>
       </c>
@@ -17981,7 +17981,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="657" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="657" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A657" t="s">
         <v>736</v>
       </c>
@@ -18001,7 +18001,7 @@
         <v>795</v>
       </c>
     </row>
-    <row r="658" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="658" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A658" t="s">
         <v>736</v>
       </c>
@@ -18021,7 +18021,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="659" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="659" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A659" t="s">
         <v>736</v>
       </c>
@@ -18041,7 +18041,7 @@
         <v>797</v>
       </c>
     </row>
-    <row r="660" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="660" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A660" t="s">
         <v>736</v>
       </c>
@@ -18061,7 +18061,7 @@
         <v>798</v>
       </c>
     </row>
-    <row r="661" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="661" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A661" t="s">
         <v>736</v>
       </c>
@@ -18081,7 +18081,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="662" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="662" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A662" t="s">
         <v>736</v>
       </c>
@@ -18101,7 +18101,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="663" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="663" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A663" t="s">
         <v>736</v>
       </c>
@@ -18121,7 +18121,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="664" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="664" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A664" t="s">
         <v>736</v>
       </c>
@@ -18141,7 +18141,7 @@
         <v>752</v>
       </c>
     </row>
-    <row r="665" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="665" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A665" t="s">
         <v>736</v>
       </c>
@@ -18161,7 +18161,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="666" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="666" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A666" t="s">
         <v>736</v>
       </c>
@@ -18181,7 +18181,7 @@
         <v>754</v>
       </c>
     </row>
-    <row r="667" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="667" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A667" t="s">
         <v>736</v>
       </c>
@@ -18201,7 +18201,7 @@
         <v>755</v>
       </c>
     </row>
-    <row r="668" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="668" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A668" t="s">
         <v>736</v>
       </c>
@@ -18221,7 +18221,7 @@
         <v>756</v>
       </c>
     </row>
-    <row r="669" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="669" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A669" t="s">
         <v>736</v>
       </c>
@@ -18241,7 +18241,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="670" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="670" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A670" t="s">
         <v>736</v>
       </c>
@@ -18261,7 +18261,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="671" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="671" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A671" t="s">
         <v>736</v>
       </c>
@@ -18281,7 +18281,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="672" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="672" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A672" t="s">
         <v>736</v>
       </c>
@@ -18301,7 +18301,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="673" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="673" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A673" t="s">
         <v>736</v>
       </c>
@@ -18321,7 +18321,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="674" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="674" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A674" t="s">
         <v>736</v>
       </c>
@@ -18341,7 +18341,7 @@
         <v>807</v>
       </c>
     </row>
-    <row r="675" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="675" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A675" t="s">
         <v>736</v>
       </c>
@@ -18361,7 +18361,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="676" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="676" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A676" t="s">
         <v>736</v>
       </c>
@@ -18381,7 +18381,7 @@
         <v>809</v>
       </c>
     </row>
-    <row r="677" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="677" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A677" t="s">
         <v>736</v>
       </c>
@@ -18401,7 +18401,7 @@
         <v>810</v>
       </c>
     </row>
-    <row r="678" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="678" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A678" t="s">
         <v>736</v>
       </c>
@@ -18421,7 +18421,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="679" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="679" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A679" t="s">
         <v>736</v>
       </c>
@@ -18441,7 +18441,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="680" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="680" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A680" t="s">
         <v>736</v>
       </c>
@@ -18461,7 +18461,7 @@
         <v>759</v>
       </c>
     </row>
-    <row r="681" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="681" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A681" t="s">
         <v>736</v>
       </c>
@@ -18481,7 +18481,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="682" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="682" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A682" t="s">
         <v>736</v>
       </c>
@@ -18501,7 +18501,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="683" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="683" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A683" t="s">
         <v>736</v>
       </c>
@@ -18521,7 +18521,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="684" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="684" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A684" t="s">
         <v>736</v>
       </c>
@@ -18541,7 +18541,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="685" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="685" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A685" t="s">
         <v>736</v>
       </c>
@@ -18561,7 +18561,7 @@
         <v>811</v>
       </c>
     </row>
-    <row r="686" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="686" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A686" t="s">
         <v>736</v>
       </c>
@@ -18581,7 +18581,7 @@
         <v>812</v>
       </c>
     </row>
-    <row r="687" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="687" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A687" t="s">
         <v>736</v>
       </c>
@@ -18601,7 +18601,7 @@
         <v>813</v>
       </c>
     </row>
-    <row r="688" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="688" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A688" t="s">
         <v>736</v>
       </c>
@@ -18621,7 +18621,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="689" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="689" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A689" t="s">
         <v>736</v>
       </c>
@@ -18641,7 +18641,7 @@
         <v>815</v>
       </c>
     </row>
-    <row r="690" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="690" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A690" t="s">
         <v>736</v>
       </c>
@@ -18661,7 +18661,7 @@
         <v>816</v>
       </c>
     </row>
-    <row r="691" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="691" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A691" t="s">
         <v>736</v>
       </c>
@@ -18681,7 +18681,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="692" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="692" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A692" t="s">
         <v>736</v>
       </c>
@@ -18701,7 +18701,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="693" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="693" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A693" t="s">
         <v>736</v>
       </c>
@@ -18721,7 +18721,7 @@
         <v>819</v>
       </c>
     </row>
-    <row r="694" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="694" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A694" t="s">
         <v>736</v>
       </c>
@@ -18741,7 +18741,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="695" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="695" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A695" t="s">
         <v>736</v>
       </c>
@@ -18761,7 +18761,7 @@
         <v>821</v>
       </c>
     </row>
-    <row r="696" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="696" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A696" t="s">
         <v>736</v>
       </c>
@@ -18781,7 +18781,7 @@
         <v>822</v>
       </c>
     </row>
-    <row r="697" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="697" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A697" t="s">
         <v>736</v>
       </c>
@@ -18801,7 +18801,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="698" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="698" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A698" t="s">
         <v>736</v>
       </c>
@@ -18821,7 +18821,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="699" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="699" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A699" t="s">
         <v>736</v>
       </c>
@@ -18841,7 +18841,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="700" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="700" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A700" t="s">
         <v>736</v>
       </c>
@@ -18861,7 +18861,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="701" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="701" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A701" t="s">
         <v>736</v>
       </c>
@@ -18881,7 +18881,7 @@
         <v>823</v>
       </c>
     </row>
-    <row r="702" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="702" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A702" t="s">
         <v>736</v>
       </c>
@@ -18901,7 +18901,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="703" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="703" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A703" t="s">
         <v>736</v>
       </c>
@@ -18921,7 +18921,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="704" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="704" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A704" t="s">
         <v>736</v>
       </c>
@@ -18941,7 +18941,7 @@
         <v>826</v>
       </c>
     </row>
-    <row r="705" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="705" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A705" t="s">
         <v>736</v>
       </c>
@@ -18961,7 +18961,7 @@
         <v>827</v>
       </c>
     </row>
-    <row r="706" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="706" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A706" t="s">
         <v>736</v>
       </c>
@@ -18981,7 +18981,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="707" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="707" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A707" t="s">
         <v>736</v>
       </c>
@@ -19001,7 +19001,7 @@
         <v>829</v>
       </c>
     </row>
-    <row r="708" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="708" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A708" t="s">
         <v>736</v>
       </c>
@@ -19021,7 +19021,7 @@
         <v>830</v>
       </c>
     </row>
-    <row r="709" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="709" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A709" t="s">
         <v>736</v>
       </c>
@@ -19041,7 +19041,7 @@
         <v>831</v>
       </c>
     </row>
-    <row r="710" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="710" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A710" t="s">
         <v>736</v>
       </c>
@@ -19061,7 +19061,7 @@
         <v>832</v>
       </c>
     </row>
-    <row r="711" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="711" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A711" t="s">
         <v>736</v>
       </c>
@@ -19081,7 +19081,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="712" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="712" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A712" t="s">
         <v>736</v>
       </c>
@@ -19101,7 +19101,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="713" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="713" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A713" t="s">
         <v>736</v>
       </c>
@@ -19121,7 +19121,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="714" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="714" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A714" t="s">
         <v>736</v>
       </c>
@@ -19141,7 +19141,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="715" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="715" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A715" t="s">
         <v>736</v>
       </c>
@@ -19161,7 +19161,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="716" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="716" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A716" t="s">
         <v>736</v>
       </c>
@@ -19181,7 +19181,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="717" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="717" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A717" t="s">
         <v>736</v>
       </c>
@@ -19201,7 +19201,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="718" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="718" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A718" t="s">
         <v>242</v>
       </c>
@@ -19221,7 +19221,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="719" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="719" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A719" t="s">
         <v>242</v>
       </c>
@@ -19241,7 +19241,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="720" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="720" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A720" t="s">
         <v>242</v>
       </c>
@@ -19261,7 +19261,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="721" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="721" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A721" t="s">
         <v>242</v>
       </c>
@@ -19281,7 +19281,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="722" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="722" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A722" t="s">
         <v>242</v>
       </c>
@@ -19301,7 +19301,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="723" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="723" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A723" t="s">
         <v>242</v>
       </c>
@@ -19321,7 +19321,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="724" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="724" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A724" t="s">
         <v>242</v>
       </c>
@@ -19341,7 +19341,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="725" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="725" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A725" t="s">
         <v>242</v>
       </c>
@@ -19361,7 +19361,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="726" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="726" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A726" t="s">
         <v>242</v>
       </c>
@@ -19381,7 +19381,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="727" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="727" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A727" t="s">
         <v>242</v>
       </c>
@@ -19401,7 +19401,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="728" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="728" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A728" t="s">
         <v>242</v>
       </c>
@@ -19421,7 +19421,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="729" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="729" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A729" t="s">
         <v>242</v>
       </c>
@@ -19441,7 +19441,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="730" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="730" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A730" t="s">
         <v>242</v>
       </c>
@@ -19461,7 +19461,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="731" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="731" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A731" t="s">
         <v>242</v>
       </c>
@@ -19481,7 +19481,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="732" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="732" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A732" t="s">
         <v>242</v>
       </c>
@@ -19501,7 +19501,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="733" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="733" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A733" t="s">
         <v>242</v>
       </c>
@@ -19521,7 +19521,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="734" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="734" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A734" t="s">
         <v>242</v>
       </c>
@@ -19541,7 +19541,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="735" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="735" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A735" t="s">
         <v>242</v>
       </c>
@@ -19561,7 +19561,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="736" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="736" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A736" t="s">
         <v>242</v>
       </c>
@@ -19581,7 +19581,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="737" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="737" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A737" t="s">
         <v>242</v>
       </c>
@@ -19601,7 +19601,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="738" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="738" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A738" t="s">
         <v>242</v>
       </c>
@@ -19621,7 +19621,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="739" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="739" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A739" t="s">
         <v>242</v>
       </c>
@@ -19641,7 +19641,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="740" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="740" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A740" t="s">
         <v>242</v>
       </c>
@@ -19661,7 +19661,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="741" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="741" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A741" t="s">
         <v>242</v>
       </c>
@@ -19681,7 +19681,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="742" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="742" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A742" t="s">
         <v>242</v>
       </c>
@@ -19701,7 +19701,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="743" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="743" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A743" t="s">
         <v>242</v>
       </c>
@@ -19721,7 +19721,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="744" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="744" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A744" t="s">
         <v>242</v>
       </c>
@@ -19741,7 +19741,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="745" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="745" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A745" t="s">
         <v>242</v>
       </c>
@@ -19761,7 +19761,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="746" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="746" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A746" t="s">
         <v>242</v>
       </c>
@@ -19781,7 +19781,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="747" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="747" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A747" t="s">
         <v>242</v>
       </c>
@@ -19801,7 +19801,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="748" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="748" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A748" t="s">
         <v>242</v>
       </c>
@@ -19821,7 +19821,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="749" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="749" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A749" t="s">
         <v>242</v>
       </c>
@@ -19841,7 +19841,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="750" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="750" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A750" t="s">
         <v>242</v>
       </c>
@@ -19861,7 +19861,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="751" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="751" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A751" t="s">
         <v>242</v>
       </c>
@@ -19881,7 +19881,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="752" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="752" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A752" t="s">
         <v>242</v>
       </c>
@@ -19901,7 +19901,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="753" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="753" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A753" t="s">
         <v>242</v>
       </c>
@@ -19921,7 +19921,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="754" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="754" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A754" t="s">
         <v>242</v>
       </c>
@@ -19941,7 +19941,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="755" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="755" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A755" t="s">
         <v>242</v>
       </c>
@@ -19961,7 +19961,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="756" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="756" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A756" t="s">
         <v>242</v>
       </c>
@@ -19981,7 +19981,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="757" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="757" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A757" t="s">
         <v>242</v>
       </c>
@@ -20001,7 +20001,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="758" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="758" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A758" t="s">
         <v>242</v>
       </c>
@@ -20021,7 +20021,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="759" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="759" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A759" t="s">
         <v>242</v>
       </c>
@@ -20041,7 +20041,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="760" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="760" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A760" t="s">
         <v>242</v>
       </c>
@@ -20061,7 +20061,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="761" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="761" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A761" t="s">
         <v>242</v>
       </c>
@@ -20081,7 +20081,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="762" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="762" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A762" t="s">
         <v>242</v>
       </c>
@@ -20101,7 +20101,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="763" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="763" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A763" t="s">
         <v>242</v>
       </c>
@@ -20121,7 +20121,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="764" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="764" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A764" t="s">
         <v>242</v>
       </c>
@@ -20141,7 +20141,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="765" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="765" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A765" t="s">
         <v>242</v>
       </c>
@@ -20161,7 +20161,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="766" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="766" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A766" t="s">
         <v>242</v>
       </c>
@@ -20181,7 +20181,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="767" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="767" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A767" t="s">
         <v>242</v>
       </c>
@@ -20201,7 +20201,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="768" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="768" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A768" t="s">
         <v>242</v>
       </c>
@@ -20221,7 +20221,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="769" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="769" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A769" t="s">
         <v>242</v>
       </c>
@@ -20241,7 +20241,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="770" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="770" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A770" t="s">
         <v>242</v>
       </c>
@@ -20261,7 +20261,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="771" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="771" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A771" t="s">
         <v>242</v>
       </c>
@@ -20281,7 +20281,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="772" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="772" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A772" t="s">
         <v>242</v>
       </c>
@@ -20301,7 +20301,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="773" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="773" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A773" t="s">
         <v>242</v>
       </c>
@@ -20321,7 +20321,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="774" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="774" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A774" t="s">
         <v>242</v>
       </c>
@@ -20341,7 +20341,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="775" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="775" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A775" t="s">
         <v>242</v>
       </c>
@@ -20361,7 +20361,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="776" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="776" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A776" t="s">
         <v>242</v>
       </c>
@@ -20381,7 +20381,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="777" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="777" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A777" t="s">
         <v>242</v>
       </c>
@@ -20401,7 +20401,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="778" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="778" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A778" t="s">
         <v>242</v>
       </c>
@@ -20421,7 +20421,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="779" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="779" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A779" t="s">
         <v>242</v>
       </c>
@@ -20441,7 +20441,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="780" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="780" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A780" t="s">
         <v>242</v>
       </c>
@@ -20461,7 +20461,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="781" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="781" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A781" t="s">
         <v>242</v>
       </c>
@@ -20481,7 +20481,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="782" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="782" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A782" t="s">
         <v>242</v>
       </c>
@@ -20501,7 +20501,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="783" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="783" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A783" t="s">
         <v>242</v>
       </c>
@@ -20521,7 +20521,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="784" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="784" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A784" t="s">
         <v>242</v>
       </c>
@@ -20541,7 +20541,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="785" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="785" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A785" t="s">
         <v>242</v>
       </c>
@@ -20561,7 +20561,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="786" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="786" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A786" t="s">
         <v>242</v>
       </c>
@@ -20581,7 +20581,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="787" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="787" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A787" t="s">
         <v>242</v>
       </c>
@@ -20601,7 +20601,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="788" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="788" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A788" t="s">
         <v>242</v>
       </c>
@@ -20621,7 +20621,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="789" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="789" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A789" t="s">
         <v>242</v>
       </c>
@@ -20641,7 +20641,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="790" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="790" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A790" t="s">
         <v>242</v>
       </c>
@@ -20661,7 +20661,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="791" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="791" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A791" t="s">
         <v>242</v>
       </c>
@@ -20681,7 +20681,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="792" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="792" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A792" t="s">
         <v>242</v>
       </c>
@@ -20701,7 +20701,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="793" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="793" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A793" t="s">
         <v>242</v>
       </c>
@@ -20721,7 +20721,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="794" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="794" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A794" t="s">
         <v>242</v>
       </c>
@@ -20741,7 +20741,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="795" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="795" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A795" t="s">
         <v>242</v>
       </c>
@@ -20761,7 +20761,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="796" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="796" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A796" t="s">
         <v>242</v>
       </c>
@@ -20781,7 +20781,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="797" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="797" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A797" t="s">
         <v>242</v>
       </c>
@@ -20801,7 +20801,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="798" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="798" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A798" t="s">
         <v>242</v>
       </c>
@@ -20821,7 +20821,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="799" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="799" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A799" t="s">
         <v>242</v>
       </c>
@@ -20841,7 +20841,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="800" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="800" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A800" t="s">
         <v>242</v>
       </c>
@@ -20861,7 +20861,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="801" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="801" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A801" t="s">
         <v>242</v>
       </c>
@@ -20881,7 +20881,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="802" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="802" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A802" t="s">
         <v>242</v>
       </c>
@@ -20901,7 +20901,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="803" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="803" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A803" t="s">
         <v>242</v>
       </c>
@@ -20921,7 +20921,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="804" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="804" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A804" t="s">
         <v>242</v>
       </c>
@@ -20941,7 +20941,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="805" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="805" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A805" t="s">
         <v>242</v>
       </c>
@@ -20961,7 +20961,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="806" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="806" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A806" t="s">
         <v>242</v>
       </c>
@@ -20981,7 +20981,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="807" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="807" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A807" t="s">
         <v>242</v>
       </c>
@@ -21001,7 +21001,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="808" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="808" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A808" t="s">
         <v>242</v>
       </c>
@@ -21021,7 +21021,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="809" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="809" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A809" t="s">
         <v>242</v>
       </c>
@@ -21041,7 +21041,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="810" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="810" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A810" t="s">
         <v>242</v>
       </c>
@@ -21061,7 +21061,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="811" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="811" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A811" t="s">
         <v>242</v>
       </c>
@@ -21081,7 +21081,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="812" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="812" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A812" t="s">
         <v>242</v>
       </c>
@@ -21101,7 +21101,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="813" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="813" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A813" t="s">
         <v>242</v>
       </c>
@@ -21121,7 +21121,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="814" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="814" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A814" t="s">
         <v>242</v>
       </c>
@@ -21141,7 +21141,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="815" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="815" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A815" t="s">
         <v>242</v>
       </c>
@@ -21161,7 +21161,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="816" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="816" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A816" t="s">
         <v>242</v>
       </c>
@@ -21181,7 +21181,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="817" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="817" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A817" t="s">
         <v>242</v>
       </c>
@@ -21201,7 +21201,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="818" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="818" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A818" t="s">
         <v>242</v>
       </c>
@@ -21221,7 +21221,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="819" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="819" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A819" t="s">
         <v>242</v>
       </c>
@@ -21241,7 +21241,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="820" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="820" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A820" t="s">
         <v>242</v>
       </c>
@@ -21261,7 +21261,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="821" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="821" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A821" t="s">
         <v>242</v>
       </c>
@@ -21281,7 +21281,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="822" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="822" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A822" t="s">
         <v>242</v>
       </c>
@@ -21301,7 +21301,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="823" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="823" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A823" t="s">
         <v>242</v>
       </c>
@@ -21321,7 +21321,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="824" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="824" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A824" t="s">
         <v>242</v>
       </c>
@@ -21341,7 +21341,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="825" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="825" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A825" t="s">
         <v>242</v>
       </c>
@@ -21361,7 +21361,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="826" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="826" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A826" t="s">
         <v>242</v>
       </c>
@@ -21381,7 +21381,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="827" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="827" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A827" t="s">
         <v>242</v>
       </c>
@@ -21401,7 +21401,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="828" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="828" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A828" t="s">
         <v>242</v>
       </c>
@@ -21421,7 +21421,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="829" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="829" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A829" t="s">
         <v>242</v>
       </c>
@@ -21441,7 +21441,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="830" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="830" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A830" t="s">
         <v>1240</v>
       </c>
@@ -21461,7 +21461,7 @@
         <v>1239</v>
       </c>
     </row>
-    <row r="831" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="831" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A831" t="s">
         <v>1240</v>
       </c>
@@ -21481,7 +21481,7 @@
         <v>1225</v>
       </c>
     </row>
-    <row r="832" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="832" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A832" t="s">
         <v>1240</v>
       </c>
@@ -21501,7 +21501,7 @@
         <v>1233</v>
       </c>
     </row>
-    <row r="833" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="833" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A833" t="s">
         <v>1240</v>
       </c>
@@ -21521,7 +21521,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="834" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="834" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A834" t="s">
         <v>1240</v>
       </c>
@@ -21541,7 +21541,7 @@
         <v>1237</v>
       </c>
     </row>
-    <row r="835" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="835" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A835" t="s">
         <v>1240</v>
       </c>
@@ -21561,7 +21561,7 @@
         <v>1223</v>
       </c>
     </row>
-    <row r="836" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="836" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A836" t="s">
         <v>1240</v>
       </c>
@@ -21581,7 +21581,7 @@
         <v>1219</v>
       </c>
     </row>
-    <row r="837" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="837" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A837" t="s">
         <v>1240</v>
       </c>
@@ -21601,7 +21601,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="838" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="838" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A838" t="s">
         <v>1240</v>
       </c>
@@ -21621,7 +21621,7 @@
         <v>1229</v>
       </c>
     </row>
-    <row r="839" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="839" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A839" t="s">
         <v>1240</v>
       </c>
@@ -21641,7 +21641,7 @@
         <v>1215</v>
       </c>
     </row>
-    <row r="840" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="840" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A840" t="s">
         <v>1240</v>
       </c>
@@ -21661,7 +21661,7 @@
         <v>1235</v>
       </c>
     </row>
-    <row r="841" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="841" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A841" t="s">
         <v>1240</v>
       </c>
@@ -21681,7 +21681,7 @@
         <v>1217</v>
       </c>
     </row>
-    <row r="842" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="842" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A842" t="s">
         <v>1240</v>
       </c>
@@ -21701,7 +21701,7 @@
         <v>1231</v>
       </c>
     </row>
-    <row r="843" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="843" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A843" t="s">
         <v>102</v>
       </c>
@@ -21724,7 +21724,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="844" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="844" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A844" t="s">
         <v>102</v>
       </c>
@@ -21747,7 +21747,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="845" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="845" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A845" t="s">
         <v>102</v>
       </c>
@@ -21770,7 +21770,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="846" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="846" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A846" t="s">
         <v>102</v>
       </c>
@@ -21793,7 +21793,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="847" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="847" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A847" t="s">
         <v>102</v>
       </c>
@@ -21816,7 +21816,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="848" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="848" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A848" t="s">
         <v>102</v>
       </c>
@@ -21839,7 +21839,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="849" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="849" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A849" t="s">
         <v>102</v>
       </c>
@@ -21862,7 +21862,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="850" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="850" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A850" t="s">
         <v>102</v>
       </c>
@@ -21885,7 +21885,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="851" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="851" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A851" t="s">
         <v>102</v>
       </c>
@@ -21908,7 +21908,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="852" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="852" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A852" t="s">
         <v>102</v>
       </c>
@@ -21931,7 +21931,7 @@
         <v>1366</v>
       </c>
     </row>
-    <row r="853" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="853" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A853" t="s">
         <v>102</v>
       </c>
@@ -21954,7 +21954,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="854" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="854" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A854" t="s">
         <v>102</v>
       </c>
@@ -21977,7 +21977,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="855" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="855" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A855" t="s">
         <v>102</v>
       </c>
@@ -22000,7 +22000,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="856" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="856" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A856" t="s">
         <v>102</v>
       </c>
@@ -22023,7 +22023,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="857" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="857" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A857" t="s">
         <v>89</v>
       </c>
@@ -22046,7 +22046,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="858" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="858" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A858" t="s">
         <v>89</v>
       </c>
@@ -22069,7 +22069,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="859" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="859" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A859" t="s">
         <v>89</v>
       </c>
@@ -22092,7 +22092,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="860" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="860" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A860" t="s">
         <v>89</v>
       </c>
@@ -22115,7 +22115,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="861" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="861" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A861" t="s">
         <v>89</v>
       </c>
@@ -22138,7 +22138,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="862" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="862" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A862" t="s">
         <v>77</v>
       </c>
@@ -22158,7 +22158,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="863" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="863" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A863" t="s">
         <v>77</v>
       </c>
@@ -22178,7 +22178,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="864" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="864" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A864" t="s">
         <v>77</v>
       </c>
@@ -22198,7 +22198,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="865" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="865" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A865" t="s">
         <v>77</v>
       </c>
@@ -22218,7 +22218,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="866" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="866" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A866" t="s">
         <v>77</v>
       </c>
@@ -22238,7 +22238,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="867" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="867" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A867" t="s">
         <v>64</v>
       </c>
@@ -22261,7 +22261,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="868" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="868" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A868" t="s">
         <v>64</v>
       </c>
@@ -22284,7 +22284,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="869" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="869" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A869" t="s">
         <v>64</v>
       </c>
@@ -22307,7 +22307,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="870" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="870" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A870" t="s">
         <v>64</v>
       </c>
@@ -22330,7 +22330,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="871" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="871" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A871" t="s">
         <v>64</v>
       </c>
@@ -22353,7 +22353,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="872" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="872" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A872" t="s">
         <v>64</v>
       </c>
@@ -22376,7 +22376,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="873" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="873" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A873" t="s">
         <v>64</v>
       </c>
@@ -22399,7 +22399,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="874" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="874" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A874" t="s">
         <v>73</v>
       </c>
@@ -22419,7 +22419,7 @@
         <v>1368</v>
       </c>
     </row>
-    <row r="875" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="875" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A875" t="s">
         <v>73</v>
       </c>
@@ -22439,7 +22439,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="876" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="876" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A876" t="s">
         <v>33</v>
       </c>
@@ -22462,7 +22462,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="877" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="877" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A877" t="s">
         <v>33</v>
       </c>
@@ -22485,7 +22485,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="878" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="878" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A878" t="s">
         <v>33</v>
       </c>
@@ -22508,7 +22508,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="879" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="879" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A879" t="s">
         <v>33</v>
       </c>
@@ -22531,7 +22531,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="880" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="880" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A880" t="s">
         <v>33</v>
       </c>
@@ -22554,7 +22554,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="881" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="881" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A881" t="s">
         <v>33</v>
       </c>
@@ -22577,7 +22577,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="882" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="882" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A882" t="s">
         <v>33</v>
       </c>
@@ -22600,7 +22600,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="883" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="883" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A883" t="s">
         <v>33</v>
       </c>
@@ -22623,7 +22623,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="884" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="884" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A884" t="s">
         <v>33</v>
       </c>
@@ -22646,7 +22646,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="885" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="885" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A885" t="s">
         <v>33</v>
       </c>
@@ -22669,7 +22669,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="886" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="886" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A886" t="s">
         <v>33</v>
       </c>
@@ -22692,7 +22692,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="887" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="887" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A887" t="s">
         <v>33</v>
       </c>
@@ -22715,7 +22715,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="888" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="888" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A888" t="s">
         <v>33</v>
       </c>
@@ -22738,7 +22738,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="889" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="889" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A889" t="s">
         <v>33</v>
       </c>
@@ -22761,7 +22761,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="890" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="890" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A890" t="s">
         <v>33</v>
       </c>
@@ -22784,7 +22784,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="891" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="891" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A891" t="s">
         <v>33</v>
       </c>
@@ -22807,7 +22807,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="892" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="892" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A892" t="s">
         <v>33</v>
       </c>
@@ -22830,7 +22830,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="893" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="893" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A893" t="s">
         <v>33</v>
       </c>
@@ -22853,7 +22853,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="894" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="894" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A894" t="s">
         <v>33</v>
       </c>
@@ -22876,7 +22876,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="895" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="895" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A895" t="s">
         <v>33</v>
       </c>
@@ -22899,7 +22899,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="896" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="896" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A896" t="s">
         <v>33</v>
       </c>
@@ -22922,7 +22922,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="897" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="897" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A897" t="s">
         <v>33</v>
       </c>
@@ -22945,7 +22945,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="898" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="898" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A898" t="s">
         <v>33</v>
       </c>
@@ -22968,7 +22968,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="899" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="899" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A899" t="s">
         <v>33</v>
       </c>
@@ -22991,7 +22991,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="900" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="900" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A900" t="s">
         <v>33</v>
       </c>
@@ -23014,7 +23014,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="901" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="901" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A901" t="s">
         <v>33</v>
       </c>
@@ -23037,7 +23037,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="902" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="902" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A902" t="s">
         <v>33</v>
       </c>
@@ -23060,7 +23060,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="903" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="903" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A903" t="s">
         <v>33</v>
       </c>
@@ -23083,7 +23083,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="904" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="904" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A904" t="s">
         <v>33</v>
       </c>
@@ -23106,7 +23106,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="905" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="905" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A905" t="s">
         <v>5</v>
       </c>
@@ -23129,7 +23129,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="906" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="906" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A906" t="s">
         <v>5</v>
       </c>
@@ -23152,7 +23152,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="907" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="907" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A907" t="s">
         <v>5</v>
       </c>
@@ -23175,7 +23175,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="908" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="908" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A908" t="s">
         <v>5</v>
       </c>
@@ -23198,7 +23198,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="909" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="909" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A909" t="s">
         <v>5</v>
       </c>
@@ -23221,7 +23221,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="910" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="910" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A910" t="s">
         <v>5</v>
       </c>
@@ -23244,7 +23244,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="911" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="911" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A911" t="s">
         <v>5</v>
       </c>
@@ -23267,7 +23267,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="912" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="912" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A912" t="s">
         <v>5</v>
       </c>
@@ -23290,7 +23290,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="913" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="913" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A913" t="s">
         <v>5</v>
       </c>
@@ -23313,7 +23313,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="914" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="914" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A914" t="s">
         <v>5</v>
       </c>
@@ -23336,7 +23336,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="915" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="915" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A915" t="s">
         <v>5</v>
       </c>
@@ -23359,7 +23359,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="916" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="916" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A916" t="s">
         <v>5</v>
       </c>
@@ -23382,7 +23382,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="917" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="917" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A917" t="s">
         <v>5</v>
       </c>
@@ -23405,7 +23405,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="918" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="918" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A918" t="s">
         <v>5</v>
       </c>
@@ -23428,7 +23428,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="919" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="919" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A919" t="s">
         <v>5</v>
       </c>
@@ -23451,7 +23451,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="920" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="920" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A920" t="s">
         <v>5</v>
       </c>
@@ -23474,7 +23474,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="921" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="921" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A921" t="s">
         <v>5</v>
       </c>
@@ -23497,7 +23497,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="922" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="922" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A922" t="s">
         <v>5</v>
       </c>
@@ -23520,7 +23520,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="923" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="923" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A923" t="s">
         <v>5</v>
       </c>
@@ -23543,7 +23543,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="924" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="924" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A924" t="s">
         <v>5</v>
       </c>
@@ -23566,7 +23566,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="925" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="925" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A925" t="s">
         <v>5</v>
       </c>
@@ -23589,7 +23589,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="926" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="926" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A926" t="s">
         <v>5</v>
       </c>
@@ -23612,7 +23612,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="927" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="927" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A927" t="s">
         <v>5</v>
       </c>
@@ -23635,7 +23635,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="928" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="928" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A928" t="s">
         <v>5</v>
       </c>
@@ -23663,6 +23663,12 @@
     <filterColumn colId="1">
       <filters>
         <filter val="Department of Health and Social Care"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="3">
+      <filters>
+        <filter val="BBSRC"/>
+        <filter val="EPSRC"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -23708,15 +23714,15 @@
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="6"/>
       <c r="B1" t="s">
         <v>1023</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="5"/>
       <c r="B2" t="s">
         <v>1024</v>
@@ -23742,17 +23748,17 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="11.6640625" customWidth="1"/>
+    <col min="3" max="3" width="11.69921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1019</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>102</v>
       </c>
@@ -23780,6 +23786,24 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100E6713CC7F31D7C498DF06765AF1263E4" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="49295815813be5682bd1502ac40ad112">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns3="9e449739-2858-4f41-8e5c-7dc6df20853e" xmlns:ns4="05c15269-663a-4da2-bb2b-1510839404b9" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="57db594e689bb932d2839527134c19ea" ns1:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -24013,40 +24037,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E21D5880-A9EF-4322-906E-79CE5A8FFAC1}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4115639F-0FB6-4C25-A530-2B8A26AA3E24}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="9e449739-2858-4f41-8e5c-7dc6df20853e"/>
-    <ds:schemaRef ds:uri="05c15269-663a-4da2-bb2b-1510839404b9"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -24070,9 +24064,21 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4115639F-0FB6-4C25-A530-2B8A26AA3E24}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E21D5880-A9EF-4322-906E-79CE5A8FFAC1}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="9e449739-2858-4f41-8e5c-7dc6df20853e"/>
+    <ds:schemaRef ds:uri="05c15269-663a-4da2-bb2b-1510839404b9"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>